--- a/data/dbgap-gru-datasets.xlsx
+++ b/data/dbgap-gru-datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE53556D-D646-4149-9150-CB39ACFC3EAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBAE67E-87E1-6D48-A75D-E94717961C1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="33440" windowHeight="28340" activeTab="6" xr2:uid="{508F2554-2B11-6746-B749-6950C00316BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="531">
   <si>
     <t>Genome-Wide Association Study of Amyotrophic Lateral Sclerosis</t>
   </si>
@@ -2295,7 +2295,7 @@
   <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:Z361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="V1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
@@ -19633,8 +19633,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44894,10 +44894,10 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -45466,7 +45466,9 @@
         <v>519</v>
       </c>
       <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
+      <c r="M21" s="23" t="s">
+        <v>519</v>
+      </c>
       <c r="N21" s="23" t="s">
         <v>519</v>
       </c>

--- a/data/dbgap-gru-datasets.xlsx
+++ b/data/dbgap-gru-datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A618A23F-78D2-0F44-A6E2-C9D5175610E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4FD7A-AB07-5340-B641-39294B05BE05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="6" xr2:uid="{508F2554-2B11-6746-B749-6950C00316BA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'dbGaP-GRU-raw'!$Z$1:$Z$235</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">GRU!$E$3:$Y$351</definedName>
-    <definedName name="Matrix">LargeDataset!$D$2:$P$34</definedName>
+    <definedName name="Matrix">LargeDataset!$D$3:$P$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2099,934 +2099,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>LargeDataset!$R$2:$R$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>465</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1409</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11413</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3622</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4089</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1860</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>967</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2270</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3161</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7961</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1296</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2585</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1078</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10500</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>25500</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E78D-EA4D-9550-A6F7DF3FAC08}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1546107439"/>
-        <c:axId val="1418632735"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1546107439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1418632735"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1418632735"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1546107439"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>582083</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>83608</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>455083</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3F5E5C-8ABF-3149-A4E5-823641C7A1ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45925,13 +44997,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E1ECE4-9F7E-F144-909B-E63D60787F47}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AE672"/>
+  <dimension ref="A1:AE673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -45946,166 +45018,124 @@
     <col min="20" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="149" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:26" ht="149" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="33" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="D1" s="13" t="s">
+      <c r="B2" s="33"/>
+      <c r="D2" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L2" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M2" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P2" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="12" t="s">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="14">
-        <v>2504</v>
-      </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14">
-        <v>465</v>
-      </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14">
-        <f>LOG10(MIN(D2,F2:P2))</f>
-        <v>2.667452952889954</v>
-      </c>
-      <c r="R2" s="32">
-        <f>(MIN(D2,F2:O2))</f>
-        <v>465</v>
-      </c>
-      <c r="S2" s="32"/>
-      <c r="T2" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="Z2" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>2504</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="14">
-        <v>4000</v>
-      </c>
-      <c r="E3" s="14">
-        <v>2000</v>
-      </c>
+        <v>2504</v>
+      </c>
+      <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="14">
+        <v>465</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
       <c r="P3" s="14"/>
       <c r="Q3" s="14">
-        <f t="shared" ref="Q3:Q5" si="0">LOG10(MIN(D3,F3:P3))</f>
-        <v>3.6020599913279625</v>
+        <f>LOG10(MIN(D3,F3:P3))</f>
+        <v>2.667452952889954</v>
       </c>
       <c r="R3" s="32">
-        <f t="shared" ref="R3:R5" si="1">(MIN(D3,F3:O3))</f>
-        <v>4000</v>
+        <f>(MIN(D3,F3:O3))</f>
+        <v>465</v>
       </c>
       <c r="S3" s="32"/>
       <c r="T3" s="18" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
       <c r="Z3" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>2504</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>553</v>
+        <v>375</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="14">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="14"/>
+        <v>4000</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2000</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -46115,36 +45145,38 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
-      <c r="O4" s="14">
-        <v>100000</v>
-      </c>
+      <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="Q4:Q6" si="0">LOG10(MIN(D4,F4:P4))</f>
+        <v>3.6020599913279625</v>
       </c>
       <c r="R4" s="32">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <f t="shared" ref="R4:R6" si="1">(MIN(D4,F4:O4))</f>
+        <v>4000</v>
       </c>
       <c r="S4" s="32"/>
       <c r="T4" s="18" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>554</v>
+        <v>376</v>
       </c>
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
+      <c r="Z4" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="14">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -46157,32 +45189,36 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5" s="32">
         <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="S5" s="32"/>
       <c r="T5" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="U5" s="18"/>
+        <v>555</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>554</v>
+      </c>
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14">
+        <v>1000000</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -46193,75 +45229,71 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="O6" s="14">
+        <v>1000000</v>
+      </c>
       <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="32"/>
+      <c r="Q6" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R6" s="32">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
       <c r="S6" s="32"/>
       <c r="T6" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="U6" s="21" t="s">
-        <v>377</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
-      <c r="Z6" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="D7" s="30">
-        <v>1409</v>
-      </c>
+      <c r="A7" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="30"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
-      <c r="Q7" s="14">
-        <f>LOG10(MIN(D7,F7:P7))</f>
-        <v>3.1489109931093564</v>
-      </c>
-      <c r="R7" s="32">
-        <f>(MIN(D7,F7:O7))</f>
-        <v>1409</v>
-      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="32"/>
       <c r="S7" s="32"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="21"/>
+      <c r="T7" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>377</v>
+      </c>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="Z7" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="27" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D8" s="30">
-        <v>2799</v>
+        <v>1409</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -46276,12 +45308,12 @@
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14">
-        <f t="shared" ref="Q8:Q33" si="2">LOG10(MIN(D8,F8:P8))</f>
-        <v>3.4470028984661623</v>
+        <f>LOG10(MIN(D8,F8:P8))</f>
+        <v>3.1489109931093564</v>
       </c>
       <c r="R8" s="32">
         <f>(MIN(D8,F8:O8))</f>
-        <v>2799</v>
+        <v>1409</v>
       </c>
       <c r="S8" s="32"/>
       <c r="T8" s="18"/>
@@ -46289,20 +45321,20 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
       <c r="Z8" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D9" s="30">
-        <v>7500</v>
+        <v>2799</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -46317,12 +45349,12 @@
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14">
-        <f t="shared" si="2"/>
-        <v>3.8750612633917001</v>
+        <f t="shared" ref="Q9:Q34" si="2">LOG10(MIN(D9,F9:P9))</f>
+        <v>3.4470028984661623</v>
       </c>
       <c r="R9" s="32">
         <f>(MIN(D9,F9:O9))</f>
-        <v>7500</v>
+        <v>2799</v>
       </c>
       <c r="S9" s="32"/>
       <c r="T9" s="18"/>
@@ -46330,27 +45362,25 @@
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
       <c r="Z9" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>465</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D10" s="30">
-        <v>1100</v>
+        <v>7500</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="30" t="s">
-        <v>517</v>
-      </c>
+      <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="14"/>
       <c r="K10" s="30"/>
@@ -46361,11 +45391,11 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14">
         <f t="shared" si="2"/>
-        <v>3.0413926851582249</v>
+        <v>3.8750612633917001</v>
       </c>
       <c r="R10" s="32">
         <f>(MIN(D10,F10:O10))</f>
-        <v>1100</v>
+        <v>7500</v>
       </c>
       <c r="S10" s="32"/>
       <c r="T10" s="18"/>
@@ -46373,25 +45403,27 @@
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="Z10" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D11" s="30">
-        <v>11413</v>
+        <v>1100</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="30" t="s">
+        <v>517</v>
+      </c>
       <c r="I11" s="30"/>
       <c r="J11" s="14"/>
       <c r="K11" s="30"/>
@@ -46402,11 +45434,11 @@
       <c r="P11" s="14"/>
       <c r="Q11" s="14">
         <f t="shared" si="2"/>
-        <v>4.0573998172660621</v>
+        <v>3.0413926851582249</v>
       </c>
       <c r="R11" s="32">
         <f>(MIN(D11,F11:O11))</f>
-        <v>11413</v>
+        <v>1100</v>
       </c>
       <c r="S11" s="32"/>
       <c r="T11" s="18"/>
@@ -46414,20 +45446,20 @@
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
       <c r="Z11" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="27" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D12" s="30">
-        <v>3622</v>
+        <v>11413</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -46443,11 +45475,11 @@
       <c r="P12" s="14"/>
       <c r="Q12" s="14">
         <f t="shared" si="2"/>
-        <v>3.5589484459780394</v>
+        <v>4.0573998172660621</v>
       </c>
       <c r="R12" s="32">
         <f>(MIN(D12,F12:O12))</f>
-        <v>3622</v>
+        <v>11413</v>
       </c>
       <c r="S12" s="32"/>
       <c r="T12" s="18"/>
@@ -46455,20 +45487,20 @@
       <c r="V12" s="18"/>
       <c r="W12" s="18"/>
       <c r="Z12" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D13" s="30">
-        <v>3600</v>
+        <v>3622</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -46484,11 +45516,11 @@
       <c r="P13" s="14"/>
       <c r="Q13" s="14">
         <f t="shared" si="2"/>
-        <v>3.5563025007672873</v>
+        <v>3.5589484459780394</v>
       </c>
       <c r="R13" s="32">
         <f>(MIN(D13,F13:O13))</f>
-        <v>3600</v>
+        <v>3622</v>
       </c>
       <c r="S13" s="32"/>
       <c r="T13" s="18"/>
@@ -46496,20 +45528,20 @@
       <c r="V13" s="18"/>
       <c r="W13" s="18"/>
       <c r="Z13" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D14" s="30">
-        <v>4089</v>
+        <v>3600</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -46525,11 +45557,11 @@
       <c r="P14" s="14"/>
       <c r="Q14" s="14">
         <f t="shared" si="2"/>
-        <v>3.6116171105543362</v>
+        <v>3.5563025007672873</v>
       </c>
       <c r="R14" s="32">
         <f>(MIN(D14,F14:O14))</f>
-        <v>4089</v>
+        <v>3600</v>
       </c>
       <c r="S14" s="32"/>
       <c r="T14" s="18"/>
@@ -46537,20 +45569,20 @@
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
       <c r="Z14" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D15" s="30">
-        <v>1400</v>
+        <v>4089</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -46566,11 +45598,11 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14">
         <f t="shared" si="2"/>
-        <v>3.1461280356782382</v>
+        <v>3.6116171105543362</v>
       </c>
       <c r="R15" s="32">
         <f>(MIN(D15,F15:O15))</f>
-        <v>1400</v>
+        <v>4089</v>
       </c>
       <c r="S15" s="32"/>
       <c r="T15" s="18"/>
@@ -46578,20 +45610,20 @@
       <c r="V15" s="18"/>
       <c r="W15" s="18"/>
       <c r="Z15" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>4000</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D16" s="30">
-        <v>1860</v>
+        <v>1400</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -46607,11 +45639,11 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
-        <v>3.2695129442179165</v>
+        <v>3.1461280356782382</v>
       </c>
       <c r="R16" s="32">
         <f>(MIN(D16,F16:O16))</f>
-        <v>1860</v>
+        <v>1400</v>
       </c>
       <c r="S16" s="32"/>
       <c r="T16" s="18"/>
@@ -46619,20 +45651,20 @@
       <c r="V16" s="18"/>
       <c r="W16" s="18"/>
       <c r="Z16" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>2000</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="27" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D17" s="30">
-        <v>967</v>
+        <v>1860</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -46648,11 +45680,11 @@
       <c r="P17" s="14"/>
       <c r="Q17" s="14">
         <f t="shared" si="2"/>
-        <v>2.9854264740830017</v>
+        <v>3.2695129442179165</v>
       </c>
       <c r="R17" s="32">
         <f>(MIN(D17,F17:O17))</f>
-        <v>967</v>
+        <v>1860</v>
       </c>
       <c r="S17" s="32"/>
       <c r="T17" s="18"/>
@@ -46660,20 +45692,20 @@
       <c r="V17" s="18"/>
       <c r="W17" s="18"/>
       <c r="Z17" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D18" s="30">
-        <v>2270</v>
+        <v>967</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -46689,11 +45721,11 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14">
         <f t="shared" si="2"/>
-        <v>3.3560258571931225</v>
+        <v>2.9854264740830017</v>
       </c>
       <c r="R18" s="32">
         <f>(MIN(D18,F18:O18))</f>
-        <v>2270</v>
+        <v>967</v>
       </c>
       <c r="S18" s="32"/>
       <c r="T18" s="18"/>
@@ -46701,20 +45733,20 @@
       <c r="V18" s="18"/>
       <c r="W18" s="18"/>
       <c r="Z18" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="27" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D19" s="30">
-        <v>3161</v>
+        <v>2270</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -46730,11 +45762,11 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14">
         <f t="shared" si="2"/>
-        <v>3.4998244958395799</v>
+        <v>3.3560258571931225</v>
       </c>
       <c r="R19" s="32">
         <f>(MIN(D19,F19:O19))</f>
-        <v>3161</v>
+        <v>2270</v>
       </c>
       <c r="S19" s="32"/>
       <c r="T19" s="18"/>
@@ -46742,20 +45774,20 @@
       <c r="V19" s="18"/>
       <c r="W19" s="18"/>
       <c r="Z19" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D20" s="30">
-        <v>3500</v>
+        <v>3161</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -46771,11 +45803,11 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14">
         <f t="shared" si="2"/>
-        <v>3.5440680443502757</v>
+        <v>3.4998244958395799</v>
       </c>
       <c r="R20" s="32">
         <f>(MIN(D20,F20:O20))</f>
-        <v>3500</v>
+        <v>3161</v>
       </c>
       <c r="S20" s="32"/>
       <c r="T20" s="18"/>
@@ -46783,46 +45815,40 @@
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
       <c r="Z20" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="27" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="D21" s="30">
-        <v>4595</v>
+        <v>3500</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="30">
-        <v>950</v>
-      </c>
+      <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="30">
-        <v>950</v>
-      </c>
+      <c r="K21" s="30"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="14">
-        <v>1000</v>
-      </c>
+      <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14">
         <f t="shared" si="2"/>
-        <v>2.9777236052888476</v>
+        <v>3.5440680443502757</v>
       </c>
       <c r="R21" s="32">
         <f>(MIN(D21,F21:O21))</f>
-        <v>950</v>
+        <v>3500</v>
       </c>
       <c r="S21" s="32"/>
       <c r="T21" s="18"/>
@@ -46830,42 +45856,46 @@
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
       <c r="Z21" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="27" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="D22" s="30">
-        <v>3230</v>
+        <v>4595</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="30"/>
+      <c r="G22" s="30">
+        <v>950</v>
+      </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="14"/>
       <c r="K22" s="30">
-        <v>308</v>
+        <v>950</v>
       </c>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="N22" s="14">
+        <v>1000</v>
+      </c>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14">
         <f t="shared" si="2"/>
-        <v>2.4885507165004443</v>
+        <v>2.9777236052888476</v>
       </c>
       <c r="R22" s="32">
         <f>(MIN(D22,F22:O22))</f>
-        <v>308</v>
+        <v>950</v>
       </c>
       <c r="S22" s="32"/>
       <c r="T22" s="18"/>
@@ -46873,20 +45903,20 @@
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
       <c r="Z22" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D23" s="30">
-        <v>7961</v>
+        <v>3230</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -46894,7 +45924,9 @@
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="30"/>
+      <c r="K23" s="30">
+        <v>308</v>
+      </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -46902,11 +45934,11 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14">
         <f t="shared" si="2"/>
-        <v>3.9009676239191244</v>
+        <v>2.4885507165004443</v>
       </c>
       <c r="R23" s="32">
         <f>(MIN(D23,F23:O23))</f>
-        <v>7961</v>
+        <v>308</v>
       </c>
       <c r="S23" s="32"/>
       <c r="T23" s="18"/>
@@ -46914,20 +45946,20 @@
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
       <c r="Z23" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D24" s="30">
-        <v>1296</v>
+        <v>7961</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -46943,11 +45975,11 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="14">
         <f t="shared" si="2"/>
-        <v>3.1126050015345745</v>
+        <v>3.9009676239191244</v>
       </c>
       <c r="R24" s="32">
         <f>(MIN(D24,F24:O24))</f>
-        <v>1296</v>
+        <v>7961</v>
       </c>
       <c r="S24" s="32"/>
       <c r="T24" s="18"/>
@@ -46955,20 +45987,20 @@
       <c r="V24" s="18"/>
       <c r="W24" s="18"/>
       <c r="Z24" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
       <c r="B25" s="27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D25" s="30">
-        <v>1500</v>
+        <v>1296</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -46976,9 +46008,7 @@
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="14"/>
-      <c r="K25" s="30">
-        <v>450</v>
-      </c>
+      <c r="K25" s="30"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
@@ -46986,11 +46016,11 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="14">
         <f t="shared" si="2"/>
-        <v>2.6532125137753435</v>
+        <v>3.1126050015345745</v>
       </c>
       <c r="R25" s="32">
         <f>(MIN(D25,F25:O25))</f>
-        <v>450</v>
+        <v>1296</v>
       </c>
       <c r="S25" s="32"/>
       <c r="T25" s="18"/>
@@ -46998,20 +46028,20 @@
       <c r="V25" s="18"/>
       <c r="W25" s="18"/>
       <c r="Z25" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
       <c r="B26" s="27" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D26" s="30">
-        <v>2585</v>
+        <v>1500</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -47019,7 +46049,9 @@
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="30"/>
+      <c r="K26" s="30">
+        <v>450</v>
+      </c>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
@@ -47027,11 +46059,11 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14">
         <f t="shared" si="2"/>
-        <v>3.4124605474299612</v>
+        <v>2.6532125137753435</v>
       </c>
       <c r="R26" s="32">
         <f>(MIN(D26,F26:O26))</f>
-        <v>2585</v>
+        <v>450</v>
       </c>
       <c r="S26" s="32"/>
       <c r="T26" s="18"/>
@@ -47039,20 +46071,20 @@
       <c r="V26" s="18"/>
       <c r="W26" s="18"/>
       <c r="Z26" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="27" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D27" s="30">
-        <v>1078</v>
+        <v>2585</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -47060,9 +46092,7 @@
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="30">
-        <v>1078</v>
-      </c>
+      <c r="K27" s="30"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
@@ -47070,11 +46100,11 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14">
         <f t="shared" si="2"/>
-        <v>3.03261876085072</v>
+        <v>3.4124605474299612</v>
       </c>
       <c r="R27" s="32">
         <f>(MIN(D27,F27:O27))</f>
-        <v>1078</v>
+        <v>2585</v>
       </c>
       <c r="S27" s="32"/>
       <c r="T27" s="18"/>
@@ -47082,20 +46112,20 @@
       <c r="V27" s="18"/>
       <c r="W27" s="18"/>
       <c r="Z27" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="27" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D28" s="30">
-        <v>6000</v>
+        <v>1078</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -47103,7 +46133,9 @@
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="14"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="30">
+        <v>1078</v>
+      </c>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
@@ -47111,11 +46143,11 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14">
         <f t="shared" si="2"/>
-        <v>3.7781512503836434</v>
+        <v>3.03261876085072</v>
       </c>
       <c r="R28" s="32">
         <f>(MIN(D28,F28:O28))</f>
-        <v>6000</v>
+        <v>1078</v>
       </c>
       <c r="S28" s="32"/>
       <c r="T28" s="18"/>
@@ -47123,57 +46155,59 @@
       <c r="V28" s="18"/>
       <c r="W28" s="18"/>
       <c r="Z28" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="14"/>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18"/>
+      <c r="B29" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="D29" s="30">
+        <v>6000</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="K29" s="30"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="32"/>
+      <c r="Q29" s="14">
+        <f t="shared" si="2"/>
+        <v>3.7781512503836434</v>
+      </c>
+      <c r="R29" s="32">
+        <f>(MIN(D29,F29:O29))</f>
+        <v>6000</v>
+      </c>
       <c r="S29" s="32"/>
-      <c r="T29" s="31" t="s">
-        <v>548</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>445</v>
-      </c>
+      <c r="T29" s="18"/>
+      <c r="U29" s="21"/>
       <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="Z29" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18" t="s">
-        <v>546</v>
-      </c>
+      <c r="A30" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="B30" s="18"/>
       <c r="C30" s="18"/>
-      <c r="D30" s="14">
-        <v>10500</v>
-      </c>
-      <c r="E30" s="14">
-        <v>4000</v>
-      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -47185,35 +46219,33 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
-      <c r="Q30" s="14">
-        <f t="shared" si="2"/>
-        <v>4.0211892990699383</v>
-      </c>
-      <c r="R30" s="32">
-        <f>(MIN(D30,F30:O30))</f>
-        <v>10500</v>
-      </c>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="32"/>
-      <c r="T30" s="18" t="s">
-        <v>547</v>
-      </c>
-      <c r="U30" s="19"/>
+      <c r="T30" s="31" t="s">
+        <v>548</v>
+      </c>
+      <c r="U30" s="19" t="s">
+        <v>445</v>
+      </c>
       <c r="V30" s="18"/>
       <c r="W30" s="18"/>
-    </row>
-    <row r="31" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z30" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>550</v>
-      </c>
+      <c r="B31" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C31" s="18"/>
       <c r="D31" s="14">
-        <v>25500</v>
+        <v>10500</v>
       </c>
       <c r="E31" s="14">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -47228,37 +46260,33 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="14">
         <f t="shared" si="2"/>
-        <v>4.4065401804339555</v>
+        <v>4.0211892990699383</v>
       </c>
       <c r="R31" s="32">
         <f>(MIN(D31,F31:O31))</f>
-        <v>25500</v>
+        <v>10500</v>
       </c>
       <c r="S31" s="32"/>
       <c r="T31" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="U31" s="21"/>
+      <c r="U31" s="19"/>
       <c r="V31" s="18"/>
       <c r="W31" s="18"/>
-      <c r="Z31" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
-      <c r="B32" s="18" t="s">
-        <v>499</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>500</v>
+      <c r="B32" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>550</v>
       </c>
       <c r="D32" s="14">
-        <v>7500</v>
+        <v>25500</v>
       </c>
       <c r="E32" s="14">
-        <v>4500</v>
+        <v>12500</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -47273,11 +46301,11 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="14">
         <f t="shared" si="2"/>
-        <v>3.8750612633917001</v>
+        <v>4.4065401804339555</v>
       </c>
       <c r="R32" s="32">
         <f>(MIN(D32,F32:O32))</f>
-        <v>7500</v>
+        <v>25500</v>
       </c>
       <c r="S32" s="32"/>
       <c r="T32" s="18" t="s">
@@ -47287,22 +46315,24 @@
       <c r="V32" s="18"/>
       <c r="W32" s="18"/>
       <c r="Z32" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="18"/>
       <c r="B33" s="18" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D33" s="14">
-        <v>6140</v>
-      </c>
-      <c r="E33" s="14"/>
+        <v>7500</v>
+      </c>
+      <c r="E33" s="14">
+        <v>4500</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -47316,157 +46346,163 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="14">
         <f t="shared" si="2"/>
-        <v>3.7881683711411678</v>
+        <v>3.8750612633917001</v>
       </c>
       <c r="R33" s="32">
         <f>(MIN(D33,F33:O33))</f>
-        <v>6140</v>
+        <v>7500</v>
       </c>
       <c r="S33" s="32"/>
-      <c r="T33" s="18"/>
+      <c r="T33" s="18" t="s">
+        <v>547</v>
+      </c>
       <c r="U33" s="21"/>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
       <c r="Z33" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="12">
-        <f>LOG10(6140)</f>
-        <v>3.7881683711411678</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
+      <c r="B34" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="D34" s="14">
+        <v>6140</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14">
+        <f t="shared" si="2"/>
+        <v>3.7881683711411678</v>
+      </c>
+      <c r="R34" s="32">
+        <f>(MIN(D34,F34:O34))</f>
+        <v>6140</v>
+      </c>
+      <c r="S34" s="32"/>
       <c r="T34" s="18"/>
       <c r="U34" s="21"/>
       <c r="V34" s="18"/>
       <c r="W34" s="18"/>
       <c r="Z34" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="12">
+        <f>LOG10(6140)</f>
+        <v>3.7881683711411678</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE35" s="12">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="Z35" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AE36" s="12">
         <f>LOG10(1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
+    <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14">
         <v>1000000</v>
       </c>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14">
-        <f>LOG(MIN(D36,F36:O36),10)</f>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14">
+        <f>LOG(MIN(D37,F37:O37),10)</f>
         <v>5.9999999999999991</v>
       </c>
-      <c r="R36" s="32">
-        <f>(MIN(D36,F36:O36))</f>
+      <c r="R37" s="32">
+        <f>(MIN(D37,F37:O37))</f>
         <v>1000000</v>
       </c>
-      <c r="S36" s="14"/>
-      <c r="T36" s="18" t="s">
+      <c r="S37" s="14"/>
+      <c r="T37" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="U36" s="18" t="s">
+      <c r="U37" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="Z36" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
       <c r="Z37" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="Z38" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="12">
         <f>LOG10(3)</f>
         <v>0.47712125471966244</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A39" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="18" t="s">
-        <v>504</v>
-      </c>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="Z38" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="12">
-        <f>LOG10(4)</f>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="C39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -47474,9 +46510,7 @@
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="18" t="s">
-        <v>511</v>
-      </c>
+      <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
@@ -47485,28 +46519,25 @@
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
       <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="28" t="s">
-        <v>507</v>
-      </c>
+      <c r="T39" s="20"/>
+      <c r="U39" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="V39" s="18"/>
       <c r="W39" s="18"/>
-      <c r="X39" s="12" t="s">
-        <v>511</v>
-      </c>
       <c r="Z39" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>100000</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AE39" s="12">
-        <f>LOG10(5)</f>
-        <v>0.69897000433601886</v>
+        <f>LOG10(4)</f>
+        <v>0.6020599913279624</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -47516,39 +46547,39 @@
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="18" t="s">
-        <v>512</v>
-      </c>
+      <c r="K40" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
       <c r="U40" s="18"/>
       <c r="V40" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W40" s="18"/>
       <c r="X40" s="12" t="s">
-        <v>369</v>
+        <v>511</v>
       </c>
       <c r="Z40" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>100000</v>
       </c>
       <c r="AE40" s="12">
-        <f>LOG10(6)</f>
-        <v>0.77815125038364363</v>
+        <f>LOG10(5)</f>
+        <v>0.69897000433601886</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
       <c r="B41" s="18" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -47559,4493 +46590,4535 @@
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
       <c r="T41" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="U41" s="18"/>
       <c r="V41" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W41" s="18"/>
       <c r="X41" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z41" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="12">
+        <f>LOG10(6)</f>
+        <v>0.77815125038364363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="U42" s="18"/>
+      <c r="V42" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="W42" s="18"/>
+      <c r="X42" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="Z41" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+      <c r="Z42" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>1000000</v>
       </c>
-      <c r="AE41" s="12">
+      <c r="AE42" s="12">
         <f>LOG10(7)</f>
         <v>0.84509804001425681</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="W42" s="18"/>
-      <c r="Z42" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="12">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="W43" s="18"/>
+      <c r="Z43" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="12">
         <f>LOG10(8)</f>
         <v>0.90308998699194354</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="Z43" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="12">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="Z44" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="12">
         <f>LOG10(9)</f>
         <v>0.95424250943932487</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="Z44" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.15">
       <c r="Z45" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.15">
       <c r="Z46" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A47" s="18" t="s">
+      <c r="Z47" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A48" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E48" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18" t="s">
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="U47" s="18" t="s">
+      <c r="U48" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="V47" s="18" t="s">
+      <c r="V48" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="Z47" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
       <c r="Z48" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AA48"/>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z49" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA49"/>
     </row>
     <row r="50" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z50" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA50"/>
     </row>
     <row r="51" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z51" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA51"/>
     </row>
     <row r="52" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z52" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1000000</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA52"/>
     </row>
     <row r="53" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z53" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1000000</v>
       </c>
       <c r="AA53"/>
     </row>
     <row r="54" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z54" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA54"/>
     </row>
     <row r="55" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z55" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA55"/>
     </row>
     <row r="56" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z56" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA56"/>
     </row>
     <row r="57" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z57" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA57"/>
     </row>
     <row r="58" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z58" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA58"/>
     </row>
     <row r="59" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z59" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA59"/>
     </row>
     <row r="60" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z60" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA60"/>
     </row>
     <row r="61" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z61" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA61"/>
     </row>
     <row r="62" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z62" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA62"/>
     </row>
     <row r="63" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z63" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA63"/>
     </row>
     <row r="64" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z64" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA64"/>
     </row>
     <row r="65" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z65" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA65"/>
     </row>
     <row r="66" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z66" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA66"/>
     </row>
     <row r="67" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z67" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1409</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA67"/>
     </row>
     <row r="68" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z68" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1409</v>
       </c>
       <c r="AA68"/>
     </row>
     <row r="69" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z69" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA69"/>
     </row>
     <row r="70" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z70" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA70"/>
     </row>
     <row r="71" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z71" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA71"/>
     </row>
     <row r="72" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z72" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA72"/>
     </row>
     <row r="73" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z73" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA73"/>
     </row>
     <row r="74" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z74" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA74"/>
     </row>
     <row r="75" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z75" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA75"/>
     </row>
     <row r="76" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z76" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA76"/>
     </row>
     <row r="77" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z77" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA77"/>
     </row>
     <row r="78" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z78" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA78"/>
     </row>
     <row r="79" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z79" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA79"/>
     </row>
     <row r="80" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z80" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>2799</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA80"/>
     </row>
     <row r="81" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z81" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>2799</v>
       </c>
       <c r="AA81"/>
     </row>
     <row r="82" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z82" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA82"/>
     </row>
     <row r="83" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z83" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA83"/>
     </row>
     <row r="84" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z84" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA84"/>
     </row>
     <row r="85" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z85" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA85"/>
     </row>
     <row r="86" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z86" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA86"/>
     </row>
     <row r="87" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z87" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA87"/>
     </row>
     <row r="88" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z88" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA88"/>
     </row>
     <row r="89" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z89" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA89"/>
     </row>
     <row r="90" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z90" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA90"/>
     </row>
     <row r="91" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z91" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA91"/>
     </row>
     <row r="92" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z92" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA92"/>
     </row>
     <row r="93" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z93" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>7500</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA93"/>
     </row>
     <row r="94" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z94" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>7500</v>
       </c>
       <c r="AA94"/>
     </row>
     <row r="95" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z95" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA95"/>
     </row>
     <row r="96" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z96" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA96"/>
     </row>
     <row r="97" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z97" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA97"/>
     </row>
     <row r="98" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z98" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA98"/>
     </row>
     <row r="99" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z99" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA99"/>
     </row>
     <row r="100" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z100" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA100"/>
     </row>
     <row r="101" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z101" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA101"/>
     </row>
     <row r="102" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z102" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA102"/>
     </row>
     <row r="103" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z103" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA103"/>
     </row>
     <row r="104" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z104" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA104"/>
     </row>
     <row r="105" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z105" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA105"/>
     </row>
     <row r="106" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z106" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1100</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA106"/>
     </row>
     <row r="107" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z107" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1100</v>
       </c>
       <c r="AA107"/>
     </row>
     <row r="108" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z108" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA108"/>
     </row>
     <row r="109" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z109" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA109"/>
     </row>
     <row r="110" spans="26:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="Z110" s="12" t="str">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+      <c r="Z110" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA110"/>
+    </row>
+    <row r="111" spans="26:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z111" s="12" t="str">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v xml:space="preserve">  </v>
-      </c>
-      <c r="AA110"/>
-    </row>
-    <row r="111" spans="26:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="Z111" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
       </c>
       <c r="AA111"/>
     </row>
     <row r="112" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z112" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA112"/>
     </row>
     <row r="113" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z113" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA113"/>
     </row>
     <row r="114" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z114" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA114"/>
     </row>
     <row r="115" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z115" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA115"/>
     </row>
     <row r="116" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z116" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA116"/>
     </row>
     <row r="117" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z117" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA117"/>
     </row>
     <row r="118" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z118" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA118"/>
     </row>
     <row r="119" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z119" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>11413</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA119"/>
     </row>
     <row r="120" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z120" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>11413</v>
       </c>
       <c r="AA120"/>
     </row>
     <row r="121" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z121" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA121"/>
     </row>
     <row r="122" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z122" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA122"/>
     </row>
     <row r="123" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z123" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA123"/>
     </row>
     <row r="124" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z124" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA124"/>
     </row>
     <row r="125" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z125" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA125"/>
     </row>
     <row r="126" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z126" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA126"/>
     </row>
     <row r="127" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z127" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA127"/>
     </row>
     <row r="128" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z128" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA128"/>
     </row>
     <row r="129" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z129" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA129"/>
     </row>
     <row r="130" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z130" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA130"/>
     </row>
     <row r="131" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z131" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA131"/>
     </row>
     <row r="132" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z132" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>3622</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA132"/>
     </row>
     <row r="133" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z133" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>3622</v>
       </c>
       <c r="AA133"/>
     </row>
     <row r="134" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z134" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA134"/>
     </row>
     <row r="135" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z135" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA135"/>
     </row>
     <row r="136" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z136" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA136"/>
     </row>
     <row r="137" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z137" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA137"/>
     </row>
     <row r="138" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z138" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA138"/>
     </row>
     <row r="139" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z139" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA139"/>
     </row>
     <row r="140" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z140" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA140"/>
     </row>
     <row r="141" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z141" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA141"/>
     </row>
     <row r="142" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z142" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA142"/>
     </row>
     <row r="143" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z143" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA143"/>
     </row>
     <row r="144" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z144" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA144"/>
     </row>
     <row r="145" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z145" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>3600</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA145"/>
     </row>
     <row r="146" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z146" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>3600</v>
       </c>
       <c r="AA146"/>
     </row>
     <row r="147" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z147" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA147"/>
     </row>
     <row r="148" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z148" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA148"/>
     </row>
     <row r="149" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z149" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA149"/>
     </row>
     <row r="150" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z150" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA150"/>
     </row>
     <row r="151" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z151" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA151"/>
     </row>
     <row r="152" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z152" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA152"/>
     </row>
     <row r="153" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z153" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA153"/>
     </row>
     <row r="154" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z154" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA154"/>
     </row>
     <row r="155" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z155" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA155"/>
     </row>
     <row r="156" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z156" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA156"/>
     </row>
     <row r="157" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z157" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA157"/>
     </row>
     <row r="158" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z158" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>4089</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA158"/>
     </row>
     <row r="159" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z159" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>4089</v>
       </c>
       <c r="AA159"/>
     </row>
     <row r="160" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z160" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA160"/>
     </row>
     <row r="161" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z161" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA161"/>
     </row>
     <row r="162" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z162" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA162"/>
     </row>
     <row r="163" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z163" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA163"/>
     </row>
     <row r="164" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z164" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA164"/>
     </row>
     <row r="165" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z165" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA165"/>
     </row>
     <row r="166" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z166" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA166"/>
     </row>
     <row r="167" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z167" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA167"/>
     </row>
     <row r="168" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z168" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA168"/>
     </row>
     <row r="169" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z169" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA169"/>
     </row>
     <row r="170" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z170" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA170"/>
     </row>
     <row r="171" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z171" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1400</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA171"/>
     </row>
     <row r="172" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z172" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1400</v>
       </c>
       <c r="AA172"/>
     </row>
     <row r="173" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z173" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA173"/>
     </row>
     <row r="174" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z174" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA174"/>
     </row>
     <row r="175" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z175" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA175"/>
     </row>
     <row r="176" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z176" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA176"/>
     </row>
     <row r="177" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z177" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA177"/>
     </row>
     <row r="178" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z178" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA178"/>
     </row>
     <row r="179" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z179" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA179"/>
     </row>
     <row r="180" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z180" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA180"/>
     </row>
     <row r="181" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z181" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA181"/>
     </row>
     <row r="182" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z182" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA182"/>
     </row>
     <row r="183" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z183" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA183"/>
     </row>
     <row r="184" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z184" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1860</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA184"/>
     </row>
     <row r="185" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z185" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1860</v>
       </c>
       <c r="AA185"/>
     </row>
     <row r="186" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z186" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA186"/>
     </row>
     <row r="187" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z187" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA187"/>
     </row>
     <row r="188" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z188" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA188"/>
     </row>
     <row r="189" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z189" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA189"/>
     </row>
     <row r="190" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z190" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA190"/>
     </row>
     <row r="191" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z191" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA191"/>
     </row>
     <row r="192" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z192" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA192"/>
     </row>
     <row r="193" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z193" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA193"/>
     </row>
     <row r="194" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z194" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA194"/>
     </row>
     <row r="195" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z195" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA195"/>
     </row>
     <row r="196" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z196" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA196"/>
     </row>
     <row r="197" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z197" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>967</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA197"/>
     </row>
     <row r="198" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z198" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>967</v>
       </c>
       <c r="AA198"/>
     </row>
     <row r="199" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z199" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA199"/>
     </row>
     <row r="200" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z200" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA200"/>
     </row>
     <row r="201" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z201" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA201"/>
     </row>
     <row r="202" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z202" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA202"/>
     </row>
     <row r="203" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z203" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA203"/>
     </row>
     <row r="204" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z204" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA204"/>
     </row>
     <row r="205" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z205" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA205"/>
     </row>
     <row r="206" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z206" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA206"/>
     </row>
     <row r="207" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z207" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA207"/>
     </row>
     <row r="208" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z208" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA208"/>
     </row>
     <row r="209" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z209" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA209"/>
     </row>
     <row r="210" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z210" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>2270</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA210"/>
     </row>
     <row r="211" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z211" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>2270</v>
       </c>
       <c r="AA211"/>
     </row>
     <row r="212" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z212" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA212"/>
     </row>
     <row r="213" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z213" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA213"/>
     </row>
     <row r="214" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z214" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA214"/>
     </row>
     <row r="215" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z215" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA215"/>
     </row>
     <row r="216" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z216" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA216"/>
     </row>
     <row r="217" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z217" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA217"/>
     </row>
     <row r="218" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z218" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA218"/>
     </row>
     <row r="219" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z219" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA219"/>
     </row>
     <row r="220" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z220" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA220"/>
     </row>
     <row r="221" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z221" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA221"/>
     </row>
     <row r="222" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z222" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA222"/>
     </row>
     <row r="223" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z223" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>3161</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA223"/>
     </row>
     <row r="224" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z224" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>3161</v>
       </c>
       <c r="AA224"/>
     </row>
     <row r="225" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z225" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA225"/>
     </row>
     <row r="226" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z226" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA226"/>
     </row>
     <row r="227" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z227" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA227"/>
     </row>
     <row r="228" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z228" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA228"/>
     </row>
     <row r="229" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z229" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA229"/>
     </row>
     <row r="230" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z230" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA230"/>
     </row>
     <row r="231" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z231" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA231"/>
     </row>
     <row r="232" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z232" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA232"/>
     </row>
     <row r="233" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z233" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA233"/>
     </row>
     <row r="234" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z234" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA234"/>
     </row>
     <row r="235" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z235" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA235"/>
     </row>
     <row r="236" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z236" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>3500</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA236"/>
     </row>
     <row r="237" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z237" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>3500</v>
       </c>
       <c r="AA237"/>
     </row>
     <row r="238" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z238" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA238"/>
     </row>
     <row r="239" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z239" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA239"/>
     </row>
     <row r="240" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z240" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA240"/>
     </row>
     <row r="241" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z241" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA241"/>
     </row>
     <row r="242" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z242" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA242"/>
     </row>
     <row r="243" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z243" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA243"/>
     </row>
     <row r="244" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z244" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA244"/>
     </row>
     <row r="245" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z245" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA245"/>
     </row>
     <row r="246" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z246" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA246"/>
     </row>
     <row r="247" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z247" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA247"/>
     </row>
     <row r="248" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z248" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA248"/>
     </row>
     <row r="249" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z249" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>4595</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA249"/>
     </row>
     <row r="250" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z250" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>4595</v>
       </c>
       <c r="AA250"/>
     </row>
     <row r="251" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z251" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA251"/>
     </row>
     <row r="252" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z252" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>950</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA252"/>
     </row>
     <row r="253" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z253" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>950</v>
       </c>
       <c r="AA253"/>
     </row>
     <row r="254" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z254" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA254"/>
     </row>
     <row r="255" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z255" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA255"/>
     </row>
     <row r="256" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z256" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>950</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA256"/>
     </row>
     <row r="257" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z257" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>950</v>
       </c>
       <c r="AA257"/>
     </row>
     <row r="258" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z258" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA258"/>
     </row>
     <row r="259" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z259" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1000</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA259"/>
     </row>
     <row r="260" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z260" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1000</v>
       </c>
       <c r="AA260"/>
     </row>
     <row r="261" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z261" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA261"/>
     </row>
     <row r="262" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z262" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>3230</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA262"/>
     </row>
     <row r="263" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z263" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>3230</v>
       </c>
       <c r="AA263"/>
     </row>
     <row r="264" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z264" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA264"/>
     </row>
     <row r="265" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z265" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA265"/>
     </row>
     <row r="266" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z266" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA266"/>
     </row>
     <row r="267" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z267" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA267"/>
     </row>
     <row r="268" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z268" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA268"/>
     </row>
     <row r="269" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z269" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>308</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA269"/>
     </row>
     <row r="270" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z270" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>308</v>
       </c>
       <c r="AA270"/>
     </row>
     <row r="271" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z271" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA271"/>
     </row>
     <row r="272" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z272" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA272"/>
     </row>
     <row r="273" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z273" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA273"/>
     </row>
     <row r="274" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z274" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA274"/>
     </row>
     <row r="275" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z275" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>7961</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA275"/>
     </row>
     <row r="276" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z276" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>7961</v>
       </c>
       <c r="AA276"/>
     </row>
     <row r="277" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z277" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA277"/>
     </row>
     <row r="278" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z278" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA278"/>
     </row>
     <row r="279" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z279" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA279"/>
     </row>
     <row r="280" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z280" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA280"/>
     </row>
     <row r="281" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z281" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA281"/>
     </row>
     <row r="282" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z282" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA282"/>
     </row>
     <row r="283" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z283" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA283"/>
     </row>
     <row r="284" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z284" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA284"/>
     </row>
     <row r="285" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z285" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA285"/>
     </row>
     <row r="286" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z286" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA286"/>
     </row>
     <row r="287" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z287" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA287"/>
     </row>
     <row r="288" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z288" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1296</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA288"/>
     </row>
     <row r="289" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z289" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1296</v>
       </c>
       <c r="AA289"/>
     </row>
     <row r="290" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z290" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA290"/>
     </row>
     <row r="291" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z291" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA291"/>
     </row>
     <row r="292" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z292" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA292"/>
     </row>
     <row r="293" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z293" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA293"/>
     </row>
     <row r="294" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z294" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA294"/>
     </row>
     <row r="295" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z295" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA295"/>
     </row>
     <row r="296" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z296" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA296"/>
     </row>
     <row r="297" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z297" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA297"/>
     </row>
     <row r="298" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z298" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA298"/>
     </row>
     <row r="299" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z299" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA299"/>
     </row>
     <row r="300" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z300" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA300"/>
     </row>
     <row r="301" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z301" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1500</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA301"/>
     </row>
     <row r="302" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z302" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1500</v>
       </c>
       <c r="AA302"/>
     </row>
     <row r="303" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z303" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA303"/>
     </row>
     <row r="304" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z304" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA304"/>
     </row>
     <row r="305" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z305" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA305"/>
     </row>
     <row r="306" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z306" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA306"/>
     </row>
     <row r="307" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z307" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA307"/>
     </row>
     <row r="308" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z308" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>450</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA308"/>
     </row>
     <row r="309" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z309" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>450</v>
       </c>
       <c r="AA309"/>
     </row>
     <row r="310" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z310" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA310"/>
     </row>
     <row r="311" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z311" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA311"/>
     </row>
     <row r="312" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z312" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA312"/>
     </row>
     <row r="313" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z313" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA313"/>
     </row>
     <row r="314" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z314" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>2585</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA314"/>
     </row>
     <row r="315" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z315" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>2585</v>
       </c>
       <c r="AA315"/>
     </row>
     <row r="316" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z316" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA316"/>
     </row>
     <row r="317" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z317" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA317"/>
     </row>
     <row r="318" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z318" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA318"/>
     </row>
     <row r="319" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z319" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA319"/>
     </row>
     <row r="320" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z320" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA320"/>
     </row>
     <row r="321" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z321" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA321"/>
     </row>
     <row r="322" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z322" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA322"/>
     </row>
     <row r="323" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z323" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA323"/>
     </row>
     <row r="324" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z324" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA324"/>
     </row>
     <row r="325" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z325" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA325"/>
     </row>
     <row r="326" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z326" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA326"/>
     </row>
     <row r="327" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z327" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1078</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA327"/>
     </row>
     <row r="328" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z328" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1078</v>
       </c>
       <c r="AA328"/>
     </row>
     <row r="329" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z329" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA329"/>
     </row>
     <row r="330" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z330" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA330"/>
     </row>
     <row r="331" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z331" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA331"/>
     </row>
     <row r="332" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z332" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA332"/>
     </row>
     <row r="333" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z333" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA333"/>
     </row>
     <row r="334" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z334" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1078</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA334"/>
     </row>
     <row r="335" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z335" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1078</v>
       </c>
       <c r="AA335"/>
     </row>
     <row r="336" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z336" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA336"/>
     </row>
     <row r="337" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z337" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA337"/>
     </row>
     <row r="338" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z338" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA338"/>
     </row>
     <row r="339" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z339" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA339"/>
     </row>
     <row r="340" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z340" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>6000</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA340"/>
     </row>
     <row r="341" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z341" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>6000</v>
       </c>
       <c r="AA341"/>
     </row>
     <row r="342" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z342" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA342"/>
     </row>
     <row r="343" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z343" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA343"/>
     </row>
     <row r="344" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z344" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA344"/>
     </row>
     <row r="345" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z345" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA345"/>
     </row>
     <row r="346" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z346" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA346"/>
     </row>
     <row r="347" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z347" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA347"/>
     </row>
     <row r="348" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z348" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA348"/>
     </row>
     <row r="349" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z349" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA349"/>
     </row>
     <row r="350" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z350" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA350"/>
     </row>
     <row r="351" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z351" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA351"/>
     </row>
     <row r="352" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z352" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA352"/>
     </row>
     <row r="353" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z353" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA353"/>
     </row>
     <row r="354" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z354" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA354"/>
     </row>
     <row r="355" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z355" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA355"/>
     </row>
     <row r="356" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z356" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA356"/>
     </row>
     <row r="357" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z357" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA357"/>
     </row>
     <row r="358" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z358" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA358"/>
     </row>
     <row r="359" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z359" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA359"/>
     </row>
     <row r="360" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z360" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA360"/>
     </row>
     <row r="361" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z361" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA361"/>
     </row>
     <row r="362" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z362" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA362"/>
     </row>
     <row r="363" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z363" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA363"/>
     </row>
     <row r="364" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z364" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA364"/>
     </row>
     <row r="365" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z365" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA365"/>
     </row>
     <row r="366" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z366" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>10500</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA366"/>
     </row>
     <row r="367" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z367" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>4000</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>10500</v>
       </c>
       <c r="AA367"/>
     </row>
     <row r="368" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z368" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>4000</v>
       </c>
       <c r="AA368"/>
     </row>
     <row r="369" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z369" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA369"/>
     </row>
     <row r="370" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z370" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA370"/>
     </row>
     <row r="371" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z371" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA371"/>
     </row>
     <row r="372" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z372" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA372"/>
     </row>
     <row r="373" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z373" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA373"/>
     </row>
     <row r="374" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z374" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA374"/>
     </row>
     <row r="375" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z375" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA375"/>
     </row>
     <row r="376" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z376" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA376"/>
     </row>
     <row r="377" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z377" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA377"/>
     </row>
     <row r="378" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z378" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA378"/>
     </row>
     <row r="379" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z379" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>25500</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA379"/>
     </row>
     <row r="380" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z380" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>12500</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>25500</v>
       </c>
       <c r="AA380"/>
     </row>
     <row r="381" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z381" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>12500</v>
       </c>
       <c r="AA381"/>
     </row>
     <row r="382" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z382" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA382"/>
     </row>
     <row r="383" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z383" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA383"/>
     </row>
     <row r="384" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z384" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA384"/>
     </row>
     <row r="385" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z385" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA385"/>
     </row>
     <row r="386" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z386" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA386"/>
     </row>
     <row r="387" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z387" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA387"/>
     </row>
     <row r="388" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z388" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA388"/>
     </row>
     <row r="389" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z389" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA389"/>
     </row>
     <row r="390" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z390" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA390"/>
     </row>
     <row r="391" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z391" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA391"/>
     </row>
     <row r="392" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z392" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>7500</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA392"/>
     </row>
     <row r="393" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z393" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>4500</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>7500</v>
       </c>
       <c r="AA393"/>
     </row>
     <row r="394" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z394" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>4500</v>
       </c>
       <c r="AA394"/>
     </row>
     <row r="395" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z395" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA395"/>
     </row>
     <row r="396" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z396" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA396"/>
     </row>
     <row r="397" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z397" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA397"/>
     </row>
     <row r="398" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z398" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA398"/>
     </row>
     <row r="399" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z399" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA399"/>
     </row>
     <row r="400" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z400" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA400"/>
     </row>
     <row r="401" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z401" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA401"/>
     </row>
     <row r="402" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z402" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA402"/>
     </row>
     <row r="403" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z403" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA403"/>
     </row>
     <row r="404" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z404" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA404"/>
     </row>
     <row r="405" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z405" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>6140</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA405"/>
     </row>
     <row r="406" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z406" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>6140</v>
       </c>
       <c r="AA406"/>
     </row>
     <row r="407" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z407" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA407"/>
     </row>
     <row r="408" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z408" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA408"/>
     </row>
     <row r="409" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z409" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA409"/>
     </row>
     <row r="410" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z410" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA410"/>
     </row>
     <row r="411" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z411" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA411"/>
     </row>
     <row r="412" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z412" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA412"/>
     </row>
     <row r="413" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z413" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA413"/>
     </row>
     <row r="414" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z414" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA414"/>
     </row>
     <row r="415" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z415" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA415"/>
     </row>
     <row r="416" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z416" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA416"/>
     </row>
     <row r="417" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z417" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA417"/>
     </row>
     <row r="418" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z418" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA418"/>
     </row>
     <row r="419" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z419" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA419"/>
     </row>
     <row r="420" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z420" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA420"/>
     </row>
     <row r="421" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z421" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA421"/>
     </row>
     <row r="422" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z422" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA422"/>
     </row>
     <row r="423" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z423" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA423"/>
     </row>
     <row r="424" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z424" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA424"/>
     </row>
     <row r="425" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z425" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA425"/>
     </row>
     <row r="426" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z426" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA426"/>
     </row>
     <row r="427" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z427" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA427"/>
     </row>
     <row r="428" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z428" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA428"/>
     </row>
     <row r="429" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z429" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA429"/>
     </row>
     <row r="430" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z430" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA430"/>
     </row>
     <row r="431" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z431" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA431"/>
     </row>
     <row r="432" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z432" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA432"/>
     </row>
     <row r="433" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z433" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA433"/>
     </row>
     <row r="434" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z434" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA434"/>
     </row>
     <row r="435" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z435" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA435"/>
     </row>
     <row r="436" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z436" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA436"/>
     </row>
     <row r="437" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z437" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA437"/>
     </row>
     <row r="438" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z438" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA438"/>
     </row>
     <row r="439" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z439" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA439"/>
     </row>
     <row r="440" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z440" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA440"/>
     </row>
     <row r="441" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z441" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA441"/>
     </row>
     <row r="442" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z442" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA442"/>
     </row>
     <row r="443" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z443" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA443"/>
     </row>
     <row r="444" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z444" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA444"/>
     </row>
     <row r="445" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z445" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA445"/>
     </row>
     <row r="446" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z446" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA446"/>
     </row>
     <row r="447" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z447" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA447"/>
     </row>
     <row r="448" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z448" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA448"/>
     </row>
     <row r="449" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z449" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA449"/>
     </row>
     <row r="450" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z450" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA450"/>
     </row>
     <row r="451" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z451" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA451"/>
     </row>
     <row r="452" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z452" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA452"/>
     </row>
     <row r="453" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z453" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA453"/>
     </row>
     <row r="454" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z454" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA454"/>
     </row>
     <row r="455" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z455" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>1000000</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA455"/>
     </row>
     <row r="456" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z456" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>1000000</v>
       </c>
       <c r="AA456"/>
     </row>
     <row r="457" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z457" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA457"/>
     </row>
     <row r="458" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z458" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA458"/>
     </row>
     <row r="459" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z459" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA459"/>
     </row>
     <row r="460" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z460" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA460"/>
     </row>
     <row r="461" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z461" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA461"/>
     </row>
     <row r="462" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z462" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA462"/>
     </row>
     <row r="463" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z463" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA463"/>
     </row>
     <row r="464" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z464" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA464"/>
     </row>
     <row r="465" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z465" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA465"/>
     </row>
     <row r="466" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z466" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA466"/>
     </row>
     <row r="467" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z467" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA467"/>
     </row>
     <row r="468" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z468" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA468"/>
     </row>
     <row r="469" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z469" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA469"/>
     </row>
     <row r="470" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z470" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA470"/>
     </row>
     <row r="471" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z471" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA471"/>
     </row>
     <row r="472" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z472" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA472"/>
     </row>
     <row r="473" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z473" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA473"/>
     </row>
     <row r="474" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z474" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA474"/>
     </row>
     <row r="475" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z475" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA475"/>
     </row>
     <row r="476" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z476" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA476"/>
     </row>
     <row r="477" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z477" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA477"/>
     </row>
     <row r="478" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z478" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA478"/>
     </row>
     <row r="479" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z479" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA479"/>
     </row>
     <row r="480" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z480" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA480"/>
     </row>
     <row r="481" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z481" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA481"/>
     </row>
     <row r="482" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z482" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA482"/>
     </row>
     <row r="483" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z483" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA483"/>
     </row>
     <row r="484" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z484" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA484"/>
     </row>
     <row r="485" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z485" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA485"/>
     </row>
     <row r="486" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z486" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA486"/>
     </row>
     <row r="487" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z487" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA487"/>
     </row>
     <row r="488" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z488" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA488"/>
     </row>
     <row r="489" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z489" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA489"/>
     </row>
     <row r="490" spans="26:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="Z490" s="12" t="str">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+      <c r="Z490" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA490"/>
+    </row>
+    <row r="491" spans="26:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z491" s="12" t="str">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>122 human individuals, 32 different tissues</v>
-      </c>
-      <c r="AA490"/>
-    </row>
-    <row r="491" spans="26:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="Z491" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
       </c>
       <c r="AA491"/>
     </row>
     <row r="492" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z492" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA492"/>
     </row>
     <row r="493" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z493" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA493"/>
     </row>
     <row r="494" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z494" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA494"/>
     </row>
     <row r="495" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z495" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA495"/>
     </row>
     <row r="496" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z496" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA496"/>
     </row>
     <row r="497" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z497" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA497"/>
     </row>
     <row r="498" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z498" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA498"/>
     </row>
     <row r="499" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z499" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA499"/>
     </row>
     <row r="500" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z500" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA500"/>
     </row>
     <row r="501" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z501" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA501"/>
     </row>
     <row r="502" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z502" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA502"/>
     </row>
     <row r="503" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z503" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA503"/>
     </row>
     <row r="504" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z504" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA504"/>
     </row>
     <row r="505" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z505" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA505"/>
     </row>
     <row r="506" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z506" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA506"/>
     </row>
     <row r="507" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z507" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA507"/>
     </row>
     <row r="508" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z508" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA508"/>
     </row>
     <row r="509" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z509" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA509"/>
     </row>
     <row r="510" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z510" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA510"/>
     </row>
     <row r="511" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z511" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA511"/>
     </row>
     <row r="512" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z512" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA512"/>
     </row>
     <row r="513" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z513" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA513"/>
     </row>
     <row r="514" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z514" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA514"/>
     </row>
     <row r="515" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z515" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA515"/>
     </row>
     <row r="516" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z516" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA516"/>
     </row>
     <row r="517" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z517" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA517"/>
     </row>
     <row r="518" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z518" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA518"/>
     </row>
     <row r="519" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z519" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA519"/>
     </row>
     <row r="520" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z520" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA520"/>
     </row>
     <row r="521" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z521" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA521"/>
     </row>
     <row r="522" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z522" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA522"/>
     </row>
     <row r="523" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z523" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA523"/>
     </row>
     <row r="524" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z524" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA524"/>
     </row>
     <row r="525" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z525" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA525"/>
     </row>
     <row r="526" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z526" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA526"/>
     </row>
     <row r="527" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z527" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA527"/>
     </row>
     <row r="528" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z528" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA528"/>
     </row>
     <row r="529" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z529" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA529"/>
     </row>
     <row r="530" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z530" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA530"/>
     </row>
     <row r="531" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z531" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA531"/>
     </row>
     <row r="532" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z532" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA532"/>
     </row>
     <row r="533" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z533" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA533"/>
     </row>
     <row r="534" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z534" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA534"/>
     </row>
     <row r="535" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z535" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA535"/>
     </row>
     <row r="536" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z536" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA536"/>
     </row>
     <row r="537" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z537" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA537"/>
     </row>
     <row r="538" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z538" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA538"/>
     </row>
     <row r="539" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z539" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA539"/>
     </row>
     <row r="540" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z540" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA540"/>
     </row>
     <row r="541" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z541" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA541"/>
     </row>
     <row r="542" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z542" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA542"/>
     </row>
     <row r="543" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z543" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA543"/>
     </row>
     <row r="544" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z544" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA544"/>
     </row>
     <row r="545" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z545" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA545"/>
     </row>
     <row r="546" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z546" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA546"/>
     </row>
     <row r="547" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z547" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA547"/>
     </row>
     <row r="548" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z548" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA548"/>
     </row>
     <row r="549" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z549" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA549"/>
     </row>
     <row r="550" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z550" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA550"/>
     </row>
     <row r="551" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z551" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA551"/>
     </row>
     <row r="552" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z552" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA552"/>
     </row>
     <row r="553" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z553" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA553"/>
     </row>
     <row r="554" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z554" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA554"/>
     </row>
     <row r="555" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z555" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA555"/>
     </row>
     <row r="556" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z556" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA556"/>
     </row>
     <row r="557" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z557" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA557"/>
     </row>
     <row r="558" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z558" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA558"/>
     </row>
     <row r="559" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z559" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA559"/>
     </row>
     <row r="560" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z560" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA560"/>
     </row>
     <row r="561" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z561" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA561"/>
     </row>
     <row r="562" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z562" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA562"/>
     </row>
     <row r="563" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z563" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA563"/>
     </row>
     <row r="564" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z564" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA564"/>
     </row>
     <row r="565" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z565" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA565"/>
     </row>
     <row r="566" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z566" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA566"/>
     </row>
     <row r="567" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z567" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA567"/>
     </row>
     <row r="568" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z568" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA568"/>
     </row>
     <row r="569" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z569" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA569"/>
     </row>
     <row r="570" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z570" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA570"/>
     </row>
     <row r="571" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z571" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA571"/>
     </row>
     <row r="572" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z572" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA572"/>
     </row>
     <row r="573" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z573" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA573"/>
     </row>
     <row r="574" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z574" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA574"/>
     </row>
     <row r="575" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z575" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA575"/>
     </row>
     <row r="576" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z576" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA576"/>
     </row>
     <row r="577" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z577" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA577"/>
     </row>
     <row r="578" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z578" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA578"/>
     </row>
     <row r="579" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z579" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA579"/>
     </row>
     <row r="580" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z580" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA580"/>
     </row>
     <row r="581" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z581" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA581"/>
     </row>
     <row r="582" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z582" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA582"/>
     </row>
     <row r="583" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z583" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA583"/>
     </row>
     <row r="584" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z584" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA584"/>
     </row>
     <row r="585" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z585" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA585"/>
     </row>
     <row r="586" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z586" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA586"/>
     </row>
     <row r="587" spans="26:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="Z587" s="12" t="str">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>15708 individuals</v>
+      <c r="Z587" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
       </c>
       <c r="AA587"/>
     </row>
     <row r="588" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z588" s="12" t="str">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>15708 individuals</v>
+      </c>
+      <c r="AA588"/>
+    </row>
+    <row r="589" spans="26:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z589" s="12" t="str">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>125748 individuals</v>
-      </c>
-      <c r="AA588"/>
-    </row>
-    <row r="589" spans="26:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="Z589" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
-        <v>0</v>
       </c>
       <c r="AA589"/>
     </row>
     <row r="590" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z590" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA590"/>
     </row>
     <row r="591" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z591" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA591"/>
     </row>
     <row r="592" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z592" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA592"/>
     </row>
     <row r="593" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z593" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA593"/>
     </row>
     <row r="594" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z594" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA594"/>
     </row>
     <row r="595" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z595" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA595"/>
     </row>
     <row r="596" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z596" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA596"/>
     </row>
     <row r="597" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z597" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA597"/>
     </row>
     <row r="598" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z598" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA598"/>
     </row>
     <row r="599" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z599" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA599"/>
     </row>
     <row r="600" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z600" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA600"/>
     </row>
     <row r="601" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z601" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA601"/>
     </row>
     <row r="602" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z602" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA602"/>
     </row>
     <row r="603" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z603" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA603"/>
     </row>
     <row r="604" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z604" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA604"/>
     </row>
     <row r="605" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z605" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA605"/>
     </row>
     <row r="606" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z606" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA606"/>
     </row>
     <row r="607" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z607" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA607"/>
     </row>
     <row r="608" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z608" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA608"/>
     </row>
     <row r="609" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z609" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA609"/>
     </row>
     <row r="610" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z610" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA610"/>
     </row>
     <row r="611" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z611" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA611"/>
     </row>
     <row r="612" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z612" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA612"/>
     </row>
     <row r="613" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z613" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA613"/>
     </row>
     <row r="614" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z614" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA614"/>
     </row>
     <row r="615" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z615" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA615"/>
     </row>
     <row r="616" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z616" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA616"/>
     </row>
     <row r="617" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z617" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA617"/>
     </row>
     <row r="618" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z618" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA618"/>
     </row>
     <row r="619" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z619" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA619"/>
     </row>
     <row r="620" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z620" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA620"/>
     </row>
     <row r="621" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z621" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA621"/>
     </row>
     <row r="622" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z622" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA622"/>
     </row>
     <row r="623" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z623" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA623"/>
     </row>
     <row r="624" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z624" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA624"/>
     </row>
     <row r="625" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z625" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA625"/>
     </row>
     <row r="626" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z626" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA626"/>
     </row>
     <row r="627" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z627" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA627"/>
     </row>
     <row r="628" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z628" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA628"/>
     </row>
     <row r="629" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z629" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA629"/>
     </row>
     <row r="630" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z630" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA630"/>
     </row>
     <row r="631" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z631" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA631"/>
     </row>
     <row r="632" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z632" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA632"/>
     </row>
     <row r="633" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z633" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA633"/>
     </row>
     <row r="634" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z634" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA634"/>
     </row>
     <row r="635" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z635" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA635"/>
     </row>
     <row r="636" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z636" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA636"/>
     </row>
     <row r="637" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z637" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA637"/>
     </row>
     <row r="638" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z638" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA638"/>
     </row>
     <row r="639" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z639" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA639"/>
     </row>
     <row r="640" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z640" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA640"/>
     </row>
     <row r="641" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z641" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA641"/>
     </row>
     <row r="642" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z642" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA642"/>
     </row>
     <row r="643" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z643" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA643"/>
     </row>
     <row r="644" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z644" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA644"/>
     </row>
     <row r="645" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z645" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA645"/>
     </row>
     <row r="646" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z646" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA646"/>
     </row>
     <row r="647" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z647" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA647"/>
     </row>
     <row r="648" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z648" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA648"/>
     </row>
     <row r="649" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z649" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA649"/>
     </row>
     <row r="650" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z650" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA650"/>
     </row>
     <row r="651" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z651" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA651"/>
     </row>
     <row r="652" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z652" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA652"/>
     </row>
     <row r="653" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z653" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA653"/>
     </row>
     <row r="654" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z654" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA654"/>
     </row>
     <row r="655" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z655" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA655"/>
     </row>
     <row r="656" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z656" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA656"/>
     </row>
     <row r="657" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z657" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA657"/>
     </row>
     <row r="658" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z658" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA658"/>
     </row>
     <row r="659" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z659" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA659"/>
     </row>
     <row r="660" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z660" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA660"/>
     </row>
     <row r="661" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z661" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA661"/>
     </row>
     <row r="662" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z662" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA662"/>
     </row>
     <row r="663" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z663" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA663"/>
     </row>
     <row r="664" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z664" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA664"/>
     </row>
     <row r="665" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z665" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA665"/>
     </row>
     <row r="666" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z666" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA666"/>
     </row>
     <row r="667" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z667" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA667"/>
     </row>
     <row r="668" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z668" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA668"/>
     </row>
     <row r="669" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z669" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA669"/>
     </row>
     <row r="670" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z670" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA670"/>
     </row>
     <row r="671" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z671" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA671"/>
     </row>
     <row r="672" spans="26:27" ht="16" x14ac:dyDescent="0.2">
       <c r="Z672" s="12">
-        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$2))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$2),COLUMNS(Matrix)),1,1)</f>
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
         <v>0</v>
       </c>
       <c r="AA672"/>
+    </row>
+    <row r="673" spans="26:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="Z673" s="12">
+        <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AA673"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q2:Q34 Q36">
+  <conditionalFormatting sqref="Q3:Q35 Q37">
     <cfRule type="dataBar" priority="4">
       <dataBar showValue="0">
         <cfvo type="min"/>
@@ -52060,14 +51133,13 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="U6" r:id="rId1" xr:uid="{5793ACCC-4849-6D4F-BDCC-4122BADEDB61}"/>
-    <hyperlink ref="V39" r:id="rId2" display="http://dx.doi.org/10.1126%2Fscience.1260419" xr:uid="{C5557E9C-F192-1F41-9F11-4FDBC36473C9}"/>
-    <hyperlink ref="V40" r:id="rId3" display="http://dx.doi.org/10.1126%2Fscience.aal3321" xr:uid="{5486CA76-E001-DF4C-A4E3-DE7E0AE886CE}"/>
-    <hyperlink ref="V41" r:id="rId4" display="http://dx.doi.org/10.1126%2Fscience.aan2507" xr:uid="{5F3CBC79-2740-584F-AD79-1F15F94614C4}"/>
-    <hyperlink ref="U29" r:id="rId5" xr:uid="{F26EBC2A-8F6B-3540-9665-7C700F4A1B91}"/>
+    <hyperlink ref="U7" r:id="rId1" xr:uid="{5793ACCC-4849-6D4F-BDCC-4122BADEDB61}"/>
+    <hyperlink ref="V40" r:id="rId2" display="http://dx.doi.org/10.1126%2Fscience.1260419" xr:uid="{C5557E9C-F192-1F41-9F11-4FDBC36473C9}"/>
+    <hyperlink ref="V41" r:id="rId3" display="http://dx.doi.org/10.1126%2Fscience.aal3321" xr:uid="{5486CA76-E001-DF4C-A4E3-DE7E0AE886CE}"/>
+    <hyperlink ref="V42" r:id="rId4" display="http://dx.doi.org/10.1126%2Fscience.aan2507" xr:uid="{5F3CBC79-2740-584F-AD79-1F15F94614C4}"/>
+    <hyperlink ref="U30" r:id="rId5" xr:uid="{F26EBC2A-8F6B-3540-9665-7C700F4A1B91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -52088,7 +51160,7 @@
               <x14:cfIcon iconSet="4RedToBlack" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>D2:P33 D36:P36</xm:sqref>
+          <xm:sqref>D3:P34 D37:P37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4C394CC9-2E1D-C34D-B066-EEACA71030AE}">
@@ -52099,7 +51171,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q2:Q34 Q36</xm:sqref>
+          <xm:sqref>Q3:Q35 Q37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/data/dbgap-gru-datasets.xlsx
+++ b/data/dbgap-gru-datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8133679-D9CC-F346-BF13-0F2AB1119F88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F494BFC-29BF-9E4D-A065-DB42B590EC8D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{508F2554-2B11-6746-B749-6950C00316BA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{508F2554-2B11-6746-B749-6950C00316BA}"/>
   </bookViews>
   <sheets>
     <sheet name="dbGaP-GRU-raw" sheetId="1" r:id="rId1"/>
@@ -1862,7 +1862,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1962,6 +1966,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1989,11 +2000,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
@@ -2033,12 +2045,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -16967,58 +16985,2379 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="2457">
-    <mergeCell ref="T2:T4"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="V2:V4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="S2:S4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="S5:S7"/>
-    <mergeCell ref="T5:T7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="T350:T352"/>
+    <mergeCell ref="U350:U352"/>
+    <mergeCell ref="V350:V352"/>
+    <mergeCell ref="N350:N352"/>
+    <mergeCell ref="O350:O352"/>
+    <mergeCell ref="P350:P352"/>
+    <mergeCell ref="Q350:Q352"/>
+    <mergeCell ref="R350:R352"/>
+    <mergeCell ref="S350:S352"/>
+    <mergeCell ref="H350:H352"/>
+    <mergeCell ref="I350:I352"/>
+    <mergeCell ref="J350:J352"/>
+    <mergeCell ref="K350:K352"/>
+    <mergeCell ref="L350:L352"/>
+    <mergeCell ref="M350:M352"/>
+    <mergeCell ref="B350:B352"/>
+    <mergeCell ref="C350:C352"/>
+    <mergeCell ref="D350:D352"/>
+    <mergeCell ref="E350:E352"/>
+    <mergeCell ref="F350:F352"/>
+    <mergeCell ref="G350:G352"/>
+    <mergeCell ref="Q347:Q349"/>
+    <mergeCell ref="R347:R349"/>
+    <mergeCell ref="S347:S349"/>
+    <mergeCell ref="T347:T349"/>
+    <mergeCell ref="U347:U349"/>
+    <mergeCell ref="V347:V349"/>
+    <mergeCell ref="K347:K349"/>
+    <mergeCell ref="L347:L349"/>
+    <mergeCell ref="M347:M349"/>
+    <mergeCell ref="N347:N349"/>
+    <mergeCell ref="O347:O349"/>
+    <mergeCell ref="P347:P349"/>
+    <mergeCell ref="V344:V346"/>
+    <mergeCell ref="B347:B349"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="D347:D349"/>
+    <mergeCell ref="E347:E349"/>
+    <mergeCell ref="F347:F349"/>
+    <mergeCell ref="G347:G349"/>
+    <mergeCell ref="H347:H349"/>
+    <mergeCell ref="I347:I349"/>
+    <mergeCell ref="J347:J349"/>
+    <mergeCell ref="P344:P346"/>
+    <mergeCell ref="Q344:Q346"/>
+    <mergeCell ref="R344:R346"/>
+    <mergeCell ref="S344:S346"/>
+    <mergeCell ref="T344:T346"/>
+    <mergeCell ref="U344:U346"/>
+    <mergeCell ref="J344:J346"/>
+    <mergeCell ref="K344:K346"/>
+    <mergeCell ref="L344:L346"/>
+    <mergeCell ref="M344:M346"/>
+    <mergeCell ref="N344:N346"/>
+    <mergeCell ref="O344:O346"/>
+    <mergeCell ref="U341:U343"/>
+    <mergeCell ref="V341:V343"/>
+    <mergeCell ref="B344:B346"/>
+    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="D344:D346"/>
+    <mergeCell ref="E344:E346"/>
+    <mergeCell ref="F344:F346"/>
+    <mergeCell ref="G344:G346"/>
+    <mergeCell ref="H344:H346"/>
+    <mergeCell ref="I344:I346"/>
+    <mergeCell ref="O341:O343"/>
+    <mergeCell ref="P341:P343"/>
+    <mergeCell ref="Q341:Q343"/>
+    <mergeCell ref="R341:R343"/>
+    <mergeCell ref="S341:S343"/>
+    <mergeCell ref="T341:T343"/>
+    <mergeCell ref="I341:I343"/>
+    <mergeCell ref="J341:J343"/>
+    <mergeCell ref="K341:K343"/>
+    <mergeCell ref="L341:L343"/>
+    <mergeCell ref="M341:M343"/>
+    <mergeCell ref="N341:N343"/>
+    <mergeCell ref="T338:T340"/>
+    <mergeCell ref="U338:U340"/>
+    <mergeCell ref="V338:V340"/>
+    <mergeCell ref="B341:B343"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="D341:D343"/>
+    <mergeCell ref="E341:E343"/>
+    <mergeCell ref="F341:F343"/>
+    <mergeCell ref="G341:G343"/>
+    <mergeCell ref="H341:H343"/>
+    <mergeCell ref="N338:N340"/>
+    <mergeCell ref="O338:O340"/>
+    <mergeCell ref="P338:P340"/>
+    <mergeCell ref="Q338:Q340"/>
+    <mergeCell ref="R338:R340"/>
+    <mergeCell ref="S338:S340"/>
+    <mergeCell ref="H338:H340"/>
+    <mergeCell ref="I338:I340"/>
+    <mergeCell ref="J338:J340"/>
+    <mergeCell ref="K338:K340"/>
+    <mergeCell ref="L338:L340"/>
+    <mergeCell ref="M338:M340"/>
+    <mergeCell ref="B338:B340"/>
+    <mergeCell ref="C338:C340"/>
+    <mergeCell ref="D338:D340"/>
+    <mergeCell ref="E338:E340"/>
+    <mergeCell ref="F338:F340"/>
+    <mergeCell ref="G338:G340"/>
+    <mergeCell ref="Q335:Q337"/>
+    <mergeCell ref="R335:R337"/>
+    <mergeCell ref="S335:S337"/>
+    <mergeCell ref="T335:T337"/>
+    <mergeCell ref="U335:U337"/>
+    <mergeCell ref="V335:V337"/>
+    <mergeCell ref="K335:K337"/>
+    <mergeCell ref="L335:L337"/>
+    <mergeCell ref="M335:M337"/>
+    <mergeCell ref="N335:N337"/>
+    <mergeCell ref="O335:O337"/>
+    <mergeCell ref="P335:P337"/>
+    <mergeCell ref="V332:V334"/>
+    <mergeCell ref="B335:B337"/>
+    <mergeCell ref="C335:C337"/>
+    <mergeCell ref="D335:D337"/>
+    <mergeCell ref="E335:E337"/>
+    <mergeCell ref="F335:F337"/>
+    <mergeCell ref="G335:G337"/>
+    <mergeCell ref="H335:H337"/>
+    <mergeCell ref="I335:I337"/>
+    <mergeCell ref="J335:J337"/>
+    <mergeCell ref="P332:P334"/>
+    <mergeCell ref="Q332:Q334"/>
+    <mergeCell ref="R332:R334"/>
+    <mergeCell ref="S332:S334"/>
+    <mergeCell ref="T332:T334"/>
+    <mergeCell ref="U332:U334"/>
+    <mergeCell ref="J332:J334"/>
+    <mergeCell ref="K332:K334"/>
+    <mergeCell ref="L332:L334"/>
+    <mergeCell ref="M332:M334"/>
+    <mergeCell ref="N332:N334"/>
+    <mergeCell ref="O332:O334"/>
+    <mergeCell ref="U329:U331"/>
+    <mergeCell ref="V329:V331"/>
+    <mergeCell ref="B332:B334"/>
+    <mergeCell ref="C332:C334"/>
+    <mergeCell ref="D332:D334"/>
+    <mergeCell ref="E332:E334"/>
+    <mergeCell ref="F332:F334"/>
+    <mergeCell ref="G332:G334"/>
+    <mergeCell ref="H332:H334"/>
+    <mergeCell ref="I332:I334"/>
+    <mergeCell ref="O329:O331"/>
+    <mergeCell ref="P329:P331"/>
+    <mergeCell ref="Q329:Q331"/>
+    <mergeCell ref="R329:R331"/>
+    <mergeCell ref="S329:S331"/>
+    <mergeCell ref="T329:T331"/>
+    <mergeCell ref="I329:I331"/>
+    <mergeCell ref="J329:J331"/>
+    <mergeCell ref="K329:K331"/>
+    <mergeCell ref="L329:L331"/>
+    <mergeCell ref="M329:M331"/>
+    <mergeCell ref="N329:N331"/>
+    <mergeCell ref="T326:T328"/>
+    <mergeCell ref="U326:U328"/>
+    <mergeCell ref="V326:V328"/>
+    <mergeCell ref="B329:B331"/>
+    <mergeCell ref="C329:C331"/>
+    <mergeCell ref="D329:D331"/>
+    <mergeCell ref="E329:E331"/>
+    <mergeCell ref="F329:F331"/>
+    <mergeCell ref="G329:G331"/>
+    <mergeCell ref="H329:H331"/>
+    <mergeCell ref="N326:N328"/>
+    <mergeCell ref="O326:O328"/>
+    <mergeCell ref="P326:P328"/>
+    <mergeCell ref="Q326:Q328"/>
+    <mergeCell ref="R326:R328"/>
+    <mergeCell ref="S326:S328"/>
+    <mergeCell ref="H326:H328"/>
+    <mergeCell ref="I326:I328"/>
+    <mergeCell ref="J326:J328"/>
+    <mergeCell ref="K326:K328"/>
+    <mergeCell ref="L326:L328"/>
+    <mergeCell ref="M326:M328"/>
+    <mergeCell ref="B326:B328"/>
+    <mergeCell ref="C326:C328"/>
+    <mergeCell ref="D326:D328"/>
+    <mergeCell ref="E326:E328"/>
+    <mergeCell ref="F326:F328"/>
+    <mergeCell ref="G326:G328"/>
+    <mergeCell ref="Q323:Q325"/>
+    <mergeCell ref="R323:R325"/>
+    <mergeCell ref="S323:S325"/>
+    <mergeCell ref="T323:T325"/>
+    <mergeCell ref="U323:U325"/>
+    <mergeCell ref="V323:V325"/>
+    <mergeCell ref="K323:K325"/>
+    <mergeCell ref="L323:L325"/>
+    <mergeCell ref="M323:M325"/>
+    <mergeCell ref="N323:N325"/>
+    <mergeCell ref="O323:O325"/>
+    <mergeCell ref="P323:P325"/>
+    <mergeCell ref="V320:V322"/>
+    <mergeCell ref="B323:B325"/>
+    <mergeCell ref="C323:C325"/>
+    <mergeCell ref="D323:D325"/>
+    <mergeCell ref="E323:E325"/>
+    <mergeCell ref="F323:F325"/>
+    <mergeCell ref="G323:G325"/>
+    <mergeCell ref="H323:H325"/>
+    <mergeCell ref="I323:I325"/>
+    <mergeCell ref="J323:J325"/>
+    <mergeCell ref="P320:P322"/>
+    <mergeCell ref="Q320:Q322"/>
+    <mergeCell ref="R320:R322"/>
+    <mergeCell ref="S320:S322"/>
+    <mergeCell ref="T320:T322"/>
+    <mergeCell ref="U320:U322"/>
+    <mergeCell ref="J320:J322"/>
+    <mergeCell ref="K320:K322"/>
+    <mergeCell ref="L320:L322"/>
+    <mergeCell ref="M320:M322"/>
+    <mergeCell ref="N320:N322"/>
+    <mergeCell ref="O320:O322"/>
+    <mergeCell ref="U317:U319"/>
+    <mergeCell ref="V317:V319"/>
+    <mergeCell ref="B320:B322"/>
+    <mergeCell ref="C320:C322"/>
+    <mergeCell ref="D320:D322"/>
+    <mergeCell ref="E320:E322"/>
+    <mergeCell ref="F320:F322"/>
+    <mergeCell ref="G320:G322"/>
+    <mergeCell ref="H320:H322"/>
+    <mergeCell ref="I320:I322"/>
+    <mergeCell ref="O317:O319"/>
+    <mergeCell ref="P317:P319"/>
+    <mergeCell ref="Q317:Q319"/>
+    <mergeCell ref="R317:R319"/>
+    <mergeCell ref="S317:S319"/>
+    <mergeCell ref="T317:T319"/>
+    <mergeCell ref="I317:I319"/>
+    <mergeCell ref="J317:J319"/>
+    <mergeCell ref="K317:K319"/>
+    <mergeCell ref="L317:L319"/>
+    <mergeCell ref="M317:M319"/>
+    <mergeCell ref="N317:N319"/>
+    <mergeCell ref="T314:T316"/>
+    <mergeCell ref="U314:U316"/>
+    <mergeCell ref="V314:V316"/>
+    <mergeCell ref="B317:B319"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="D317:D319"/>
+    <mergeCell ref="E317:E319"/>
+    <mergeCell ref="F317:F319"/>
+    <mergeCell ref="G317:G319"/>
+    <mergeCell ref="H317:H319"/>
+    <mergeCell ref="N314:N316"/>
+    <mergeCell ref="O314:O316"/>
+    <mergeCell ref="P314:P316"/>
+    <mergeCell ref="Q314:Q316"/>
+    <mergeCell ref="R314:R316"/>
+    <mergeCell ref="S314:S316"/>
+    <mergeCell ref="H314:H316"/>
+    <mergeCell ref="I314:I316"/>
+    <mergeCell ref="J314:J316"/>
+    <mergeCell ref="K314:K316"/>
+    <mergeCell ref="L314:L316"/>
+    <mergeCell ref="M314:M316"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="D314:D316"/>
+    <mergeCell ref="E314:E316"/>
+    <mergeCell ref="F314:F316"/>
+    <mergeCell ref="G314:G316"/>
+    <mergeCell ref="Q311:Q313"/>
+    <mergeCell ref="R311:R313"/>
+    <mergeCell ref="S311:S313"/>
+    <mergeCell ref="T311:T313"/>
+    <mergeCell ref="U311:U313"/>
+    <mergeCell ref="V311:V313"/>
+    <mergeCell ref="K311:K313"/>
+    <mergeCell ref="L311:L313"/>
+    <mergeCell ref="M311:M313"/>
+    <mergeCell ref="N311:N313"/>
+    <mergeCell ref="O311:O313"/>
+    <mergeCell ref="P311:P313"/>
+    <mergeCell ref="V308:V310"/>
+    <mergeCell ref="B311:B313"/>
+    <mergeCell ref="C311:C313"/>
+    <mergeCell ref="D311:D313"/>
+    <mergeCell ref="E311:E313"/>
+    <mergeCell ref="F311:F313"/>
+    <mergeCell ref="G311:G313"/>
+    <mergeCell ref="H311:H313"/>
+    <mergeCell ref="I311:I313"/>
+    <mergeCell ref="J311:J313"/>
+    <mergeCell ref="P308:P310"/>
+    <mergeCell ref="Q308:Q310"/>
+    <mergeCell ref="R308:R310"/>
+    <mergeCell ref="S308:S310"/>
+    <mergeCell ref="T308:T310"/>
+    <mergeCell ref="U308:U310"/>
+    <mergeCell ref="J308:J310"/>
+    <mergeCell ref="K308:K310"/>
+    <mergeCell ref="L308:L310"/>
+    <mergeCell ref="M308:M310"/>
+    <mergeCell ref="N308:N310"/>
+    <mergeCell ref="O308:O310"/>
+    <mergeCell ref="U305:U307"/>
+    <mergeCell ref="V305:V307"/>
+    <mergeCell ref="B308:B310"/>
+    <mergeCell ref="C308:C310"/>
+    <mergeCell ref="D308:D310"/>
+    <mergeCell ref="E308:E310"/>
+    <mergeCell ref="F308:F310"/>
+    <mergeCell ref="G308:G310"/>
+    <mergeCell ref="H308:H310"/>
+    <mergeCell ref="I308:I310"/>
+    <mergeCell ref="O305:O307"/>
+    <mergeCell ref="P305:P307"/>
+    <mergeCell ref="Q305:Q307"/>
+    <mergeCell ref="R305:R307"/>
+    <mergeCell ref="S305:S307"/>
+    <mergeCell ref="T305:T307"/>
+    <mergeCell ref="I305:I307"/>
+    <mergeCell ref="J305:J307"/>
+    <mergeCell ref="K305:K307"/>
+    <mergeCell ref="L305:L307"/>
+    <mergeCell ref="M305:M307"/>
+    <mergeCell ref="N305:N307"/>
+    <mergeCell ref="T302:T304"/>
+    <mergeCell ref="U302:U304"/>
+    <mergeCell ref="V302:V304"/>
+    <mergeCell ref="B305:B307"/>
+    <mergeCell ref="C305:C307"/>
+    <mergeCell ref="D305:D307"/>
+    <mergeCell ref="E305:E307"/>
+    <mergeCell ref="F305:F307"/>
+    <mergeCell ref="G305:G307"/>
+    <mergeCell ref="H305:H307"/>
+    <mergeCell ref="N302:N304"/>
+    <mergeCell ref="O302:O304"/>
+    <mergeCell ref="P302:P304"/>
+    <mergeCell ref="Q302:Q304"/>
+    <mergeCell ref="R302:R304"/>
+    <mergeCell ref="S302:S304"/>
+    <mergeCell ref="H302:H304"/>
+    <mergeCell ref="I302:I304"/>
+    <mergeCell ref="J302:J304"/>
+    <mergeCell ref="K302:K304"/>
+    <mergeCell ref="L302:L304"/>
+    <mergeCell ref="M302:M304"/>
+    <mergeCell ref="B302:B304"/>
+    <mergeCell ref="C302:C304"/>
+    <mergeCell ref="D302:D304"/>
+    <mergeCell ref="E302:E304"/>
+    <mergeCell ref="F302:F304"/>
+    <mergeCell ref="G302:G304"/>
+    <mergeCell ref="Q299:Q301"/>
+    <mergeCell ref="R299:R301"/>
+    <mergeCell ref="S299:S301"/>
+    <mergeCell ref="T299:T301"/>
+    <mergeCell ref="U299:U301"/>
+    <mergeCell ref="V299:V301"/>
+    <mergeCell ref="K299:K301"/>
+    <mergeCell ref="L299:L301"/>
+    <mergeCell ref="M299:M301"/>
+    <mergeCell ref="N299:N301"/>
+    <mergeCell ref="O299:O301"/>
+    <mergeCell ref="P299:P301"/>
+    <mergeCell ref="V296:V298"/>
+    <mergeCell ref="B299:B301"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="D299:D301"/>
+    <mergeCell ref="E299:E301"/>
+    <mergeCell ref="F299:F301"/>
+    <mergeCell ref="G299:G301"/>
+    <mergeCell ref="H299:H301"/>
+    <mergeCell ref="I299:I301"/>
+    <mergeCell ref="J299:J301"/>
+    <mergeCell ref="P296:P298"/>
+    <mergeCell ref="Q296:Q298"/>
+    <mergeCell ref="R296:R298"/>
+    <mergeCell ref="S296:S298"/>
+    <mergeCell ref="T296:T298"/>
+    <mergeCell ref="U296:U298"/>
+    <mergeCell ref="J296:J298"/>
+    <mergeCell ref="K296:K298"/>
+    <mergeCell ref="L296:L298"/>
+    <mergeCell ref="M296:M298"/>
+    <mergeCell ref="N296:N298"/>
+    <mergeCell ref="O296:O298"/>
+    <mergeCell ref="U293:U295"/>
+    <mergeCell ref="V293:V295"/>
+    <mergeCell ref="B296:B298"/>
+    <mergeCell ref="C296:C298"/>
+    <mergeCell ref="D296:D298"/>
+    <mergeCell ref="E296:E298"/>
+    <mergeCell ref="F296:F298"/>
+    <mergeCell ref="G296:G298"/>
+    <mergeCell ref="H296:H298"/>
+    <mergeCell ref="I296:I298"/>
+    <mergeCell ref="O293:O295"/>
+    <mergeCell ref="P293:P295"/>
+    <mergeCell ref="Q293:Q295"/>
+    <mergeCell ref="R293:R295"/>
+    <mergeCell ref="S293:S295"/>
+    <mergeCell ref="T293:T295"/>
+    <mergeCell ref="I293:I295"/>
+    <mergeCell ref="J293:J295"/>
+    <mergeCell ref="K293:K295"/>
+    <mergeCell ref="L293:L295"/>
+    <mergeCell ref="M293:M295"/>
+    <mergeCell ref="N293:N295"/>
+    <mergeCell ref="T290:T292"/>
+    <mergeCell ref="U290:U292"/>
+    <mergeCell ref="V290:V292"/>
+    <mergeCell ref="B293:B295"/>
+    <mergeCell ref="C293:C295"/>
+    <mergeCell ref="D293:D295"/>
+    <mergeCell ref="E293:E295"/>
+    <mergeCell ref="F293:F295"/>
+    <mergeCell ref="G293:G295"/>
+    <mergeCell ref="H293:H295"/>
+    <mergeCell ref="N290:N292"/>
+    <mergeCell ref="O290:O292"/>
+    <mergeCell ref="P290:P292"/>
+    <mergeCell ref="Q290:Q292"/>
+    <mergeCell ref="R290:R292"/>
+    <mergeCell ref="S290:S292"/>
+    <mergeCell ref="H290:H292"/>
+    <mergeCell ref="I290:I292"/>
+    <mergeCell ref="J290:J292"/>
+    <mergeCell ref="K290:K292"/>
+    <mergeCell ref="L290:L292"/>
+    <mergeCell ref="M290:M292"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="C290:C292"/>
+    <mergeCell ref="D290:D292"/>
+    <mergeCell ref="E290:E292"/>
+    <mergeCell ref="F290:F292"/>
+    <mergeCell ref="G290:G292"/>
+    <mergeCell ref="Q287:Q289"/>
+    <mergeCell ref="R287:R289"/>
+    <mergeCell ref="S287:S289"/>
+    <mergeCell ref="T287:T289"/>
+    <mergeCell ref="U287:U289"/>
+    <mergeCell ref="V287:V289"/>
+    <mergeCell ref="K287:K289"/>
+    <mergeCell ref="L287:L289"/>
+    <mergeCell ref="M287:M289"/>
+    <mergeCell ref="N287:N289"/>
+    <mergeCell ref="O287:O289"/>
+    <mergeCell ref="P287:P289"/>
+    <mergeCell ref="V284:V286"/>
+    <mergeCell ref="B287:B289"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="E287:E289"/>
+    <mergeCell ref="F287:F289"/>
+    <mergeCell ref="G287:G289"/>
+    <mergeCell ref="H287:H289"/>
+    <mergeCell ref="I287:I289"/>
+    <mergeCell ref="J287:J289"/>
+    <mergeCell ref="P284:P286"/>
+    <mergeCell ref="Q284:Q286"/>
+    <mergeCell ref="R284:R286"/>
+    <mergeCell ref="S284:S286"/>
+    <mergeCell ref="T284:T286"/>
+    <mergeCell ref="U284:U286"/>
+    <mergeCell ref="J284:J286"/>
+    <mergeCell ref="K284:K286"/>
+    <mergeCell ref="L284:L286"/>
+    <mergeCell ref="M284:M286"/>
+    <mergeCell ref="N284:N286"/>
+    <mergeCell ref="O284:O286"/>
+    <mergeCell ref="U281:U283"/>
+    <mergeCell ref="V281:V283"/>
+    <mergeCell ref="B284:B286"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="F284:F286"/>
+    <mergeCell ref="G284:G286"/>
+    <mergeCell ref="H284:H286"/>
+    <mergeCell ref="I284:I286"/>
+    <mergeCell ref="O281:O283"/>
+    <mergeCell ref="P281:P283"/>
+    <mergeCell ref="Q281:Q283"/>
+    <mergeCell ref="R281:R283"/>
+    <mergeCell ref="S281:S283"/>
+    <mergeCell ref="T281:T283"/>
+    <mergeCell ref="I281:I283"/>
+    <mergeCell ref="J281:J283"/>
+    <mergeCell ref="K281:K283"/>
+    <mergeCell ref="L281:L283"/>
+    <mergeCell ref="M281:M283"/>
+    <mergeCell ref="N281:N283"/>
+    <mergeCell ref="T278:T280"/>
+    <mergeCell ref="U278:U280"/>
+    <mergeCell ref="V278:V280"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="D281:D283"/>
+    <mergeCell ref="E281:E283"/>
+    <mergeCell ref="F281:F283"/>
+    <mergeCell ref="G281:G283"/>
+    <mergeCell ref="H281:H283"/>
+    <mergeCell ref="N278:N280"/>
+    <mergeCell ref="O278:O280"/>
+    <mergeCell ref="P278:P280"/>
+    <mergeCell ref="Q278:Q280"/>
+    <mergeCell ref="R278:R280"/>
+    <mergeCell ref="S278:S280"/>
+    <mergeCell ref="H278:H280"/>
+    <mergeCell ref="I278:I280"/>
+    <mergeCell ref="J278:J280"/>
+    <mergeCell ref="K278:K280"/>
+    <mergeCell ref="L278:L280"/>
+    <mergeCell ref="M278:M280"/>
+    <mergeCell ref="B278:B280"/>
+    <mergeCell ref="C278:C280"/>
+    <mergeCell ref="D278:D280"/>
+    <mergeCell ref="E278:E280"/>
+    <mergeCell ref="F278:F280"/>
+    <mergeCell ref="G278:G280"/>
+    <mergeCell ref="Q275:Q277"/>
+    <mergeCell ref="R275:R277"/>
+    <mergeCell ref="S275:S277"/>
+    <mergeCell ref="T275:T277"/>
+    <mergeCell ref="U275:U277"/>
+    <mergeCell ref="V275:V277"/>
+    <mergeCell ref="K275:K277"/>
+    <mergeCell ref="L275:L277"/>
+    <mergeCell ref="M275:M277"/>
+    <mergeCell ref="N275:N277"/>
+    <mergeCell ref="O275:O277"/>
+    <mergeCell ref="P275:P277"/>
+    <mergeCell ref="V272:V274"/>
+    <mergeCell ref="B275:B277"/>
+    <mergeCell ref="C275:C277"/>
+    <mergeCell ref="D275:D277"/>
+    <mergeCell ref="E275:E277"/>
+    <mergeCell ref="F275:F277"/>
+    <mergeCell ref="G275:G277"/>
+    <mergeCell ref="H275:H277"/>
+    <mergeCell ref="I275:I277"/>
+    <mergeCell ref="J275:J277"/>
+    <mergeCell ref="P272:P274"/>
+    <mergeCell ref="Q272:Q274"/>
+    <mergeCell ref="R272:R274"/>
+    <mergeCell ref="S272:S274"/>
+    <mergeCell ref="T272:T274"/>
+    <mergeCell ref="U272:U274"/>
+    <mergeCell ref="J272:J274"/>
+    <mergeCell ref="K272:K274"/>
+    <mergeCell ref="L272:L274"/>
+    <mergeCell ref="M272:M274"/>
+    <mergeCell ref="N272:N274"/>
+    <mergeCell ref="O272:O274"/>
+    <mergeCell ref="U269:U271"/>
+    <mergeCell ref="V269:V271"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="D272:D274"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="F272:F274"/>
+    <mergeCell ref="G272:G274"/>
+    <mergeCell ref="H272:H274"/>
+    <mergeCell ref="I272:I274"/>
+    <mergeCell ref="O269:O271"/>
+    <mergeCell ref="P269:P271"/>
+    <mergeCell ref="Q269:Q271"/>
+    <mergeCell ref="R269:R271"/>
+    <mergeCell ref="S269:S271"/>
+    <mergeCell ref="T269:T271"/>
+    <mergeCell ref="I269:I271"/>
+    <mergeCell ref="J269:J271"/>
+    <mergeCell ref="K269:K271"/>
+    <mergeCell ref="L269:L271"/>
+    <mergeCell ref="M269:M271"/>
+    <mergeCell ref="N269:N271"/>
+    <mergeCell ref="T266:T268"/>
+    <mergeCell ref="U266:U268"/>
+    <mergeCell ref="V266:V268"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="D269:D271"/>
+    <mergeCell ref="E269:E271"/>
+    <mergeCell ref="F269:F271"/>
+    <mergeCell ref="G269:G271"/>
+    <mergeCell ref="H269:H271"/>
+    <mergeCell ref="N266:N268"/>
+    <mergeCell ref="O266:O268"/>
+    <mergeCell ref="P266:P268"/>
+    <mergeCell ref="Q266:Q268"/>
+    <mergeCell ref="R266:R268"/>
+    <mergeCell ref="S266:S268"/>
+    <mergeCell ref="H266:H268"/>
+    <mergeCell ref="I266:I268"/>
+    <mergeCell ref="J266:J268"/>
+    <mergeCell ref="K266:K268"/>
+    <mergeCell ref="L266:L268"/>
+    <mergeCell ref="M266:M268"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="D266:D268"/>
+    <mergeCell ref="E266:E268"/>
+    <mergeCell ref="F266:F268"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="Q263:Q265"/>
+    <mergeCell ref="R263:R265"/>
+    <mergeCell ref="S263:S265"/>
+    <mergeCell ref="T263:T265"/>
+    <mergeCell ref="U263:U265"/>
+    <mergeCell ref="V263:V265"/>
+    <mergeCell ref="K263:K265"/>
+    <mergeCell ref="L263:L265"/>
+    <mergeCell ref="M263:M265"/>
+    <mergeCell ref="N263:N265"/>
+    <mergeCell ref="O263:O265"/>
+    <mergeCell ref="P263:P265"/>
+    <mergeCell ref="V260:V262"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="D263:D265"/>
+    <mergeCell ref="E263:E265"/>
+    <mergeCell ref="F263:F265"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="H263:H265"/>
+    <mergeCell ref="I263:I265"/>
+    <mergeCell ref="J263:J265"/>
+    <mergeCell ref="P260:P262"/>
+    <mergeCell ref="Q260:Q262"/>
+    <mergeCell ref="R260:R262"/>
+    <mergeCell ref="S260:S262"/>
+    <mergeCell ref="T260:T262"/>
+    <mergeCell ref="U260:U262"/>
+    <mergeCell ref="J260:J262"/>
+    <mergeCell ref="K260:K262"/>
+    <mergeCell ref="L260:L262"/>
+    <mergeCell ref="M260:M262"/>
+    <mergeCell ref="N260:N262"/>
+    <mergeCell ref="O260:O262"/>
+    <mergeCell ref="U257:U259"/>
+    <mergeCell ref="V257:V259"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="D260:D262"/>
+    <mergeCell ref="E260:E262"/>
+    <mergeCell ref="F260:F262"/>
+    <mergeCell ref="G260:G262"/>
+    <mergeCell ref="H260:H262"/>
+    <mergeCell ref="I260:I262"/>
+    <mergeCell ref="O257:O259"/>
+    <mergeCell ref="P257:P259"/>
+    <mergeCell ref="Q257:Q259"/>
+    <mergeCell ref="R257:R259"/>
+    <mergeCell ref="S257:S259"/>
+    <mergeCell ref="T257:T259"/>
+    <mergeCell ref="I257:I259"/>
+    <mergeCell ref="J257:J259"/>
+    <mergeCell ref="K257:K259"/>
+    <mergeCell ref="L257:L259"/>
+    <mergeCell ref="M257:M259"/>
+    <mergeCell ref="N257:N259"/>
+    <mergeCell ref="T254:T256"/>
+    <mergeCell ref="U254:U256"/>
+    <mergeCell ref="V254:V256"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="D257:D259"/>
+    <mergeCell ref="E257:E259"/>
+    <mergeCell ref="F257:F259"/>
+    <mergeCell ref="G257:G259"/>
+    <mergeCell ref="H257:H259"/>
+    <mergeCell ref="N254:N256"/>
+    <mergeCell ref="O254:O256"/>
+    <mergeCell ref="P254:P256"/>
+    <mergeCell ref="Q254:Q256"/>
+    <mergeCell ref="R254:R256"/>
+    <mergeCell ref="S254:S256"/>
+    <mergeCell ref="H254:H256"/>
+    <mergeCell ref="I254:I256"/>
+    <mergeCell ref="J254:J256"/>
+    <mergeCell ref="K254:K256"/>
+    <mergeCell ref="L254:L256"/>
+    <mergeCell ref="M254:M256"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="D254:D256"/>
+    <mergeCell ref="E254:E256"/>
+    <mergeCell ref="F254:F256"/>
+    <mergeCell ref="G254:G256"/>
+    <mergeCell ref="Q251:Q253"/>
+    <mergeCell ref="R251:R253"/>
+    <mergeCell ref="S251:S253"/>
+    <mergeCell ref="T251:T253"/>
+    <mergeCell ref="U251:U253"/>
+    <mergeCell ref="V251:V253"/>
+    <mergeCell ref="K251:K253"/>
+    <mergeCell ref="L251:L253"/>
+    <mergeCell ref="M251:M253"/>
+    <mergeCell ref="N251:N253"/>
+    <mergeCell ref="O251:O253"/>
+    <mergeCell ref="P251:P253"/>
+    <mergeCell ref="V248:V250"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="F251:F253"/>
+    <mergeCell ref="G251:G253"/>
+    <mergeCell ref="H251:H253"/>
+    <mergeCell ref="I251:I253"/>
+    <mergeCell ref="J251:J253"/>
+    <mergeCell ref="P248:P250"/>
+    <mergeCell ref="Q248:Q250"/>
+    <mergeCell ref="R248:R250"/>
+    <mergeCell ref="S248:S250"/>
+    <mergeCell ref="T248:T250"/>
+    <mergeCell ref="U248:U250"/>
+    <mergeCell ref="J248:J250"/>
+    <mergeCell ref="K248:K250"/>
+    <mergeCell ref="L248:L250"/>
+    <mergeCell ref="M248:M250"/>
+    <mergeCell ref="N248:N250"/>
+    <mergeCell ref="O248:O250"/>
+    <mergeCell ref="U245:U247"/>
+    <mergeCell ref="V245:V247"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="C248:C250"/>
+    <mergeCell ref="D248:D250"/>
+    <mergeCell ref="E248:E250"/>
+    <mergeCell ref="F248:F250"/>
+    <mergeCell ref="G248:G250"/>
+    <mergeCell ref="H248:H250"/>
+    <mergeCell ref="I248:I250"/>
+    <mergeCell ref="O245:O247"/>
+    <mergeCell ref="P245:P247"/>
+    <mergeCell ref="Q245:Q247"/>
+    <mergeCell ref="R245:R247"/>
+    <mergeCell ref="S245:S247"/>
+    <mergeCell ref="T245:T247"/>
+    <mergeCell ref="I245:I247"/>
+    <mergeCell ref="J245:J247"/>
+    <mergeCell ref="K245:K247"/>
+    <mergeCell ref="L245:L247"/>
+    <mergeCell ref="M245:M247"/>
+    <mergeCell ref="N245:N247"/>
+    <mergeCell ref="T242:T244"/>
+    <mergeCell ref="U242:U244"/>
+    <mergeCell ref="V242:V244"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="C245:C247"/>
+    <mergeCell ref="D245:D247"/>
+    <mergeCell ref="E245:E247"/>
+    <mergeCell ref="F245:F247"/>
+    <mergeCell ref="G245:G247"/>
+    <mergeCell ref="H245:H247"/>
+    <mergeCell ref="N242:N244"/>
+    <mergeCell ref="O242:O244"/>
+    <mergeCell ref="P242:P244"/>
+    <mergeCell ref="Q242:Q244"/>
+    <mergeCell ref="R242:R244"/>
+    <mergeCell ref="S242:S244"/>
+    <mergeCell ref="H242:H244"/>
+    <mergeCell ref="I242:I244"/>
+    <mergeCell ref="J242:J244"/>
+    <mergeCell ref="K242:K244"/>
+    <mergeCell ref="L242:L244"/>
+    <mergeCell ref="M242:M244"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="D242:D244"/>
+    <mergeCell ref="E242:E244"/>
+    <mergeCell ref="F242:F244"/>
+    <mergeCell ref="G242:G244"/>
+    <mergeCell ref="Q239:Q241"/>
+    <mergeCell ref="R239:R241"/>
+    <mergeCell ref="S239:S241"/>
+    <mergeCell ref="T239:T241"/>
+    <mergeCell ref="U239:U241"/>
+    <mergeCell ref="V239:V241"/>
+    <mergeCell ref="K239:K241"/>
+    <mergeCell ref="L239:L241"/>
+    <mergeCell ref="M239:M241"/>
+    <mergeCell ref="N239:N241"/>
+    <mergeCell ref="O239:O241"/>
+    <mergeCell ref="P239:P241"/>
+    <mergeCell ref="V236:V238"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="F239:F241"/>
+    <mergeCell ref="G239:G241"/>
+    <mergeCell ref="H239:H241"/>
+    <mergeCell ref="I239:I241"/>
+    <mergeCell ref="J239:J241"/>
+    <mergeCell ref="P236:P238"/>
+    <mergeCell ref="Q236:Q238"/>
+    <mergeCell ref="R236:R238"/>
+    <mergeCell ref="S236:S238"/>
+    <mergeCell ref="T236:T238"/>
+    <mergeCell ref="U236:U238"/>
+    <mergeCell ref="J236:J238"/>
+    <mergeCell ref="K236:K238"/>
+    <mergeCell ref="L236:L238"/>
+    <mergeCell ref="M236:M238"/>
+    <mergeCell ref="N236:N238"/>
+    <mergeCell ref="O236:O238"/>
+    <mergeCell ref="U233:U235"/>
+    <mergeCell ref="V233:V235"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="D236:D238"/>
+    <mergeCell ref="E236:E238"/>
+    <mergeCell ref="F236:F238"/>
+    <mergeCell ref="G236:G238"/>
+    <mergeCell ref="H236:H238"/>
+    <mergeCell ref="I236:I238"/>
+    <mergeCell ref="O233:O235"/>
+    <mergeCell ref="P233:P235"/>
+    <mergeCell ref="Q233:Q235"/>
+    <mergeCell ref="R233:R235"/>
+    <mergeCell ref="S233:S235"/>
+    <mergeCell ref="T233:T235"/>
+    <mergeCell ref="I233:I235"/>
+    <mergeCell ref="J233:J235"/>
+    <mergeCell ref="K233:K235"/>
+    <mergeCell ref="L233:L235"/>
+    <mergeCell ref="M233:M235"/>
+    <mergeCell ref="N233:N235"/>
+    <mergeCell ref="T230:T232"/>
+    <mergeCell ref="U230:U232"/>
+    <mergeCell ref="V230:V232"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="C233:C235"/>
+    <mergeCell ref="D233:D235"/>
+    <mergeCell ref="E233:E235"/>
+    <mergeCell ref="F233:F235"/>
+    <mergeCell ref="G233:G235"/>
+    <mergeCell ref="H233:H235"/>
+    <mergeCell ref="N230:N232"/>
+    <mergeCell ref="O230:O232"/>
+    <mergeCell ref="P230:P232"/>
+    <mergeCell ref="Q230:Q232"/>
+    <mergeCell ref="R230:R232"/>
+    <mergeCell ref="S230:S232"/>
+    <mergeCell ref="H230:H232"/>
+    <mergeCell ref="I230:I232"/>
+    <mergeCell ref="J230:J232"/>
+    <mergeCell ref="K230:K232"/>
+    <mergeCell ref="L230:L232"/>
+    <mergeCell ref="M230:M232"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="C230:C232"/>
+    <mergeCell ref="D230:D232"/>
+    <mergeCell ref="E230:E232"/>
+    <mergeCell ref="F230:F232"/>
+    <mergeCell ref="G230:G232"/>
+    <mergeCell ref="Q227:Q229"/>
+    <mergeCell ref="R227:R229"/>
+    <mergeCell ref="S227:S229"/>
+    <mergeCell ref="T227:T229"/>
+    <mergeCell ref="U227:U229"/>
+    <mergeCell ref="V227:V229"/>
+    <mergeCell ref="K227:K229"/>
+    <mergeCell ref="L227:L229"/>
+    <mergeCell ref="M227:M229"/>
+    <mergeCell ref="N227:N229"/>
+    <mergeCell ref="O227:O229"/>
+    <mergeCell ref="P227:P229"/>
+    <mergeCell ref="V224:V226"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="D227:D229"/>
+    <mergeCell ref="E227:E229"/>
+    <mergeCell ref="F227:F229"/>
+    <mergeCell ref="G227:G229"/>
+    <mergeCell ref="H227:H229"/>
+    <mergeCell ref="I227:I229"/>
+    <mergeCell ref="J227:J229"/>
+    <mergeCell ref="P224:P226"/>
+    <mergeCell ref="Q224:Q226"/>
+    <mergeCell ref="R224:R226"/>
+    <mergeCell ref="S224:S226"/>
+    <mergeCell ref="T224:T226"/>
+    <mergeCell ref="U224:U226"/>
+    <mergeCell ref="J224:J226"/>
+    <mergeCell ref="K224:K226"/>
+    <mergeCell ref="L224:L226"/>
+    <mergeCell ref="M224:M226"/>
+    <mergeCell ref="N224:N226"/>
+    <mergeCell ref="O224:O226"/>
+    <mergeCell ref="U221:U223"/>
+    <mergeCell ref="V221:V223"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="D224:D226"/>
+    <mergeCell ref="E224:E226"/>
+    <mergeCell ref="F224:F226"/>
+    <mergeCell ref="G224:G226"/>
+    <mergeCell ref="H224:H226"/>
+    <mergeCell ref="I224:I226"/>
+    <mergeCell ref="O221:O223"/>
+    <mergeCell ref="P221:P223"/>
+    <mergeCell ref="Q221:Q223"/>
+    <mergeCell ref="R221:R223"/>
+    <mergeCell ref="S221:S223"/>
+    <mergeCell ref="T221:T223"/>
+    <mergeCell ref="I221:I223"/>
+    <mergeCell ref="J221:J223"/>
+    <mergeCell ref="K221:K223"/>
+    <mergeCell ref="L221:L223"/>
+    <mergeCell ref="M221:M223"/>
+    <mergeCell ref="N221:N223"/>
+    <mergeCell ref="T218:T220"/>
+    <mergeCell ref="U218:U220"/>
+    <mergeCell ref="V218:V220"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="D221:D223"/>
+    <mergeCell ref="E221:E223"/>
+    <mergeCell ref="F221:F223"/>
+    <mergeCell ref="G221:G223"/>
+    <mergeCell ref="H221:H223"/>
+    <mergeCell ref="N218:N220"/>
+    <mergeCell ref="O218:O220"/>
+    <mergeCell ref="P218:P220"/>
+    <mergeCell ref="Q218:Q220"/>
+    <mergeCell ref="R218:R220"/>
+    <mergeCell ref="S218:S220"/>
+    <mergeCell ref="H218:H220"/>
+    <mergeCell ref="I218:I220"/>
+    <mergeCell ref="J218:J220"/>
+    <mergeCell ref="K218:K220"/>
+    <mergeCell ref="L218:L220"/>
+    <mergeCell ref="M218:M220"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="D218:D220"/>
+    <mergeCell ref="E218:E220"/>
+    <mergeCell ref="F218:F220"/>
+    <mergeCell ref="G218:G220"/>
+    <mergeCell ref="Q215:Q217"/>
+    <mergeCell ref="R215:R217"/>
+    <mergeCell ref="S215:S217"/>
+    <mergeCell ref="T215:T217"/>
+    <mergeCell ref="U215:U217"/>
+    <mergeCell ref="V215:V217"/>
+    <mergeCell ref="K215:K217"/>
+    <mergeCell ref="L215:L217"/>
+    <mergeCell ref="M215:M217"/>
+    <mergeCell ref="N215:N217"/>
+    <mergeCell ref="O215:O217"/>
+    <mergeCell ref="P215:P217"/>
+    <mergeCell ref="V212:V214"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="D215:D217"/>
+    <mergeCell ref="E215:E217"/>
+    <mergeCell ref="F215:F217"/>
+    <mergeCell ref="G215:G217"/>
+    <mergeCell ref="H215:H217"/>
+    <mergeCell ref="I215:I217"/>
+    <mergeCell ref="J215:J217"/>
+    <mergeCell ref="P212:P214"/>
+    <mergeCell ref="Q212:Q214"/>
+    <mergeCell ref="R212:R214"/>
+    <mergeCell ref="S212:S214"/>
+    <mergeCell ref="T212:T214"/>
+    <mergeCell ref="U212:U214"/>
+    <mergeCell ref="J212:J214"/>
+    <mergeCell ref="K212:K214"/>
+    <mergeCell ref="L212:L214"/>
+    <mergeCell ref="M212:M214"/>
+    <mergeCell ref="N212:N214"/>
+    <mergeCell ref="O212:O214"/>
+    <mergeCell ref="U209:U211"/>
+    <mergeCell ref="V209:V211"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="E212:E214"/>
+    <mergeCell ref="F212:F214"/>
+    <mergeCell ref="G212:G214"/>
+    <mergeCell ref="H212:H214"/>
+    <mergeCell ref="I212:I214"/>
+    <mergeCell ref="O209:O211"/>
+    <mergeCell ref="P209:P211"/>
+    <mergeCell ref="Q209:Q211"/>
+    <mergeCell ref="R209:R211"/>
+    <mergeCell ref="S209:S211"/>
+    <mergeCell ref="T209:T211"/>
+    <mergeCell ref="I209:I211"/>
+    <mergeCell ref="J209:J211"/>
+    <mergeCell ref="K209:K211"/>
+    <mergeCell ref="L209:L211"/>
+    <mergeCell ref="M209:M211"/>
+    <mergeCell ref="N209:N211"/>
+    <mergeCell ref="T206:T208"/>
+    <mergeCell ref="U206:U208"/>
+    <mergeCell ref="V206:V208"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="D209:D211"/>
+    <mergeCell ref="E209:E211"/>
+    <mergeCell ref="F209:F211"/>
+    <mergeCell ref="G209:G211"/>
+    <mergeCell ref="H209:H211"/>
+    <mergeCell ref="N206:N208"/>
+    <mergeCell ref="O206:O208"/>
+    <mergeCell ref="P206:P208"/>
+    <mergeCell ref="Q206:Q208"/>
+    <mergeCell ref="R206:R208"/>
+    <mergeCell ref="S206:S208"/>
+    <mergeCell ref="H206:H208"/>
+    <mergeCell ref="I206:I208"/>
+    <mergeCell ref="J206:J208"/>
+    <mergeCell ref="K206:K208"/>
+    <mergeCell ref="L206:L208"/>
+    <mergeCell ref="M206:M208"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="D206:D208"/>
+    <mergeCell ref="E206:E208"/>
+    <mergeCell ref="F206:F208"/>
+    <mergeCell ref="G206:G208"/>
+    <mergeCell ref="Q203:Q205"/>
+    <mergeCell ref="R203:R205"/>
+    <mergeCell ref="S203:S205"/>
+    <mergeCell ref="T203:T205"/>
+    <mergeCell ref="U203:U205"/>
+    <mergeCell ref="V203:V205"/>
+    <mergeCell ref="K203:K205"/>
+    <mergeCell ref="L203:L205"/>
+    <mergeCell ref="M203:M205"/>
+    <mergeCell ref="N203:N205"/>
+    <mergeCell ref="O203:O205"/>
+    <mergeCell ref="P203:P205"/>
+    <mergeCell ref="V200:V202"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="D203:D205"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="F203:F205"/>
+    <mergeCell ref="G203:G205"/>
+    <mergeCell ref="H203:H205"/>
+    <mergeCell ref="I203:I205"/>
+    <mergeCell ref="J203:J205"/>
+    <mergeCell ref="P200:P202"/>
+    <mergeCell ref="Q200:Q202"/>
+    <mergeCell ref="R200:R202"/>
+    <mergeCell ref="S200:S202"/>
+    <mergeCell ref="T200:T202"/>
+    <mergeCell ref="U200:U202"/>
+    <mergeCell ref="J200:J202"/>
+    <mergeCell ref="K200:K202"/>
+    <mergeCell ref="L200:L202"/>
+    <mergeCell ref="M200:M202"/>
+    <mergeCell ref="N200:N202"/>
+    <mergeCell ref="O200:O202"/>
+    <mergeCell ref="U197:U199"/>
+    <mergeCell ref="V197:V199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="D200:D202"/>
+    <mergeCell ref="E200:E202"/>
+    <mergeCell ref="F200:F202"/>
+    <mergeCell ref="G200:G202"/>
+    <mergeCell ref="H200:H202"/>
+    <mergeCell ref="I200:I202"/>
+    <mergeCell ref="O197:O199"/>
+    <mergeCell ref="P197:P199"/>
+    <mergeCell ref="Q197:Q199"/>
+    <mergeCell ref="R197:R199"/>
+    <mergeCell ref="S197:S199"/>
+    <mergeCell ref="T197:T199"/>
+    <mergeCell ref="I197:I199"/>
+    <mergeCell ref="J197:J199"/>
+    <mergeCell ref="K197:K199"/>
+    <mergeCell ref="L197:L199"/>
+    <mergeCell ref="M197:M199"/>
+    <mergeCell ref="N197:N199"/>
+    <mergeCell ref="T194:T196"/>
+    <mergeCell ref="U194:U196"/>
+    <mergeCell ref="V194:V196"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="F197:F199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="H197:H199"/>
+    <mergeCell ref="N194:N196"/>
+    <mergeCell ref="O194:O196"/>
+    <mergeCell ref="P194:P196"/>
+    <mergeCell ref="Q194:Q196"/>
+    <mergeCell ref="R194:R196"/>
+    <mergeCell ref="S194:S196"/>
+    <mergeCell ref="H194:H196"/>
+    <mergeCell ref="I194:I196"/>
+    <mergeCell ref="J194:J196"/>
+    <mergeCell ref="K194:K196"/>
+    <mergeCell ref="L194:L196"/>
+    <mergeCell ref="M194:M196"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="D194:D196"/>
+    <mergeCell ref="E194:E196"/>
+    <mergeCell ref="F194:F196"/>
+    <mergeCell ref="G194:G196"/>
+    <mergeCell ref="Q191:Q193"/>
+    <mergeCell ref="R191:R193"/>
+    <mergeCell ref="S191:S193"/>
+    <mergeCell ref="T191:T193"/>
+    <mergeCell ref="U191:U193"/>
+    <mergeCell ref="V191:V193"/>
+    <mergeCell ref="K191:K193"/>
+    <mergeCell ref="L191:L193"/>
+    <mergeCell ref="M191:M193"/>
+    <mergeCell ref="N191:N193"/>
+    <mergeCell ref="O191:O193"/>
+    <mergeCell ref="P191:P193"/>
+    <mergeCell ref="V188:V190"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="D191:D193"/>
+    <mergeCell ref="E191:E193"/>
+    <mergeCell ref="F191:F193"/>
+    <mergeCell ref="G191:G193"/>
+    <mergeCell ref="H191:H193"/>
+    <mergeCell ref="I191:I193"/>
+    <mergeCell ref="J191:J193"/>
+    <mergeCell ref="P188:P190"/>
+    <mergeCell ref="Q188:Q190"/>
+    <mergeCell ref="R188:R190"/>
+    <mergeCell ref="S188:S190"/>
+    <mergeCell ref="T188:T190"/>
+    <mergeCell ref="U188:U190"/>
+    <mergeCell ref="J188:J190"/>
+    <mergeCell ref="K188:K190"/>
+    <mergeCell ref="L188:L190"/>
+    <mergeCell ref="M188:M190"/>
+    <mergeCell ref="N188:N190"/>
+    <mergeCell ref="O188:O190"/>
+    <mergeCell ref="U185:U187"/>
+    <mergeCell ref="V185:V187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="E188:E190"/>
+    <mergeCell ref="F188:F190"/>
+    <mergeCell ref="G188:G190"/>
+    <mergeCell ref="H188:H190"/>
+    <mergeCell ref="I188:I190"/>
+    <mergeCell ref="O185:O187"/>
+    <mergeCell ref="P185:P187"/>
+    <mergeCell ref="Q185:Q187"/>
+    <mergeCell ref="R185:R187"/>
+    <mergeCell ref="S185:S187"/>
+    <mergeCell ref="T185:T187"/>
+    <mergeCell ref="I185:I187"/>
+    <mergeCell ref="J185:J187"/>
+    <mergeCell ref="K185:K187"/>
+    <mergeCell ref="L185:L187"/>
+    <mergeCell ref="M185:M187"/>
+    <mergeCell ref="N185:N187"/>
+    <mergeCell ref="T182:T184"/>
+    <mergeCell ref="U182:U184"/>
+    <mergeCell ref="V182:V184"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="E185:E187"/>
+    <mergeCell ref="F185:F187"/>
+    <mergeCell ref="G185:G187"/>
+    <mergeCell ref="H185:H187"/>
+    <mergeCell ref="N182:N184"/>
+    <mergeCell ref="O182:O184"/>
+    <mergeCell ref="P182:P184"/>
+    <mergeCell ref="Q182:Q184"/>
+    <mergeCell ref="R182:R184"/>
+    <mergeCell ref="S182:S184"/>
+    <mergeCell ref="H182:H184"/>
+    <mergeCell ref="I182:I184"/>
+    <mergeCell ref="J182:J184"/>
+    <mergeCell ref="K182:K184"/>
+    <mergeCell ref="L182:L184"/>
+    <mergeCell ref="M182:M184"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="D182:D184"/>
+    <mergeCell ref="E182:E184"/>
+    <mergeCell ref="F182:F184"/>
+    <mergeCell ref="G182:G184"/>
+    <mergeCell ref="Q179:Q181"/>
+    <mergeCell ref="R179:R181"/>
+    <mergeCell ref="S179:S181"/>
+    <mergeCell ref="T179:T181"/>
+    <mergeCell ref="U179:U181"/>
+    <mergeCell ref="V179:V181"/>
+    <mergeCell ref="K179:K181"/>
+    <mergeCell ref="L179:L181"/>
+    <mergeCell ref="M179:M181"/>
+    <mergeCell ref="N179:N181"/>
+    <mergeCell ref="O179:O181"/>
+    <mergeCell ref="P179:P181"/>
+    <mergeCell ref="V176:V178"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="E179:E181"/>
+    <mergeCell ref="F179:F181"/>
+    <mergeCell ref="G179:G181"/>
+    <mergeCell ref="H179:H181"/>
+    <mergeCell ref="I179:I181"/>
+    <mergeCell ref="J179:J181"/>
+    <mergeCell ref="P176:P178"/>
+    <mergeCell ref="Q176:Q178"/>
+    <mergeCell ref="R176:R178"/>
+    <mergeCell ref="S176:S178"/>
+    <mergeCell ref="T176:T178"/>
+    <mergeCell ref="U176:U178"/>
+    <mergeCell ref="J176:J178"/>
+    <mergeCell ref="K176:K178"/>
+    <mergeCell ref="L176:L178"/>
+    <mergeCell ref="M176:M178"/>
+    <mergeCell ref="N176:N178"/>
+    <mergeCell ref="O176:O178"/>
+    <mergeCell ref="U173:U175"/>
+    <mergeCell ref="V173:V175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="E176:E178"/>
+    <mergeCell ref="F176:F178"/>
+    <mergeCell ref="G176:G178"/>
+    <mergeCell ref="H176:H178"/>
+    <mergeCell ref="I176:I178"/>
+    <mergeCell ref="O173:O175"/>
+    <mergeCell ref="P173:P175"/>
+    <mergeCell ref="Q173:Q175"/>
+    <mergeCell ref="R173:R175"/>
+    <mergeCell ref="S173:S175"/>
+    <mergeCell ref="T173:T175"/>
+    <mergeCell ref="I173:I175"/>
+    <mergeCell ref="J173:J175"/>
+    <mergeCell ref="K173:K175"/>
+    <mergeCell ref="L173:L175"/>
+    <mergeCell ref="M173:M175"/>
+    <mergeCell ref="N173:N175"/>
+    <mergeCell ref="T170:T172"/>
+    <mergeCell ref="U170:U172"/>
+    <mergeCell ref="V170:V172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="E173:E175"/>
+    <mergeCell ref="F173:F175"/>
+    <mergeCell ref="G173:G175"/>
+    <mergeCell ref="H173:H175"/>
+    <mergeCell ref="N170:N172"/>
+    <mergeCell ref="O170:O172"/>
+    <mergeCell ref="P170:P172"/>
+    <mergeCell ref="Q170:Q172"/>
+    <mergeCell ref="R170:R172"/>
+    <mergeCell ref="S170:S172"/>
+    <mergeCell ref="H170:H172"/>
+    <mergeCell ref="I170:I172"/>
+    <mergeCell ref="J170:J172"/>
+    <mergeCell ref="K170:K172"/>
+    <mergeCell ref="L170:L172"/>
+    <mergeCell ref="M170:M172"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="F170:F172"/>
+    <mergeCell ref="G170:G172"/>
+    <mergeCell ref="Q167:Q169"/>
+    <mergeCell ref="R167:R169"/>
+    <mergeCell ref="S167:S169"/>
+    <mergeCell ref="T167:T169"/>
+    <mergeCell ref="U167:U169"/>
+    <mergeCell ref="V167:V169"/>
+    <mergeCell ref="K167:K169"/>
+    <mergeCell ref="L167:L169"/>
+    <mergeCell ref="M167:M169"/>
+    <mergeCell ref="N167:N169"/>
+    <mergeCell ref="O167:O169"/>
+    <mergeCell ref="P167:P169"/>
+    <mergeCell ref="V164:V166"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="F167:F169"/>
+    <mergeCell ref="G167:G169"/>
+    <mergeCell ref="H167:H169"/>
+    <mergeCell ref="I167:I169"/>
+    <mergeCell ref="J167:J169"/>
+    <mergeCell ref="P164:P166"/>
+    <mergeCell ref="Q164:Q166"/>
+    <mergeCell ref="R164:R166"/>
+    <mergeCell ref="S164:S166"/>
+    <mergeCell ref="T164:T166"/>
+    <mergeCell ref="U164:U166"/>
+    <mergeCell ref="J164:J166"/>
+    <mergeCell ref="K164:K166"/>
+    <mergeCell ref="L164:L166"/>
+    <mergeCell ref="M164:M166"/>
+    <mergeCell ref="N164:N166"/>
+    <mergeCell ref="O164:O166"/>
+    <mergeCell ref="U161:U163"/>
+    <mergeCell ref="V161:V163"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="F164:F166"/>
+    <mergeCell ref="G164:G166"/>
+    <mergeCell ref="H164:H166"/>
+    <mergeCell ref="I164:I166"/>
+    <mergeCell ref="O161:O163"/>
+    <mergeCell ref="P161:P163"/>
+    <mergeCell ref="Q161:Q163"/>
+    <mergeCell ref="R161:R163"/>
+    <mergeCell ref="S161:S163"/>
+    <mergeCell ref="T161:T163"/>
+    <mergeCell ref="I161:I163"/>
+    <mergeCell ref="J161:J163"/>
+    <mergeCell ref="K161:K163"/>
+    <mergeCell ref="L161:L163"/>
+    <mergeCell ref="M161:M163"/>
+    <mergeCell ref="N161:N163"/>
+    <mergeCell ref="T158:T160"/>
+    <mergeCell ref="U158:U160"/>
+    <mergeCell ref="V158:V160"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="E161:E163"/>
+    <mergeCell ref="F161:F163"/>
+    <mergeCell ref="G161:G163"/>
+    <mergeCell ref="H161:H163"/>
+    <mergeCell ref="N158:N160"/>
+    <mergeCell ref="O158:O160"/>
+    <mergeCell ref="P158:P160"/>
+    <mergeCell ref="Q158:Q160"/>
+    <mergeCell ref="R158:R160"/>
+    <mergeCell ref="S158:S160"/>
+    <mergeCell ref="H158:H160"/>
+    <mergeCell ref="I158:I160"/>
+    <mergeCell ref="J158:J160"/>
+    <mergeCell ref="K158:K160"/>
+    <mergeCell ref="L158:L160"/>
+    <mergeCell ref="M158:M160"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="F158:F160"/>
+    <mergeCell ref="G158:G160"/>
+    <mergeCell ref="Q155:Q157"/>
+    <mergeCell ref="R155:R157"/>
+    <mergeCell ref="S155:S157"/>
+    <mergeCell ref="T155:T157"/>
+    <mergeCell ref="U155:U157"/>
+    <mergeCell ref="V155:V157"/>
+    <mergeCell ref="K155:K157"/>
+    <mergeCell ref="L155:L157"/>
+    <mergeCell ref="M155:M157"/>
+    <mergeCell ref="N155:N157"/>
+    <mergeCell ref="O155:O157"/>
+    <mergeCell ref="P155:P157"/>
+    <mergeCell ref="V152:V154"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="F155:F157"/>
+    <mergeCell ref="G155:G157"/>
+    <mergeCell ref="H155:H157"/>
+    <mergeCell ref="I155:I157"/>
+    <mergeCell ref="J155:J157"/>
+    <mergeCell ref="P152:P154"/>
+    <mergeCell ref="Q152:Q154"/>
+    <mergeCell ref="R152:R154"/>
+    <mergeCell ref="S152:S154"/>
+    <mergeCell ref="T152:T154"/>
+    <mergeCell ref="U152:U154"/>
+    <mergeCell ref="J152:J154"/>
+    <mergeCell ref="K152:K154"/>
+    <mergeCell ref="L152:L154"/>
+    <mergeCell ref="M152:M154"/>
+    <mergeCell ref="N152:N154"/>
+    <mergeCell ref="O152:O154"/>
+    <mergeCell ref="U149:U151"/>
+    <mergeCell ref="V149:V151"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="G152:G154"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="I152:I154"/>
+    <mergeCell ref="O149:O151"/>
+    <mergeCell ref="P149:P151"/>
+    <mergeCell ref="Q149:Q151"/>
+    <mergeCell ref="R149:R151"/>
+    <mergeCell ref="S149:S151"/>
+    <mergeCell ref="T149:T151"/>
+    <mergeCell ref="I149:I151"/>
+    <mergeCell ref="J149:J151"/>
+    <mergeCell ref="K149:K151"/>
+    <mergeCell ref="L149:L151"/>
+    <mergeCell ref="M149:M151"/>
+    <mergeCell ref="N149:N151"/>
+    <mergeCell ref="T146:T148"/>
+    <mergeCell ref="U146:U148"/>
+    <mergeCell ref="V146:V148"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="G149:G151"/>
+    <mergeCell ref="H149:H151"/>
+    <mergeCell ref="N146:N148"/>
+    <mergeCell ref="O146:O148"/>
+    <mergeCell ref="P146:P148"/>
+    <mergeCell ref="Q146:Q148"/>
+    <mergeCell ref="R146:R148"/>
+    <mergeCell ref="S146:S148"/>
+    <mergeCell ref="H146:H148"/>
+    <mergeCell ref="I146:I148"/>
+    <mergeCell ref="J146:J148"/>
+    <mergeCell ref="K146:K148"/>
+    <mergeCell ref="L146:L148"/>
+    <mergeCell ref="M146:M148"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="E146:E148"/>
+    <mergeCell ref="F146:F148"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="Q143:Q145"/>
+    <mergeCell ref="R143:R145"/>
+    <mergeCell ref="S143:S145"/>
+    <mergeCell ref="T143:T145"/>
+    <mergeCell ref="U143:U145"/>
+    <mergeCell ref="V143:V145"/>
+    <mergeCell ref="K143:K145"/>
+    <mergeCell ref="L143:L145"/>
+    <mergeCell ref="M143:M145"/>
+    <mergeCell ref="N143:N145"/>
+    <mergeCell ref="O143:O145"/>
+    <mergeCell ref="P143:P145"/>
+    <mergeCell ref="V140:V142"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="E143:E145"/>
+    <mergeCell ref="F143:F145"/>
+    <mergeCell ref="G143:G145"/>
+    <mergeCell ref="H143:H145"/>
+    <mergeCell ref="I143:I145"/>
+    <mergeCell ref="J143:J145"/>
+    <mergeCell ref="P140:P142"/>
+    <mergeCell ref="Q140:Q142"/>
+    <mergeCell ref="R140:R142"/>
+    <mergeCell ref="S140:S142"/>
+    <mergeCell ref="T140:T142"/>
+    <mergeCell ref="U140:U142"/>
+    <mergeCell ref="J140:J142"/>
+    <mergeCell ref="K140:K142"/>
+    <mergeCell ref="L140:L142"/>
+    <mergeCell ref="M140:M142"/>
+    <mergeCell ref="N140:N142"/>
+    <mergeCell ref="O140:O142"/>
+    <mergeCell ref="U137:U139"/>
+    <mergeCell ref="V137:V139"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="F140:F142"/>
+    <mergeCell ref="G140:G142"/>
+    <mergeCell ref="H140:H142"/>
+    <mergeCell ref="I140:I142"/>
+    <mergeCell ref="O137:O139"/>
+    <mergeCell ref="P137:P139"/>
+    <mergeCell ref="Q137:Q139"/>
+    <mergeCell ref="R137:R139"/>
+    <mergeCell ref="S137:S139"/>
+    <mergeCell ref="T137:T139"/>
+    <mergeCell ref="I137:I139"/>
+    <mergeCell ref="J137:J139"/>
+    <mergeCell ref="K137:K139"/>
+    <mergeCell ref="L137:L139"/>
+    <mergeCell ref="M137:M139"/>
+    <mergeCell ref="N137:N139"/>
+    <mergeCell ref="T134:T136"/>
+    <mergeCell ref="U134:U136"/>
+    <mergeCell ref="V134:V136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="E137:E139"/>
+    <mergeCell ref="F137:F139"/>
+    <mergeCell ref="G137:G139"/>
+    <mergeCell ref="H137:H139"/>
+    <mergeCell ref="N134:N136"/>
+    <mergeCell ref="O134:O136"/>
+    <mergeCell ref="P134:P136"/>
+    <mergeCell ref="Q134:Q136"/>
+    <mergeCell ref="R134:R136"/>
+    <mergeCell ref="S134:S136"/>
+    <mergeCell ref="H134:H136"/>
+    <mergeCell ref="I134:I136"/>
+    <mergeCell ref="J134:J136"/>
+    <mergeCell ref="K134:K136"/>
+    <mergeCell ref="L134:L136"/>
+    <mergeCell ref="M134:M136"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="F134:F136"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="Q131:Q133"/>
+    <mergeCell ref="R131:R133"/>
+    <mergeCell ref="S131:S133"/>
+    <mergeCell ref="T131:T133"/>
+    <mergeCell ref="U131:U133"/>
+    <mergeCell ref="V131:V133"/>
+    <mergeCell ref="K131:K133"/>
+    <mergeCell ref="L131:L133"/>
+    <mergeCell ref="M131:M133"/>
+    <mergeCell ref="N131:N133"/>
+    <mergeCell ref="O131:O133"/>
+    <mergeCell ref="P131:P133"/>
+    <mergeCell ref="V128:V130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="F131:F133"/>
+    <mergeCell ref="G131:G133"/>
+    <mergeCell ref="H131:H133"/>
+    <mergeCell ref="I131:I133"/>
+    <mergeCell ref="J131:J133"/>
+    <mergeCell ref="P128:P130"/>
+    <mergeCell ref="Q128:Q130"/>
+    <mergeCell ref="R128:R130"/>
+    <mergeCell ref="S128:S130"/>
+    <mergeCell ref="T128:T130"/>
+    <mergeCell ref="U128:U130"/>
+    <mergeCell ref="J128:J130"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="L128:L130"/>
+    <mergeCell ref="M128:M130"/>
+    <mergeCell ref="N128:N130"/>
+    <mergeCell ref="O128:O130"/>
+    <mergeCell ref="U125:U127"/>
+    <mergeCell ref="V125:V127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="F128:F130"/>
+    <mergeCell ref="G128:G130"/>
+    <mergeCell ref="H128:H130"/>
+    <mergeCell ref="I128:I130"/>
+    <mergeCell ref="O125:O127"/>
+    <mergeCell ref="P125:P127"/>
+    <mergeCell ref="Q125:Q127"/>
+    <mergeCell ref="R125:R127"/>
+    <mergeCell ref="S125:S127"/>
+    <mergeCell ref="T125:T127"/>
+    <mergeCell ref="I125:I127"/>
+    <mergeCell ref="J125:J127"/>
+    <mergeCell ref="K125:K127"/>
+    <mergeCell ref="L125:L127"/>
+    <mergeCell ref="M125:M127"/>
+    <mergeCell ref="N125:N127"/>
+    <mergeCell ref="T122:T124"/>
+    <mergeCell ref="U122:U124"/>
+    <mergeCell ref="V122:V124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="G125:G127"/>
+    <mergeCell ref="H125:H127"/>
+    <mergeCell ref="N122:N124"/>
+    <mergeCell ref="O122:O124"/>
+    <mergeCell ref="P122:P124"/>
+    <mergeCell ref="Q122:Q124"/>
+    <mergeCell ref="R122:R124"/>
+    <mergeCell ref="S122:S124"/>
+    <mergeCell ref="H122:H124"/>
+    <mergeCell ref="I122:I124"/>
+    <mergeCell ref="J122:J124"/>
+    <mergeCell ref="K122:K124"/>
+    <mergeCell ref="L122:L124"/>
+    <mergeCell ref="M122:M124"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="G122:G124"/>
+    <mergeCell ref="Q119:Q121"/>
+    <mergeCell ref="R119:R121"/>
+    <mergeCell ref="S119:S121"/>
+    <mergeCell ref="T119:T121"/>
+    <mergeCell ref="U119:U121"/>
+    <mergeCell ref="V119:V121"/>
+    <mergeCell ref="K119:K121"/>
+    <mergeCell ref="L119:L121"/>
+    <mergeCell ref="M119:M121"/>
+    <mergeCell ref="N119:N121"/>
+    <mergeCell ref="O119:O121"/>
+    <mergeCell ref="P119:P121"/>
+    <mergeCell ref="V116:V118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="G119:G121"/>
+    <mergeCell ref="H119:H121"/>
+    <mergeCell ref="I119:I121"/>
+    <mergeCell ref="J119:J121"/>
+    <mergeCell ref="P116:P118"/>
+    <mergeCell ref="Q116:Q118"/>
+    <mergeCell ref="R116:R118"/>
+    <mergeCell ref="S116:S118"/>
+    <mergeCell ref="T116:T118"/>
+    <mergeCell ref="U116:U118"/>
+    <mergeCell ref="J116:J118"/>
+    <mergeCell ref="K116:K118"/>
+    <mergeCell ref="L116:L118"/>
+    <mergeCell ref="M116:M118"/>
+    <mergeCell ref="N116:N118"/>
+    <mergeCell ref="O116:O118"/>
+    <mergeCell ref="U113:U115"/>
+    <mergeCell ref="V113:V115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="G116:G118"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="I116:I118"/>
+    <mergeCell ref="O113:O115"/>
+    <mergeCell ref="P113:P115"/>
+    <mergeCell ref="Q113:Q115"/>
+    <mergeCell ref="R113:R115"/>
+    <mergeCell ref="S113:S115"/>
+    <mergeCell ref="T113:T115"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="L113:L115"/>
+    <mergeCell ref="M113:M115"/>
+    <mergeCell ref="N113:N115"/>
+    <mergeCell ref="T110:T112"/>
+    <mergeCell ref="U110:U112"/>
+    <mergeCell ref="V110:V112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="G113:G115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="N110:N112"/>
+    <mergeCell ref="O110:O112"/>
+    <mergeCell ref="P110:P112"/>
+    <mergeCell ref="Q110:Q112"/>
+    <mergeCell ref="R110:R112"/>
+    <mergeCell ref="S110:S112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="K110:K112"/>
+    <mergeCell ref="L110:L112"/>
+    <mergeCell ref="M110:M112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="Q107:Q109"/>
+    <mergeCell ref="R107:R109"/>
+    <mergeCell ref="S107:S109"/>
+    <mergeCell ref="T107:T109"/>
+    <mergeCell ref="U107:U109"/>
+    <mergeCell ref="V107:V109"/>
+    <mergeCell ref="K107:K109"/>
+    <mergeCell ref="L107:L109"/>
+    <mergeCell ref="M107:M109"/>
+    <mergeCell ref="N107:N109"/>
+    <mergeCell ref="O107:O109"/>
+    <mergeCell ref="P107:P109"/>
+    <mergeCell ref="V104:V106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="P104:P106"/>
+    <mergeCell ref="Q104:Q106"/>
+    <mergeCell ref="R104:R106"/>
+    <mergeCell ref="S104:S106"/>
+    <mergeCell ref="T104:T106"/>
+    <mergeCell ref="U104:U106"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="L104:L106"/>
+    <mergeCell ref="M104:M106"/>
+    <mergeCell ref="N104:N106"/>
+    <mergeCell ref="O104:O106"/>
+    <mergeCell ref="U101:U103"/>
+    <mergeCell ref="V101:V103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="O101:O103"/>
+    <mergeCell ref="P101:P103"/>
+    <mergeCell ref="Q101:Q103"/>
+    <mergeCell ref="R101:R103"/>
+    <mergeCell ref="S101:S103"/>
+    <mergeCell ref="T101:T103"/>
+    <mergeCell ref="I101:I103"/>
+    <mergeCell ref="J101:J103"/>
+    <mergeCell ref="K101:K103"/>
+    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="M101:M103"/>
+    <mergeCell ref="N101:N103"/>
+    <mergeCell ref="T98:T100"/>
+    <mergeCell ref="U98:U100"/>
+    <mergeCell ref="V98:V100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="G101:G103"/>
+    <mergeCell ref="H101:H103"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="O98:O100"/>
+    <mergeCell ref="P98:P100"/>
+    <mergeCell ref="Q98:Q100"/>
+    <mergeCell ref="R98:R100"/>
+    <mergeCell ref="S98:S100"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="G98:G100"/>
+    <mergeCell ref="Q95:Q97"/>
+    <mergeCell ref="R95:R97"/>
+    <mergeCell ref="S95:S97"/>
+    <mergeCell ref="T95:T97"/>
+    <mergeCell ref="U95:U97"/>
+    <mergeCell ref="V95:V97"/>
+    <mergeCell ref="K95:K97"/>
+    <mergeCell ref="L95:L97"/>
+    <mergeCell ref="M95:M97"/>
+    <mergeCell ref="N95:N97"/>
+    <mergeCell ref="O95:O97"/>
+    <mergeCell ref="P95:P97"/>
+    <mergeCell ref="V92:V94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="I95:I97"/>
+    <mergeCell ref="J95:J97"/>
+    <mergeCell ref="P92:P94"/>
+    <mergeCell ref="Q92:Q94"/>
+    <mergeCell ref="R92:R94"/>
+    <mergeCell ref="S92:S94"/>
+    <mergeCell ref="T92:T94"/>
+    <mergeCell ref="U92:U94"/>
+    <mergeCell ref="J92:J94"/>
+    <mergeCell ref="K92:K94"/>
+    <mergeCell ref="L92:L94"/>
+    <mergeCell ref="M92:M94"/>
+    <mergeCell ref="N92:N94"/>
+    <mergeCell ref="O92:O94"/>
+    <mergeCell ref="U89:U91"/>
+    <mergeCell ref="V89:V91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="I92:I94"/>
+    <mergeCell ref="O89:O91"/>
+    <mergeCell ref="P89:P91"/>
+    <mergeCell ref="Q89:Q91"/>
+    <mergeCell ref="R89:R91"/>
+    <mergeCell ref="S89:S91"/>
+    <mergeCell ref="T89:T91"/>
+    <mergeCell ref="I89:I91"/>
+    <mergeCell ref="J89:J91"/>
+    <mergeCell ref="K89:K91"/>
+    <mergeCell ref="L89:L91"/>
+    <mergeCell ref="M89:M91"/>
+    <mergeCell ref="N89:N91"/>
+    <mergeCell ref="T86:T88"/>
+    <mergeCell ref="U86:U88"/>
+    <mergeCell ref="V86:V88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="H89:H91"/>
+    <mergeCell ref="N86:N88"/>
+    <mergeCell ref="O86:O88"/>
+    <mergeCell ref="P86:P88"/>
+    <mergeCell ref="Q86:Q88"/>
+    <mergeCell ref="R86:R88"/>
+    <mergeCell ref="S86:S88"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="I86:I88"/>
+    <mergeCell ref="J86:J88"/>
+    <mergeCell ref="K86:K88"/>
+    <mergeCell ref="L86:L88"/>
+    <mergeCell ref="M86:M88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="G86:G88"/>
+    <mergeCell ref="Q83:Q85"/>
+    <mergeCell ref="R83:R85"/>
+    <mergeCell ref="S83:S85"/>
+    <mergeCell ref="T83:T85"/>
+    <mergeCell ref="U83:U85"/>
+    <mergeCell ref="V83:V85"/>
+    <mergeCell ref="K83:K85"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="M83:M85"/>
+    <mergeCell ref="N83:N85"/>
+    <mergeCell ref="O83:O85"/>
+    <mergeCell ref="P83:P85"/>
+    <mergeCell ref="V80:V82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="H83:H85"/>
+    <mergeCell ref="I83:I85"/>
+    <mergeCell ref="J83:J85"/>
+    <mergeCell ref="P80:P82"/>
+    <mergeCell ref="Q80:Q82"/>
+    <mergeCell ref="R80:R82"/>
+    <mergeCell ref="S80:S82"/>
+    <mergeCell ref="T80:T82"/>
+    <mergeCell ref="U80:U82"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="K80:K82"/>
+    <mergeCell ref="L80:L82"/>
+    <mergeCell ref="M80:M82"/>
+    <mergeCell ref="N80:N82"/>
+    <mergeCell ref="O80:O82"/>
+    <mergeCell ref="U77:U79"/>
+    <mergeCell ref="V77:V79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="H80:H82"/>
+    <mergeCell ref="I80:I82"/>
+    <mergeCell ref="O77:O79"/>
+    <mergeCell ref="P77:P79"/>
+    <mergeCell ref="Q77:Q79"/>
+    <mergeCell ref="R77:R79"/>
+    <mergeCell ref="S77:S79"/>
+    <mergeCell ref="T77:T79"/>
+    <mergeCell ref="I77:I79"/>
+    <mergeCell ref="J77:J79"/>
+    <mergeCell ref="K77:K79"/>
+    <mergeCell ref="L77:L79"/>
+    <mergeCell ref="M77:M79"/>
+    <mergeCell ref="N77:N79"/>
+    <mergeCell ref="T74:T76"/>
+    <mergeCell ref="U74:U76"/>
+    <mergeCell ref="V74:V76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="H77:H79"/>
+    <mergeCell ref="N74:N76"/>
+    <mergeCell ref="O74:O76"/>
+    <mergeCell ref="P74:P76"/>
+    <mergeCell ref="Q74:Q76"/>
+    <mergeCell ref="R74:R76"/>
+    <mergeCell ref="S74:S76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="M74:M76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="Q71:Q73"/>
+    <mergeCell ref="R71:R73"/>
+    <mergeCell ref="S71:S73"/>
+    <mergeCell ref="T71:T73"/>
+    <mergeCell ref="U71:U73"/>
+    <mergeCell ref="V71:V73"/>
+    <mergeCell ref="K71:K73"/>
+    <mergeCell ref="L71:L73"/>
+    <mergeCell ref="M71:M73"/>
+    <mergeCell ref="N71:N73"/>
+    <mergeCell ref="O71:O73"/>
+    <mergeCell ref="P71:P73"/>
+    <mergeCell ref="V68:V70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="J71:J73"/>
+    <mergeCell ref="P68:P70"/>
+    <mergeCell ref="Q68:Q70"/>
+    <mergeCell ref="R68:R70"/>
+    <mergeCell ref="S68:S70"/>
+    <mergeCell ref="T68:T70"/>
+    <mergeCell ref="U68:U70"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="K68:K70"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="N68:N70"/>
+    <mergeCell ref="O68:O70"/>
+    <mergeCell ref="U65:U67"/>
+    <mergeCell ref="V65:V67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="I68:I70"/>
+    <mergeCell ref="O65:O67"/>
+    <mergeCell ref="P65:P67"/>
+    <mergeCell ref="Q65:Q67"/>
+    <mergeCell ref="R65:R67"/>
+    <mergeCell ref="S65:S67"/>
+    <mergeCell ref="T65:T67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="N65:N67"/>
+    <mergeCell ref="T62:T64"/>
+    <mergeCell ref="U62:U64"/>
+    <mergeCell ref="V62:V64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="N62:N64"/>
+    <mergeCell ref="O62:O64"/>
+    <mergeCell ref="P62:P64"/>
+    <mergeCell ref="Q62:Q64"/>
+    <mergeCell ref="R62:R64"/>
+    <mergeCell ref="S62:S64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="J62:J64"/>
+    <mergeCell ref="K62:K64"/>
+    <mergeCell ref="L62:L64"/>
+    <mergeCell ref="M62:M64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="G62:G64"/>
+    <mergeCell ref="Q59:Q61"/>
+    <mergeCell ref="R59:R61"/>
+    <mergeCell ref="S59:S61"/>
+    <mergeCell ref="T59:T61"/>
+    <mergeCell ref="U59:U61"/>
+    <mergeCell ref="V59:V61"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="L59:L61"/>
+    <mergeCell ref="M59:M61"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="O59:O61"/>
+    <mergeCell ref="P59:P61"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="P56:P58"/>
+    <mergeCell ref="Q56:Q58"/>
+    <mergeCell ref="R56:R58"/>
+    <mergeCell ref="S56:S58"/>
+    <mergeCell ref="T56:T58"/>
+    <mergeCell ref="U56:U58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="K56:K58"/>
+    <mergeCell ref="L56:L58"/>
+    <mergeCell ref="M56:M58"/>
+    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="O56:O58"/>
+    <mergeCell ref="U53:U55"/>
+    <mergeCell ref="V53:V55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="O53:O55"/>
+    <mergeCell ref="P53:P55"/>
+    <mergeCell ref="Q53:Q55"/>
+    <mergeCell ref="R53:R55"/>
+    <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="J53:J55"/>
+    <mergeCell ref="K53:K55"/>
+    <mergeCell ref="L53:L55"/>
+    <mergeCell ref="M53:M55"/>
+    <mergeCell ref="N53:N55"/>
+    <mergeCell ref="T50:T52"/>
+    <mergeCell ref="U50:U52"/>
+    <mergeCell ref="V50:V52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="N50:N52"/>
+    <mergeCell ref="O50:O52"/>
+    <mergeCell ref="P50:P52"/>
+    <mergeCell ref="Q50:Q52"/>
+    <mergeCell ref="R50:R52"/>
+    <mergeCell ref="S50:S52"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="I50:I52"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="K50:K52"/>
+    <mergeCell ref="L50:L52"/>
+    <mergeCell ref="M50:M52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="P47:P49"/>
+    <mergeCell ref="V44:V46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="P44:P46"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="T44:T46"/>
+    <mergeCell ref="U44:U46"/>
+    <mergeCell ref="J44:J46"/>
+    <mergeCell ref="K44:K46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="U41:U43"/>
+    <mergeCell ref="V41:V43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="P41:P43"/>
+    <mergeCell ref="Q41:Q43"/>
+    <mergeCell ref="R41:R43"/>
+    <mergeCell ref="S41:S43"/>
+    <mergeCell ref="T41:T43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="T38:T40"/>
+    <mergeCell ref="U38:U40"/>
+    <mergeCell ref="V38:V40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="O38:O40"/>
+    <mergeCell ref="P38:P40"/>
+    <mergeCell ref="Q38:Q40"/>
+    <mergeCell ref="R38:R40"/>
+    <mergeCell ref="S38:S40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:R37"/>
+    <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
+    <mergeCell ref="U35:U37"/>
+    <mergeCell ref="V35:V37"/>
+    <mergeCell ref="K35:K37"/>
+    <mergeCell ref="L35:L37"/>
+    <mergeCell ref="M35:M37"/>
+    <mergeCell ref="N35:N37"/>
+    <mergeCell ref="O35:O37"/>
+    <mergeCell ref="P35:P37"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="P32:P34"/>
+    <mergeCell ref="Q32:Q34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="N32:N34"/>
+    <mergeCell ref="O32:O34"/>
+    <mergeCell ref="U29:U31"/>
+    <mergeCell ref="V29:V31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="O29:O31"/>
+    <mergeCell ref="P29:P31"/>
+    <mergeCell ref="Q29:Q31"/>
+    <mergeCell ref="R29:R31"/>
+    <mergeCell ref="S29:S31"/>
+    <mergeCell ref="T29:T31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="N29:N31"/>
+    <mergeCell ref="T26:T28"/>
+    <mergeCell ref="U26:U28"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="Q26:Q28"/>
+    <mergeCell ref="R26:R28"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="P20:P22"/>
+    <mergeCell ref="Q20:Q22"/>
+    <mergeCell ref="R20:R22"/>
+    <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="N20:N22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="Q11:Q13"/>
     <mergeCell ref="R11:R13"/>
     <mergeCell ref="S11:S13"/>
@@ -17051,2379 +19390,58 @@
     <mergeCell ref="K8:K10"/>
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="M8:M10"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="U14:U16"/>
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="N20:N22"/>
-    <mergeCell ref="O20:O22"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="Q17:Q19"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="S17:S19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="T23:T25"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P23:P25"/>
-    <mergeCell ref="V20:V22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="P20:P22"/>
-    <mergeCell ref="Q20:Q22"/>
-    <mergeCell ref="R20:R22"/>
-    <mergeCell ref="S20:S22"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="T26:T28"/>
-    <mergeCell ref="U26:U28"/>
-    <mergeCell ref="V26:V28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="O26:O28"/>
-    <mergeCell ref="P26:P28"/>
-    <mergeCell ref="Q26:Q28"/>
-    <mergeCell ref="R26:R28"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="N32:N34"/>
-    <mergeCell ref="O32:O34"/>
-    <mergeCell ref="U29:U31"/>
-    <mergeCell ref="V29:V31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="O29:O31"/>
-    <mergeCell ref="P29:P31"/>
-    <mergeCell ref="Q29:Q31"/>
-    <mergeCell ref="R29:R31"/>
-    <mergeCell ref="S29:S31"/>
-    <mergeCell ref="T29:T31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="N29:N31"/>
-    <mergeCell ref="Q35:Q37"/>
-    <mergeCell ref="R35:R37"/>
-    <mergeCell ref="S35:S37"/>
-    <mergeCell ref="T35:T37"/>
-    <mergeCell ref="U35:U37"/>
-    <mergeCell ref="V35:V37"/>
-    <mergeCell ref="K35:K37"/>
-    <mergeCell ref="L35:L37"/>
-    <mergeCell ref="M35:M37"/>
-    <mergeCell ref="N35:N37"/>
-    <mergeCell ref="O35:O37"/>
-    <mergeCell ref="P35:P37"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="H35:H37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="P32:P34"/>
-    <mergeCell ref="Q32:Q34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="T38:T40"/>
-    <mergeCell ref="U38:U40"/>
-    <mergeCell ref="V38:V40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="O38:O40"/>
-    <mergeCell ref="P38:P40"/>
-    <mergeCell ref="Q38:Q40"/>
-    <mergeCell ref="R38:R40"/>
-    <mergeCell ref="S38:S40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="U41:U43"/>
-    <mergeCell ref="V41:V43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="P41:P43"/>
-    <mergeCell ref="Q41:Q43"/>
-    <mergeCell ref="R41:R43"/>
-    <mergeCell ref="S41:S43"/>
-    <mergeCell ref="T41:T43"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="P47:P49"/>
-    <mergeCell ref="V44:V46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="P44:P46"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="T44:T46"/>
-    <mergeCell ref="U44:U46"/>
-    <mergeCell ref="J44:J46"/>
-    <mergeCell ref="K44:K46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="T50:T52"/>
-    <mergeCell ref="U50:U52"/>
-    <mergeCell ref="V50:V52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="G53:G55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="N50:N52"/>
-    <mergeCell ref="O50:O52"/>
-    <mergeCell ref="P50:P52"/>
-    <mergeCell ref="Q50:Q52"/>
-    <mergeCell ref="R50:R52"/>
-    <mergeCell ref="S50:S52"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="I50:I52"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="K50:K52"/>
-    <mergeCell ref="L50:L52"/>
-    <mergeCell ref="M50:M52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="N56:N58"/>
-    <mergeCell ref="O56:O58"/>
-    <mergeCell ref="U53:U55"/>
-    <mergeCell ref="V53:V55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="O53:O55"/>
-    <mergeCell ref="P53:P55"/>
-    <mergeCell ref="Q53:Q55"/>
-    <mergeCell ref="R53:R55"/>
-    <mergeCell ref="S53:S55"/>
-    <mergeCell ref="T53:T55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="J53:J55"/>
-    <mergeCell ref="K53:K55"/>
-    <mergeCell ref="L53:L55"/>
-    <mergeCell ref="M53:M55"/>
-    <mergeCell ref="N53:N55"/>
-    <mergeCell ref="Q59:Q61"/>
-    <mergeCell ref="R59:R61"/>
-    <mergeCell ref="S59:S61"/>
-    <mergeCell ref="T59:T61"/>
-    <mergeCell ref="U59:U61"/>
-    <mergeCell ref="V59:V61"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="L59:L61"/>
-    <mergeCell ref="M59:M61"/>
-    <mergeCell ref="N59:N61"/>
-    <mergeCell ref="O59:O61"/>
-    <mergeCell ref="P59:P61"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="P56:P58"/>
-    <mergeCell ref="Q56:Q58"/>
-    <mergeCell ref="R56:R58"/>
-    <mergeCell ref="S56:S58"/>
-    <mergeCell ref="T56:T58"/>
-    <mergeCell ref="U56:U58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="K56:K58"/>
-    <mergeCell ref="L56:L58"/>
-    <mergeCell ref="M56:M58"/>
-    <mergeCell ref="T62:T64"/>
-    <mergeCell ref="U62:U64"/>
-    <mergeCell ref="V62:V64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="N62:N64"/>
-    <mergeCell ref="O62:O64"/>
-    <mergeCell ref="P62:P64"/>
-    <mergeCell ref="Q62:Q64"/>
-    <mergeCell ref="R62:R64"/>
-    <mergeCell ref="S62:S64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="J62:J64"/>
-    <mergeCell ref="K62:K64"/>
-    <mergeCell ref="L62:L64"/>
-    <mergeCell ref="M62:M64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="N68:N70"/>
-    <mergeCell ref="O68:O70"/>
-    <mergeCell ref="U65:U67"/>
-    <mergeCell ref="V65:V67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="O65:O67"/>
-    <mergeCell ref="P65:P67"/>
-    <mergeCell ref="Q65:Q67"/>
-    <mergeCell ref="R65:R67"/>
-    <mergeCell ref="S65:S67"/>
-    <mergeCell ref="T65:T67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="N65:N67"/>
-    <mergeCell ref="Q71:Q73"/>
-    <mergeCell ref="R71:R73"/>
-    <mergeCell ref="S71:S73"/>
-    <mergeCell ref="T71:T73"/>
-    <mergeCell ref="U71:U73"/>
-    <mergeCell ref="V71:V73"/>
-    <mergeCell ref="K71:K73"/>
-    <mergeCell ref="L71:L73"/>
-    <mergeCell ref="M71:M73"/>
-    <mergeCell ref="N71:N73"/>
-    <mergeCell ref="O71:O73"/>
-    <mergeCell ref="P71:P73"/>
-    <mergeCell ref="V68:V70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="H71:H73"/>
-    <mergeCell ref="I71:I73"/>
-    <mergeCell ref="J71:J73"/>
-    <mergeCell ref="P68:P70"/>
-    <mergeCell ref="Q68:Q70"/>
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="S68:S70"/>
-    <mergeCell ref="T68:T70"/>
-    <mergeCell ref="U68:U70"/>
-    <mergeCell ref="J68:J70"/>
-    <mergeCell ref="K68:K70"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="T74:T76"/>
-    <mergeCell ref="U74:U76"/>
-    <mergeCell ref="V74:V76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="N74:N76"/>
-    <mergeCell ref="O74:O76"/>
-    <mergeCell ref="P74:P76"/>
-    <mergeCell ref="Q74:Q76"/>
-    <mergeCell ref="R74:R76"/>
-    <mergeCell ref="S74:S76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="M74:M76"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="N80:N82"/>
-    <mergeCell ref="O80:O82"/>
-    <mergeCell ref="U77:U79"/>
-    <mergeCell ref="V77:V79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="H80:H82"/>
-    <mergeCell ref="I80:I82"/>
-    <mergeCell ref="O77:O79"/>
-    <mergeCell ref="P77:P79"/>
-    <mergeCell ref="Q77:Q79"/>
-    <mergeCell ref="R77:R79"/>
-    <mergeCell ref="S77:S79"/>
-    <mergeCell ref="T77:T79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="K77:K79"/>
-    <mergeCell ref="L77:L79"/>
-    <mergeCell ref="M77:M79"/>
-    <mergeCell ref="N77:N79"/>
-    <mergeCell ref="Q83:Q85"/>
-    <mergeCell ref="R83:R85"/>
-    <mergeCell ref="S83:S85"/>
-    <mergeCell ref="T83:T85"/>
-    <mergeCell ref="U83:U85"/>
-    <mergeCell ref="V83:V85"/>
-    <mergeCell ref="K83:K85"/>
-    <mergeCell ref="L83:L85"/>
-    <mergeCell ref="M83:M85"/>
-    <mergeCell ref="N83:N85"/>
-    <mergeCell ref="O83:O85"/>
-    <mergeCell ref="P83:P85"/>
-    <mergeCell ref="V80:V82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="H83:H85"/>
-    <mergeCell ref="I83:I85"/>
-    <mergeCell ref="J83:J85"/>
-    <mergeCell ref="P80:P82"/>
-    <mergeCell ref="Q80:Q82"/>
-    <mergeCell ref="R80:R82"/>
-    <mergeCell ref="S80:S82"/>
-    <mergeCell ref="T80:T82"/>
-    <mergeCell ref="U80:U82"/>
-    <mergeCell ref="J80:J82"/>
-    <mergeCell ref="K80:K82"/>
-    <mergeCell ref="L80:L82"/>
-    <mergeCell ref="M80:M82"/>
-    <mergeCell ref="T86:T88"/>
-    <mergeCell ref="U86:U88"/>
-    <mergeCell ref="V86:V88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="H89:H91"/>
-    <mergeCell ref="N86:N88"/>
-    <mergeCell ref="O86:O88"/>
-    <mergeCell ref="P86:P88"/>
-    <mergeCell ref="Q86:Q88"/>
-    <mergeCell ref="R86:R88"/>
-    <mergeCell ref="S86:S88"/>
-    <mergeCell ref="H86:H88"/>
-    <mergeCell ref="I86:I88"/>
-    <mergeCell ref="J86:J88"/>
-    <mergeCell ref="K86:K88"/>
-    <mergeCell ref="L86:L88"/>
-    <mergeCell ref="M86:M88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="G86:G88"/>
-    <mergeCell ref="N92:N94"/>
-    <mergeCell ref="O92:O94"/>
-    <mergeCell ref="U89:U91"/>
-    <mergeCell ref="V89:V91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="I92:I94"/>
-    <mergeCell ref="O89:O91"/>
-    <mergeCell ref="P89:P91"/>
-    <mergeCell ref="Q89:Q91"/>
-    <mergeCell ref="R89:R91"/>
-    <mergeCell ref="S89:S91"/>
-    <mergeCell ref="T89:T91"/>
-    <mergeCell ref="I89:I91"/>
-    <mergeCell ref="J89:J91"/>
-    <mergeCell ref="K89:K91"/>
-    <mergeCell ref="L89:L91"/>
-    <mergeCell ref="M89:M91"/>
-    <mergeCell ref="N89:N91"/>
-    <mergeCell ref="Q95:Q97"/>
-    <mergeCell ref="R95:R97"/>
-    <mergeCell ref="S95:S97"/>
-    <mergeCell ref="T95:T97"/>
-    <mergeCell ref="U95:U97"/>
-    <mergeCell ref="V95:V97"/>
-    <mergeCell ref="K95:K97"/>
-    <mergeCell ref="L95:L97"/>
-    <mergeCell ref="M95:M97"/>
-    <mergeCell ref="N95:N97"/>
-    <mergeCell ref="O95:O97"/>
-    <mergeCell ref="P95:P97"/>
-    <mergeCell ref="V92:V94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="I95:I97"/>
-    <mergeCell ref="J95:J97"/>
-    <mergeCell ref="P92:P94"/>
-    <mergeCell ref="Q92:Q94"/>
-    <mergeCell ref="R92:R94"/>
-    <mergeCell ref="S92:S94"/>
-    <mergeCell ref="T92:T94"/>
-    <mergeCell ref="U92:U94"/>
-    <mergeCell ref="J92:J94"/>
-    <mergeCell ref="K92:K94"/>
-    <mergeCell ref="L92:L94"/>
-    <mergeCell ref="M92:M94"/>
-    <mergeCell ref="T98:T100"/>
-    <mergeCell ref="U98:U100"/>
-    <mergeCell ref="V98:V100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="G101:G103"/>
-    <mergeCell ref="H101:H103"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="O98:O100"/>
-    <mergeCell ref="P98:P100"/>
-    <mergeCell ref="Q98:Q100"/>
-    <mergeCell ref="R98:R100"/>
-    <mergeCell ref="S98:S100"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="G98:G100"/>
-    <mergeCell ref="N104:N106"/>
-    <mergeCell ref="O104:O106"/>
-    <mergeCell ref="U101:U103"/>
-    <mergeCell ref="V101:V103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="F104:F106"/>
-    <mergeCell ref="G104:G106"/>
-    <mergeCell ref="H104:H106"/>
-    <mergeCell ref="I104:I106"/>
-    <mergeCell ref="O101:O103"/>
-    <mergeCell ref="P101:P103"/>
-    <mergeCell ref="Q101:Q103"/>
-    <mergeCell ref="R101:R103"/>
-    <mergeCell ref="S101:S103"/>
-    <mergeCell ref="T101:T103"/>
-    <mergeCell ref="I101:I103"/>
-    <mergeCell ref="J101:J103"/>
-    <mergeCell ref="K101:K103"/>
-    <mergeCell ref="L101:L103"/>
-    <mergeCell ref="M101:M103"/>
-    <mergeCell ref="N101:N103"/>
-    <mergeCell ref="Q107:Q109"/>
-    <mergeCell ref="R107:R109"/>
-    <mergeCell ref="S107:S109"/>
-    <mergeCell ref="T107:T109"/>
-    <mergeCell ref="U107:U109"/>
-    <mergeCell ref="V107:V109"/>
-    <mergeCell ref="K107:K109"/>
-    <mergeCell ref="L107:L109"/>
-    <mergeCell ref="M107:M109"/>
-    <mergeCell ref="N107:N109"/>
-    <mergeCell ref="O107:O109"/>
-    <mergeCell ref="P107:P109"/>
-    <mergeCell ref="V104:V106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="F107:F109"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="H107:H109"/>
-    <mergeCell ref="I107:I109"/>
-    <mergeCell ref="J107:J109"/>
-    <mergeCell ref="P104:P106"/>
-    <mergeCell ref="Q104:Q106"/>
-    <mergeCell ref="R104:R106"/>
-    <mergeCell ref="S104:S106"/>
-    <mergeCell ref="T104:T106"/>
-    <mergeCell ref="U104:U106"/>
-    <mergeCell ref="J104:J106"/>
-    <mergeCell ref="K104:K106"/>
-    <mergeCell ref="L104:L106"/>
-    <mergeCell ref="M104:M106"/>
-    <mergeCell ref="T110:T112"/>
-    <mergeCell ref="U110:U112"/>
-    <mergeCell ref="V110:V112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="G113:G115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="N110:N112"/>
-    <mergeCell ref="O110:O112"/>
-    <mergeCell ref="P110:P112"/>
-    <mergeCell ref="Q110:Q112"/>
-    <mergeCell ref="R110:R112"/>
-    <mergeCell ref="S110:S112"/>
-    <mergeCell ref="H110:H112"/>
-    <mergeCell ref="I110:I112"/>
-    <mergeCell ref="J110:J112"/>
-    <mergeCell ref="K110:K112"/>
-    <mergeCell ref="L110:L112"/>
-    <mergeCell ref="M110:M112"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="N116:N118"/>
-    <mergeCell ref="O116:O118"/>
-    <mergeCell ref="U113:U115"/>
-    <mergeCell ref="V113:V115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="F116:F118"/>
-    <mergeCell ref="G116:G118"/>
-    <mergeCell ref="H116:H118"/>
-    <mergeCell ref="I116:I118"/>
-    <mergeCell ref="O113:O115"/>
-    <mergeCell ref="P113:P115"/>
-    <mergeCell ref="Q113:Q115"/>
-    <mergeCell ref="R113:R115"/>
-    <mergeCell ref="S113:S115"/>
-    <mergeCell ref="T113:T115"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="M113:M115"/>
-    <mergeCell ref="N113:N115"/>
-    <mergeCell ref="Q119:Q121"/>
-    <mergeCell ref="R119:R121"/>
-    <mergeCell ref="S119:S121"/>
-    <mergeCell ref="T119:T121"/>
-    <mergeCell ref="U119:U121"/>
-    <mergeCell ref="V119:V121"/>
-    <mergeCell ref="K119:K121"/>
-    <mergeCell ref="L119:L121"/>
-    <mergeCell ref="M119:M121"/>
-    <mergeCell ref="N119:N121"/>
-    <mergeCell ref="O119:O121"/>
-    <mergeCell ref="P119:P121"/>
-    <mergeCell ref="V116:V118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="F119:F121"/>
-    <mergeCell ref="G119:G121"/>
-    <mergeCell ref="H119:H121"/>
-    <mergeCell ref="I119:I121"/>
-    <mergeCell ref="J119:J121"/>
-    <mergeCell ref="P116:P118"/>
-    <mergeCell ref="Q116:Q118"/>
-    <mergeCell ref="R116:R118"/>
-    <mergeCell ref="S116:S118"/>
-    <mergeCell ref="T116:T118"/>
-    <mergeCell ref="U116:U118"/>
-    <mergeCell ref="J116:J118"/>
-    <mergeCell ref="K116:K118"/>
-    <mergeCell ref="L116:L118"/>
-    <mergeCell ref="M116:M118"/>
-    <mergeCell ref="T122:T124"/>
-    <mergeCell ref="U122:U124"/>
-    <mergeCell ref="V122:V124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="F125:F127"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="H125:H127"/>
-    <mergeCell ref="N122:N124"/>
-    <mergeCell ref="O122:O124"/>
-    <mergeCell ref="P122:P124"/>
-    <mergeCell ref="Q122:Q124"/>
-    <mergeCell ref="R122:R124"/>
-    <mergeCell ref="S122:S124"/>
-    <mergeCell ref="H122:H124"/>
-    <mergeCell ref="I122:I124"/>
-    <mergeCell ref="J122:J124"/>
-    <mergeCell ref="K122:K124"/>
-    <mergeCell ref="L122:L124"/>
-    <mergeCell ref="M122:M124"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="F122:F124"/>
-    <mergeCell ref="G122:G124"/>
-    <mergeCell ref="N128:N130"/>
-    <mergeCell ref="O128:O130"/>
-    <mergeCell ref="U125:U127"/>
-    <mergeCell ref="V125:V127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="F128:F130"/>
-    <mergeCell ref="G128:G130"/>
-    <mergeCell ref="H128:H130"/>
-    <mergeCell ref="I128:I130"/>
-    <mergeCell ref="O125:O127"/>
-    <mergeCell ref="P125:P127"/>
-    <mergeCell ref="Q125:Q127"/>
-    <mergeCell ref="R125:R127"/>
-    <mergeCell ref="S125:S127"/>
-    <mergeCell ref="T125:T127"/>
-    <mergeCell ref="I125:I127"/>
-    <mergeCell ref="J125:J127"/>
-    <mergeCell ref="K125:K127"/>
-    <mergeCell ref="L125:L127"/>
-    <mergeCell ref="M125:M127"/>
-    <mergeCell ref="N125:N127"/>
-    <mergeCell ref="Q131:Q133"/>
-    <mergeCell ref="R131:R133"/>
-    <mergeCell ref="S131:S133"/>
-    <mergeCell ref="T131:T133"/>
-    <mergeCell ref="U131:U133"/>
-    <mergeCell ref="V131:V133"/>
-    <mergeCell ref="K131:K133"/>
-    <mergeCell ref="L131:L133"/>
-    <mergeCell ref="M131:M133"/>
-    <mergeCell ref="N131:N133"/>
-    <mergeCell ref="O131:O133"/>
-    <mergeCell ref="P131:P133"/>
-    <mergeCell ref="V128:V130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="F131:F133"/>
-    <mergeCell ref="G131:G133"/>
-    <mergeCell ref="H131:H133"/>
-    <mergeCell ref="I131:I133"/>
-    <mergeCell ref="J131:J133"/>
-    <mergeCell ref="P128:P130"/>
-    <mergeCell ref="Q128:Q130"/>
-    <mergeCell ref="R128:R130"/>
-    <mergeCell ref="S128:S130"/>
-    <mergeCell ref="T128:T130"/>
-    <mergeCell ref="U128:U130"/>
-    <mergeCell ref="J128:J130"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="L128:L130"/>
-    <mergeCell ref="M128:M130"/>
-    <mergeCell ref="T134:T136"/>
-    <mergeCell ref="U134:U136"/>
-    <mergeCell ref="V134:V136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="E137:E139"/>
-    <mergeCell ref="F137:F139"/>
-    <mergeCell ref="G137:G139"/>
-    <mergeCell ref="H137:H139"/>
-    <mergeCell ref="N134:N136"/>
-    <mergeCell ref="O134:O136"/>
-    <mergeCell ref="P134:P136"/>
-    <mergeCell ref="Q134:Q136"/>
-    <mergeCell ref="R134:R136"/>
-    <mergeCell ref="S134:S136"/>
-    <mergeCell ref="H134:H136"/>
-    <mergeCell ref="I134:I136"/>
-    <mergeCell ref="J134:J136"/>
-    <mergeCell ref="K134:K136"/>
-    <mergeCell ref="L134:L136"/>
-    <mergeCell ref="M134:M136"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="F134:F136"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="N140:N142"/>
-    <mergeCell ref="O140:O142"/>
-    <mergeCell ref="U137:U139"/>
-    <mergeCell ref="V137:V139"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="F140:F142"/>
-    <mergeCell ref="G140:G142"/>
-    <mergeCell ref="H140:H142"/>
-    <mergeCell ref="I140:I142"/>
-    <mergeCell ref="O137:O139"/>
-    <mergeCell ref="P137:P139"/>
-    <mergeCell ref="Q137:Q139"/>
-    <mergeCell ref="R137:R139"/>
-    <mergeCell ref="S137:S139"/>
-    <mergeCell ref="T137:T139"/>
-    <mergeCell ref="I137:I139"/>
-    <mergeCell ref="J137:J139"/>
-    <mergeCell ref="K137:K139"/>
-    <mergeCell ref="L137:L139"/>
-    <mergeCell ref="M137:M139"/>
-    <mergeCell ref="N137:N139"/>
-    <mergeCell ref="Q143:Q145"/>
-    <mergeCell ref="R143:R145"/>
-    <mergeCell ref="S143:S145"/>
-    <mergeCell ref="T143:T145"/>
-    <mergeCell ref="U143:U145"/>
-    <mergeCell ref="V143:V145"/>
-    <mergeCell ref="K143:K145"/>
-    <mergeCell ref="L143:L145"/>
-    <mergeCell ref="M143:M145"/>
-    <mergeCell ref="N143:N145"/>
-    <mergeCell ref="O143:O145"/>
-    <mergeCell ref="P143:P145"/>
-    <mergeCell ref="V140:V142"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="E143:E145"/>
-    <mergeCell ref="F143:F145"/>
-    <mergeCell ref="G143:G145"/>
-    <mergeCell ref="H143:H145"/>
-    <mergeCell ref="I143:I145"/>
-    <mergeCell ref="J143:J145"/>
-    <mergeCell ref="P140:P142"/>
-    <mergeCell ref="Q140:Q142"/>
-    <mergeCell ref="R140:R142"/>
-    <mergeCell ref="S140:S142"/>
-    <mergeCell ref="T140:T142"/>
-    <mergeCell ref="U140:U142"/>
-    <mergeCell ref="J140:J142"/>
-    <mergeCell ref="K140:K142"/>
-    <mergeCell ref="L140:L142"/>
-    <mergeCell ref="M140:M142"/>
-    <mergeCell ref="T146:T148"/>
-    <mergeCell ref="U146:U148"/>
-    <mergeCell ref="V146:V148"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="G149:G151"/>
-    <mergeCell ref="H149:H151"/>
-    <mergeCell ref="N146:N148"/>
-    <mergeCell ref="O146:O148"/>
-    <mergeCell ref="P146:P148"/>
-    <mergeCell ref="Q146:Q148"/>
-    <mergeCell ref="R146:R148"/>
-    <mergeCell ref="S146:S148"/>
-    <mergeCell ref="H146:H148"/>
-    <mergeCell ref="I146:I148"/>
-    <mergeCell ref="J146:J148"/>
-    <mergeCell ref="K146:K148"/>
-    <mergeCell ref="L146:L148"/>
-    <mergeCell ref="M146:M148"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="E146:E148"/>
-    <mergeCell ref="F146:F148"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="N152:N154"/>
-    <mergeCell ref="O152:O154"/>
-    <mergeCell ref="U149:U151"/>
-    <mergeCell ref="V149:V151"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="G152:G154"/>
-    <mergeCell ref="H152:H154"/>
-    <mergeCell ref="I152:I154"/>
-    <mergeCell ref="O149:O151"/>
-    <mergeCell ref="P149:P151"/>
-    <mergeCell ref="Q149:Q151"/>
-    <mergeCell ref="R149:R151"/>
-    <mergeCell ref="S149:S151"/>
-    <mergeCell ref="T149:T151"/>
-    <mergeCell ref="I149:I151"/>
-    <mergeCell ref="J149:J151"/>
-    <mergeCell ref="K149:K151"/>
-    <mergeCell ref="L149:L151"/>
-    <mergeCell ref="M149:M151"/>
-    <mergeCell ref="N149:N151"/>
-    <mergeCell ref="Q155:Q157"/>
-    <mergeCell ref="R155:R157"/>
-    <mergeCell ref="S155:S157"/>
-    <mergeCell ref="T155:T157"/>
-    <mergeCell ref="U155:U157"/>
-    <mergeCell ref="V155:V157"/>
-    <mergeCell ref="K155:K157"/>
-    <mergeCell ref="L155:L157"/>
-    <mergeCell ref="M155:M157"/>
-    <mergeCell ref="N155:N157"/>
-    <mergeCell ref="O155:O157"/>
-    <mergeCell ref="P155:P157"/>
-    <mergeCell ref="V152:V154"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="E155:E157"/>
-    <mergeCell ref="F155:F157"/>
-    <mergeCell ref="G155:G157"/>
-    <mergeCell ref="H155:H157"/>
-    <mergeCell ref="I155:I157"/>
-    <mergeCell ref="J155:J157"/>
-    <mergeCell ref="P152:P154"/>
-    <mergeCell ref="Q152:Q154"/>
-    <mergeCell ref="R152:R154"/>
-    <mergeCell ref="S152:S154"/>
-    <mergeCell ref="T152:T154"/>
-    <mergeCell ref="U152:U154"/>
-    <mergeCell ref="J152:J154"/>
-    <mergeCell ref="K152:K154"/>
-    <mergeCell ref="L152:L154"/>
-    <mergeCell ref="M152:M154"/>
-    <mergeCell ref="T158:T160"/>
-    <mergeCell ref="U158:U160"/>
-    <mergeCell ref="V158:V160"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="E161:E163"/>
-    <mergeCell ref="F161:F163"/>
-    <mergeCell ref="G161:G163"/>
-    <mergeCell ref="H161:H163"/>
-    <mergeCell ref="N158:N160"/>
-    <mergeCell ref="O158:O160"/>
-    <mergeCell ref="P158:P160"/>
-    <mergeCell ref="Q158:Q160"/>
-    <mergeCell ref="R158:R160"/>
-    <mergeCell ref="S158:S160"/>
-    <mergeCell ref="H158:H160"/>
-    <mergeCell ref="I158:I160"/>
-    <mergeCell ref="J158:J160"/>
-    <mergeCell ref="K158:K160"/>
-    <mergeCell ref="L158:L160"/>
-    <mergeCell ref="M158:M160"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="E158:E160"/>
-    <mergeCell ref="F158:F160"/>
-    <mergeCell ref="G158:G160"/>
-    <mergeCell ref="N164:N166"/>
-    <mergeCell ref="O164:O166"/>
-    <mergeCell ref="U161:U163"/>
-    <mergeCell ref="V161:V163"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="F164:F166"/>
-    <mergeCell ref="G164:G166"/>
-    <mergeCell ref="H164:H166"/>
-    <mergeCell ref="I164:I166"/>
-    <mergeCell ref="O161:O163"/>
-    <mergeCell ref="P161:P163"/>
-    <mergeCell ref="Q161:Q163"/>
-    <mergeCell ref="R161:R163"/>
-    <mergeCell ref="S161:S163"/>
-    <mergeCell ref="T161:T163"/>
-    <mergeCell ref="I161:I163"/>
-    <mergeCell ref="J161:J163"/>
-    <mergeCell ref="K161:K163"/>
-    <mergeCell ref="L161:L163"/>
-    <mergeCell ref="M161:M163"/>
-    <mergeCell ref="N161:N163"/>
-    <mergeCell ref="Q167:Q169"/>
-    <mergeCell ref="R167:R169"/>
-    <mergeCell ref="S167:S169"/>
-    <mergeCell ref="T167:T169"/>
-    <mergeCell ref="U167:U169"/>
-    <mergeCell ref="V167:V169"/>
-    <mergeCell ref="K167:K169"/>
-    <mergeCell ref="L167:L169"/>
-    <mergeCell ref="M167:M169"/>
-    <mergeCell ref="N167:N169"/>
-    <mergeCell ref="O167:O169"/>
-    <mergeCell ref="P167:P169"/>
-    <mergeCell ref="V164:V166"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="F167:F169"/>
-    <mergeCell ref="G167:G169"/>
-    <mergeCell ref="H167:H169"/>
-    <mergeCell ref="I167:I169"/>
-    <mergeCell ref="J167:J169"/>
-    <mergeCell ref="P164:P166"/>
-    <mergeCell ref="Q164:Q166"/>
-    <mergeCell ref="R164:R166"/>
-    <mergeCell ref="S164:S166"/>
-    <mergeCell ref="T164:T166"/>
-    <mergeCell ref="U164:U166"/>
-    <mergeCell ref="J164:J166"/>
-    <mergeCell ref="K164:K166"/>
-    <mergeCell ref="L164:L166"/>
-    <mergeCell ref="M164:M166"/>
-    <mergeCell ref="T170:T172"/>
-    <mergeCell ref="U170:U172"/>
-    <mergeCell ref="V170:V172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="E173:E175"/>
-    <mergeCell ref="F173:F175"/>
-    <mergeCell ref="G173:G175"/>
-    <mergeCell ref="H173:H175"/>
-    <mergeCell ref="N170:N172"/>
-    <mergeCell ref="O170:O172"/>
-    <mergeCell ref="P170:P172"/>
-    <mergeCell ref="Q170:Q172"/>
-    <mergeCell ref="R170:R172"/>
-    <mergeCell ref="S170:S172"/>
-    <mergeCell ref="H170:H172"/>
-    <mergeCell ref="I170:I172"/>
-    <mergeCell ref="J170:J172"/>
-    <mergeCell ref="K170:K172"/>
-    <mergeCell ref="L170:L172"/>
-    <mergeCell ref="M170:M172"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="F170:F172"/>
-    <mergeCell ref="G170:G172"/>
-    <mergeCell ref="N176:N178"/>
-    <mergeCell ref="O176:O178"/>
-    <mergeCell ref="U173:U175"/>
-    <mergeCell ref="V173:V175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="E176:E178"/>
-    <mergeCell ref="F176:F178"/>
-    <mergeCell ref="G176:G178"/>
-    <mergeCell ref="H176:H178"/>
-    <mergeCell ref="I176:I178"/>
-    <mergeCell ref="O173:O175"/>
-    <mergeCell ref="P173:P175"/>
-    <mergeCell ref="Q173:Q175"/>
-    <mergeCell ref="R173:R175"/>
-    <mergeCell ref="S173:S175"/>
-    <mergeCell ref="T173:T175"/>
-    <mergeCell ref="I173:I175"/>
-    <mergeCell ref="J173:J175"/>
-    <mergeCell ref="K173:K175"/>
-    <mergeCell ref="L173:L175"/>
-    <mergeCell ref="M173:M175"/>
-    <mergeCell ref="N173:N175"/>
-    <mergeCell ref="Q179:Q181"/>
-    <mergeCell ref="R179:R181"/>
-    <mergeCell ref="S179:S181"/>
-    <mergeCell ref="T179:T181"/>
-    <mergeCell ref="U179:U181"/>
-    <mergeCell ref="V179:V181"/>
-    <mergeCell ref="K179:K181"/>
-    <mergeCell ref="L179:L181"/>
-    <mergeCell ref="M179:M181"/>
-    <mergeCell ref="N179:N181"/>
-    <mergeCell ref="O179:O181"/>
-    <mergeCell ref="P179:P181"/>
-    <mergeCell ref="V176:V178"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="E179:E181"/>
-    <mergeCell ref="F179:F181"/>
-    <mergeCell ref="G179:G181"/>
-    <mergeCell ref="H179:H181"/>
-    <mergeCell ref="I179:I181"/>
-    <mergeCell ref="J179:J181"/>
-    <mergeCell ref="P176:P178"/>
-    <mergeCell ref="Q176:Q178"/>
-    <mergeCell ref="R176:R178"/>
-    <mergeCell ref="S176:S178"/>
-    <mergeCell ref="T176:T178"/>
-    <mergeCell ref="U176:U178"/>
-    <mergeCell ref="J176:J178"/>
-    <mergeCell ref="K176:K178"/>
-    <mergeCell ref="L176:L178"/>
-    <mergeCell ref="M176:M178"/>
-    <mergeCell ref="T182:T184"/>
-    <mergeCell ref="U182:U184"/>
-    <mergeCell ref="V182:V184"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="E185:E187"/>
-    <mergeCell ref="F185:F187"/>
-    <mergeCell ref="G185:G187"/>
-    <mergeCell ref="H185:H187"/>
-    <mergeCell ref="N182:N184"/>
-    <mergeCell ref="O182:O184"/>
-    <mergeCell ref="P182:P184"/>
-    <mergeCell ref="Q182:Q184"/>
-    <mergeCell ref="R182:R184"/>
-    <mergeCell ref="S182:S184"/>
-    <mergeCell ref="H182:H184"/>
-    <mergeCell ref="I182:I184"/>
-    <mergeCell ref="J182:J184"/>
-    <mergeCell ref="K182:K184"/>
-    <mergeCell ref="L182:L184"/>
-    <mergeCell ref="M182:M184"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="D182:D184"/>
-    <mergeCell ref="E182:E184"/>
-    <mergeCell ref="F182:F184"/>
-    <mergeCell ref="G182:G184"/>
-    <mergeCell ref="N188:N190"/>
-    <mergeCell ref="O188:O190"/>
-    <mergeCell ref="U185:U187"/>
-    <mergeCell ref="V185:V187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="F188:F190"/>
-    <mergeCell ref="G188:G190"/>
-    <mergeCell ref="H188:H190"/>
-    <mergeCell ref="I188:I190"/>
-    <mergeCell ref="O185:O187"/>
-    <mergeCell ref="P185:P187"/>
-    <mergeCell ref="Q185:Q187"/>
-    <mergeCell ref="R185:R187"/>
-    <mergeCell ref="S185:S187"/>
-    <mergeCell ref="T185:T187"/>
-    <mergeCell ref="I185:I187"/>
-    <mergeCell ref="J185:J187"/>
-    <mergeCell ref="K185:K187"/>
-    <mergeCell ref="L185:L187"/>
-    <mergeCell ref="M185:M187"/>
-    <mergeCell ref="N185:N187"/>
-    <mergeCell ref="Q191:Q193"/>
-    <mergeCell ref="R191:R193"/>
-    <mergeCell ref="S191:S193"/>
-    <mergeCell ref="T191:T193"/>
-    <mergeCell ref="U191:U193"/>
-    <mergeCell ref="V191:V193"/>
-    <mergeCell ref="K191:K193"/>
-    <mergeCell ref="L191:L193"/>
-    <mergeCell ref="M191:M193"/>
-    <mergeCell ref="N191:N193"/>
-    <mergeCell ref="O191:O193"/>
-    <mergeCell ref="P191:P193"/>
-    <mergeCell ref="V188:V190"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="D191:D193"/>
-    <mergeCell ref="E191:E193"/>
-    <mergeCell ref="F191:F193"/>
-    <mergeCell ref="G191:G193"/>
-    <mergeCell ref="H191:H193"/>
-    <mergeCell ref="I191:I193"/>
-    <mergeCell ref="J191:J193"/>
-    <mergeCell ref="P188:P190"/>
-    <mergeCell ref="Q188:Q190"/>
-    <mergeCell ref="R188:R190"/>
-    <mergeCell ref="S188:S190"/>
-    <mergeCell ref="T188:T190"/>
-    <mergeCell ref="U188:U190"/>
-    <mergeCell ref="J188:J190"/>
-    <mergeCell ref="K188:K190"/>
-    <mergeCell ref="L188:L190"/>
-    <mergeCell ref="M188:M190"/>
-    <mergeCell ref="T194:T196"/>
-    <mergeCell ref="U194:U196"/>
-    <mergeCell ref="V194:V196"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="F197:F199"/>
-    <mergeCell ref="G197:G199"/>
-    <mergeCell ref="H197:H199"/>
-    <mergeCell ref="N194:N196"/>
-    <mergeCell ref="O194:O196"/>
-    <mergeCell ref="P194:P196"/>
-    <mergeCell ref="Q194:Q196"/>
-    <mergeCell ref="R194:R196"/>
-    <mergeCell ref="S194:S196"/>
-    <mergeCell ref="H194:H196"/>
-    <mergeCell ref="I194:I196"/>
-    <mergeCell ref="J194:J196"/>
-    <mergeCell ref="K194:K196"/>
-    <mergeCell ref="L194:L196"/>
-    <mergeCell ref="M194:M196"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="D194:D196"/>
-    <mergeCell ref="E194:E196"/>
-    <mergeCell ref="F194:F196"/>
-    <mergeCell ref="G194:G196"/>
-    <mergeCell ref="N200:N202"/>
-    <mergeCell ref="O200:O202"/>
-    <mergeCell ref="U197:U199"/>
-    <mergeCell ref="V197:V199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="D200:D202"/>
-    <mergeCell ref="E200:E202"/>
-    <mergeCell ref="F200:F202"/>
-    <mergeCell ref="G200:G202"/>
-    <mergeCell ref="H200:H202"/>
-    <mergeCell ref="I200:I202"/>
-    <mergeCell ref="O197:O199"/>
-    <mergeCell ref="P197:P199"/>
-    <mergeCell ref="Q197:Q199"/>
-    <mergeCell ref="R197:R199"/>
-    <mergeCell ref="S197:S199"/>
-    <mergeCell ref="T197:T199"/>
-    <mergeCell ref="I197:I199"/>
-    <mergeCell ref="J197:J199"/>
-    <mergeCell ref="K197:K199"/>
-    <mergeCell ref="L197:L199"/>
-    <mergeCell ref="M197:M199"/>
-    <mergeCell ref="N197:N199"/>
-    <mergeCell ref="Q203:Q205"/>
-    <mergeCell ref="R203:R205"/>
-    <mergeCell ref="S203:S205"/>
-    <mergeCell ref="T203:T205"/>
-    <mergeCell ref="U203:U205"/>
-    <mergeCell ref="V203:V205"/>
-    <mergeCell ref="K203:K205"/>
-    <mergeCell ref="L203:L205"/>
-    <mergeCell ref="M203:M205"/>
-    <mergeCell ref="N203:N205"/>
-    <mergeCell ref="O203:O205"/>
-    <mergeCell ref="P203:P205"/>
-    <mergeCell ref="V200:V202"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="D203:D205"/>
-    <mergeCell ref="E203:E205"/>
-    <mergeCell ref="F203:F205"/>
-    <mergeCell ref="G203:G205"/>
-    <mergeCell ref="H203:H205"/>
-    <mergeCell ref="I203:I205"/>
-    <mergeCell ref="J203:J205"/>
-    <mergeCell ref="P200:P202"/>
-    <mergeCell ref="Q200:Q202"/>
-    <mergeCell ref="R200:R202"/>
-    <mergeCell ref="S200:S202"/>
-    <mergeCell ref="T200:T202"/>
-    <mergeCell ref="U200:U202"/>
-    <mergeCell ref="J200:J202"/>
-    <mergeCell ref="K200:K202"/>
-    <mergeCell ref="L200:L202"/>
-    <mergeCell ref="M200:M202"/>
-    <mergeCell ref="T206:T208"/>
-    <mergeCell ref="U206:U208"/>
-    <mergeCell ref="V206:V208"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="D209:D211"/>
-    <mergeCell ref="E209:E211"/>
-    <mergeCell ref="F209:F211"/>
-    <mergeCell ref="G209:G211"/>
-    <mergeCell ref="H209:H211"/>
-    <mergeCell ref="N206:N208"/>
-    <mergeCell ref="O206:O208"/>
-    <mergeCell ref="P206:P208"/>
-    <mergeCell ref="Q206:Q208"/>
-    <mergeCell ref="R206:R208"/>
-    <mergeCell ref="S206:S208"/>
-    <mergeCell ref="H206:H208"/>
-    <mergeCell ref="I206:I208"/>
-    <mergeCell ref="J206:J208"/>
-    <mergeCell ref="K206:K208"/>
-    <mergeCell ref="L206:L208"/>
-    <mergeCell ref="M206:M208"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="D206:D208"/>
-    <mergeCell ref="E206:E208"/>
-    <mergeCell ref="F206:F208"/>
-    <mergeCell ref="G206:G208"/>
-    <mergeCell ref="N212:N214"/>
-    <mergeCell ref="O212:O214"/>
-    <mergeCell ref="U209:U211"/>
-    <mergeCell ref="V209:V211"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="D212:D214"/>
-    <mergeCell ref="E212:E214"/>
-    <mergeCell ref="F212:F214"/>
-    <mergeCell ref="G212:G214"/>
-    <mergeCell ref="H212:H214"/>
-    <mergeCell ref="I212:I214"/>
-    <mergeCell ref="O209:O211"/>
-    <mergeCell ref="P209:P211"/>
-    <mergeCell ref="Q209:Q211"/>
-    <mergeCell ref="R209:R211"/>
-    <mergeCell ref="S209:S211"/>
-    <mergeCell ref="T209:T211"/>
-    <mergeCell ref="I209:I211"/>
-    <mergeCell ref="J209:J211"/>
-    <mergeCell ref="K209:K211"/>
-    <mergeCell ref="L209:L211"/>
-    <mergeCell ref="M209:M211"/>
-    <mergeCell ref="N209:N211"/>
-    <mergeCell ref="Q215:Q217"/>
-    <mergeCell ref="R215:R217"/>
-    <mergeCell ref="S215:S217"/>
-    <mergeCell ref="T215:T217"/>
-    <mergeCell ref="U215:U217"/>
-    <mergeCell ref="V215:V217"/>
-    <mergeCell ref="K215:K217"/>
-    <mergeCell ref="L215:L217"/>
-    <mergeCell ref="M215:M217"/>
-    <mergeCell ref="N215:N217"/>
-    <mergeCell ref="O215:O217"/>
-    <mergeCell ref="P215:P217"/>
-    <mergeCell ref="V212:V214"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="D215:D217"/>
-    <mergeCell ref="E215:E217"/>
-    <mergeCell ref="F215:F217"/>
-    <mergeCell ref="G215:G217"/>
-    <mergeCell ref="H215:H217"/>
-    <mergeCell ref="I215:I217"/>
-    <mergeCell ref="J215:J217"/>
-    <mergeCell ref="P212:P214"/>
-    <mergeCell ref="Q212:Q214"/>
-    <mergeCell ref="R212:R214"/>
-    <mergeCell ref="S212:S214"/>
-    <mergeCell ref="T212:T214"/>
-    <mergeCell ref="U212:U214"/>
-    <mergeCell ref="J212:J214"/>
-    <mergeCell ref="K212:K214"/>
-    <mergeCell ref="L212:L214"/>
-    <mergeCell ref="M212:M214"/>
-    <mergeCell ref="T218:T220"/>
-    <mergeCell ref="U218:U220"/>
-    <mergeCell ref="V218:V220"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="D221:D223"/>
-    <mergeCell ref="E221:E223"/>
-    <mergeCell ref="F221:F223"/>
-    <mergeCell ref="G221:G223"/>
-    <mergeCell ref="H221:H223"/>
-    <mergeCell ref="N218:N220"/>
-    <mergeCell ref="O218:O220"/>
-    <mergeCell ref="P218:P220"/>
-    <mergeCell ref="Q218:Q220"/>
-    <mergeCell ref="R218:R220"/>
-    <mergeCell ref="S218:S220"/>
-    <mergeCell ref="H218:H220"/>
-    <mergeCell ref="I218:I220"/>
-    <mergeCell ref="J218:J220"/>
-    <mergeCell ref="K218:K220"/>
-    <mergeCell ref="L218:L220"/>
-    <mergeCell ref="M218:M220"/>
-    <mergeCell ref="B218:B220"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="D218:D220"/>
-    <mergeCell ref="E218:E220"/>
-    <mergeCell ref="F218:F220"/>
-    <mergeCell ref="G218:G220"/>
-    <mergeCell ref="N224:N226"/>
-    <mergeCell ref="O224:O226"/>
-    <mergeCell ref="U221:U223"/>
-    <mergeCell ref="V221:V223"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="D224:D226"/>
-    <mergeCell ref="E224:E226"/>
-    <mergeCell ref="F224:F226"/>
-    <mergeCell ref="G224:G226"/>
-    <mergeCell ref="H224:H226"/>
-    <mergeCell ref="I224:I226"/>
-    <mergeCell ref="O221:O223"/>
-    <mergeCell ref="P221:P223"/>
-    <mergeCell ref="Q221:Q223"/>
-    <mergeCell ref="R221:R223"/>
-    <mergeCell ref="S221:S223"/>
-    <mergeCell ref="T221:T223"/>
-    <mergeCell ref="I221:I223"/>
-    <mergeCell ref="J221:J223"/>
-    <mergeCell ref="K221:K223"/>
-    <mergeCell ref="L221:L223"/>
-    <mergeCell ref="M221:M223"/>
-    <mergeCell ref="N221:N223"/>
-    <mergeCell ref="Q227:Q229"/>
-    <mergeCell ref="R227:R229"/>
-    <mergeCell ref="S227:S229"/>
-    <mergeCell ref="T227:T229"/>
-    <mergeCell ref="U227:U229"/>
-    <mergeCell ref="V227:V229"/>
-    <mergeCell ref="K227:K229"/>
-    <mergeCell ref="L227:L229"/>
-    <mergeCell ref="M227:M229"/>
-    <mergeCell ref="N227:N229"/>
-    <mergeCell ref="O227:O229"/>
-    <mergeCell ref="P227:P229"/>
-    <mergeCell ref="V224:V226"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="D227:D229"/>
-    <mergeCell ref="E227:E229"/>
-    <mergeCell ref="F227:F229"/>
-    <mergeCell ref="G227:G229"/>
-    <mergeCell ref="H227:H229"/>
-    <mergeCell ref="I227:I229"/>
-    <mergeCell ref="J227:J229"/>
-    <mergeCell ref="P224:P226"/>
-    <mergeCell ref="Q224:Q226"/>
-    <mergeCell ref="R224:R226"/>
-    <mergeCell ref="S224:S226"/>
-    <mergeCell ref="T224:T226"/>
-    <mergeCell ref="U224:U226"/>
-    <mergeCell ref="J224:J226"/>
-    <mergeCell ref="K224:K226"/>
-    <mergeCell ref="L224:L226"/>
-    <mergeCell ref="M224:M226"/>
-    <mergeCell ref="T230:T232"/>
-    <mergeCell ref="U230:U232"/>
-    <mergeCell ref="V230:V232"/>
-    <mergeCell ref="B233:B235"/>
-    <mergeCell ref="C233:C235"/>
-    <mergeCell ref="D233:D235"/>
-    <mergeCell ref="E233:E235"/>
-    <mergeCell ref="F233:F235"/>
-    <mergeCell ref="G233:G235"/>
-    <mergeCell ref="H233:H235"/>
-    <mergeCell ref="N230:N232"/>
-    <mergeCell ref="O230:O232"/>
-    <mergeCell ref="P230:P232"/>
-    <mergeCell ref="Q230:Q232"/>
-    <mergeCell ref="R230:R232"/>
-    <mergeCell ref="S230:S232"/>
-    <mergeCell ref="H230:H232"/>
-    <mergeCell ref="I230:I232"/>
-    <mergeCell ref="J230:J232"/>
-    <mergeCell ref="K230:K232"/>
-    <mergeCell ref="L230:L232"/>
-    <mergeCell ref="M230:M232"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="D230:D232"/>
-    <mergeCell ref="E230:E232"/>
-    <mergeCell ref="F230:F232"/>
-    <mergeCell ref="G230:G232"/>
-    <mergeCell ref="N236:N238"/>
-    <mergeCell ref="O236:O238"/>
-    <mergeCell ref="U233:U235"/>
-    <mergeCell ref="V233:V235"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="D236:D238"/>
-    <mergeCell ref="E236:E238"/>
-    <mergeCell ref="F236:F238"/>
-    <mergeCell ref="G236:G238"/>
-    <mergeCell ref="H236:H238"/>
-    <mergeCell ref="I236:I238"/>
-    <mergeCell ref="O233:O235"/>
-    <mergeCell ref="P233:P235"/>
-    <mergeCell ref="Q233:Q235"/>
-    <mergeCell ref="R233:R235"/>
-    <mergeCell ref="S233:S235"/>
-    <mergeCell ref="T233:T235"/>
-    <mergeCell ref="I233:I235"/>
-    <mergeCell ref="J233:J235"/>
-    <mergeCell ref="K233:K235"/>
-    <mergeCell ref="L233:L235"/>
-    <mergeCell ref="M233:M235"/>
-    <mergeCell ref="N233:N235"/>
-    <mergeCell ref="Q239:Q241"/>
-    <mergeCell ref="R239:R241"/>
-    <mergeCell ref="S239:S241"/>
-    <mergeCell ref="T239:T241"/>
-    <mergeCell ref="U239:U241"/>
-    <mergeCell ref="V239:V241"/>
-    <mergeCell ref="K239:K241"/>
-    <mergeCell ref="L239:L241"/>
-    <mergeCell ref="M239:M241"/>
-    <mergeCell ref="N239:N241"/>
-    <mergeCell ref="O239:O241"/>
-    <mergeCell ref="P239:P241"/>
-    <mergeCell ref="V236:V238"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="F239:F241"/>
-    <mergeCell ref="G239:G241"/>
-    <mergeCell ref="H239:H241"/>
-    <mergeCell ref="I239:I241"/>
-    <mergeCell ref="J239:J241"/>
-    <mergeCell ref="P236:P238"/>
-    <mergeCell ref="Q236:Q238"/>
-    <mergeCell ref="R236:R238"/>
-    <mergeCell ref="S236:S238"/>
-    <mergeCell ref="T236:T238"/>
-    <mergeCell ref="U236:U238"/>
-    <mergeCell ref="J236:J238"/>
-    <mergeCell ref="K236:K238"/>
-    <mergeCell ref="L236:L238"/>
-    <mergeCell ref="M236:M238"/>
-    <mergeCell ref="T242:T244"/>
-    <mergeCell ref="U242:U244"/>
-    <mergeCell ref="V242:V244"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="C245:C247"/>
-    <mergeCell ref="D245:D247"/>
-    <mergeCell ref="E245:E247"/>
-    <mergeCell ref="F245:F247"/>
-    <mergeCell ref="G245:G247"/>
-    <mergeCell ref="H245:H247"/>
-    <mergeCell ref="N242:N244"/>
-    <mergeCell ref="O242:O244"/>
-    <mergeCell ref="P242:P244"/>
-    <mergeCell ref="Q242:Q244"/>
-    <mergeCell ref="R242:R244"/>
-    <mergeCell ref="S242:S244"/>
-    <mergeCell ref="H242:H244"/>
-    <mergeCell ref="I242:I244"/>
-    <mergeCell ref="J242:J244"/>
-    <mergeCell ref="K242:K244"/>
-    <mergeCell ref="L242:L244"/>
-    <mergeCell ref="M242:M244"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="D242:D244"/>
-    <mergeCell ref="E242:E244"/>
-    <mergeCell ref="F242:F244"/>
-    <mergeCell ref="G242:G244"/>
-    <mergeCell ref="N248:N250"/>
-    <mergeCell ref="O248:O250"/>
-    <mergeCell ref="U245:U247"/>
-    <mergeCell ref="V245:V247"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="C248:C250"/>
-    <mergeCell ref="D248:D250"/>
-    <mergeCell ref="E248:E250"/>
-    <mergeCell ref="F248:F250"/>
-    <mergeCell ref="G248:G250"/>
-    <mergeCell ref="H248:H250"/>
-    <mergeCell ref="I248:I250"/>
-    <mergeCell ref="O245:O247"/>
-    <mergeCell ref="P245:P247"/>
-    <mergeCell ref="Q245:Q247"/>
-    <mergeCell ref="R245:R247"/>
-    <mergeCell ref="S245:S247"/>
-    <mergeCell ref="T245:T247"/>
-    <mergeCell ref="I245:I247"/>
-    <mergeCell ref="J245:J247"/>
-    <mergeCell ref="K245:K247"/>
-    <mergeCell ref="L245:L247"/>
-    <mergeCell ref="M245:M247"/>
-    <mergeCell ref="N245:N247"/>
-    <mergeCell ref="Q251:Q253"/>
-    <mergeCell ref="R251:R253"/>
-    <mergeCell ref="S251:S253"/>
-    <mergeCell ref="T251:T253"/>
-    <mergeCell ref="U251:U253"/>
-    <mergeCell ref="V251:V253"/>
-    <mergeCell ref="K251:K253"/>
-    <mergeCell ref="L251:L253"/>
-    <mergeCell ref="M251:M253"/>
-    <mergeCell ref="N251:N253"/>
-    <mergeCell ref="O251:O253"/>
-    <mergeCell ref="P251:P253"/>
-    <mergeCell ref="V248:V250"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="F251:F253"/>
-    <mergeCell ref="G251:G253"/>
-    <mergeCell ref="H251:H253"/>
-    <mergeCell ref="I251:I253"/>
-    <mergeCell ref="J251:J253"/>
-    <mergeCell ref="P248:P250"/>
-    <mergeCell ref="Q248:Q250"/>
-    <mergeCell ref="R248:R250"/>
-    <mergeCell ref="S248:S250"/>
-    <mergeCell ref="T248:T250"/>
-    <mergeCell ref="U248:U250"/>
-    <mergeCell ref="J248:J250"/>
-    <mergeCell ref="K248:K250"/>
-    <mergeCell ref="L248:L250"/>
-    <mergeCell ref="M248:M250"/>
-    <mergeCell ref="T254:T256"/>
-    <mergeCell ref="U254:U256"/>
-    <mergeCell ref="V254:V256"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="D257:D259"/>
-    <mergeCell ref="E257:E259"/>
-    <mergeCell ref="F257:F259"/>
-    <mergeCell ref="G257:G259"/>
-    <mergeCell ref="H257:H259"/>
-    <mergeCell ref="N254:N256"/>
-    <mergeCell ref="O254:O256"/>
-    <mergeCell ref="P254:P256"/>
-    <mergeCell ref="Q254:Q256"/>
-    <mergeCell ref="R254:R256"/>
-    <mergeCell ref="S254:S256"/>
-    <mergeCell ref="H254:H256"/>
-    <mergeCell ref="I254:I256"/>
-    <mergeCell ref="J254:J256"/>
-    <mergeCell ref="K254:K256"/>
-    <mergeCell ref="L254:L256"/>
-    <mergeCell ref="M254:M256"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="C254:C256"/>
-    <mergeCell ref="D254:D256"/>
-    <mergeCell ref="E254:E256"/>
-    <mergeCell ref="F254:F256"/>
-    <mergeCell ref="G254:G256"/>
-    <mergeCell ref="N260:N262"/>
-    <mergeCell ref="O260:O262"/>
-    <mergeCell ref="U257:U259"/>
-    <mergeCell ref="V257:V259"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="D260:D262"/>
-    <mergeCell ref="E260:E262"/>
-    <mergeCell ref="F260:F262"/>
-    <mergeCell ref="G260:G262"/>
-    <mergeCell ref="H260:H262"/>
-    <mergeCell ref="I260:I262"/>
-    <mergeCell ref="O257:O259"/>
-    <mergeCell ref="P257:P259"/>
-    <mergeCell ref="Q257:Q259"/>
-    <mergeCell ref="R257:R259"/>
-    <mergeCell ref="S257:S259"/>
-    <mergeCell ref="T257:T259"/>
-    <mergeCell ref="I257:I259"/>
-    <mergeCell ref="J257:J259"/>
-    <mergeCell ref="K257:K259"/>
-    <mergeCell ref="L257:L259"/>
-    <mergeCell ref="M257:M259"/>
-    <mergeCell ref="N257:N259"/>
-    <mergeCell ref="Q263:Q265"/>
-    <mergeCell ref="R263:R265"/>
-    <mergeCell ref="S263:S265"/>
-    <mergeCell ref="T263:T265"/>
-    <mergeCell ref="U263:U265"/>
-    <mergeCell ref="V263:V265"/>
-    <mergeCell ref="K263:K265"/>
-    <mergeCell ref="L263:L265"/>
-    <mergeCell ref="M263:M265"/>
-    <mergeCell ref="N263:N265"/>
-    <mergeCell ref="O263:O265"/>
-    <mergeCell ref="P263:P265"/>
-    <mergeCell ref="V260:V262"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="D263:D265"/>
-    <mergeCell ref="E263:E265"/>
-    <mergeCell ref="F263:F265"/>
-    <mergeCell ref="G263:G265"/>
-    <mergeCell ref="H263:H265"/>
-    <mergeCell ref="I263:I265"/>
-    <mergeCell ref="J263:J265"/>
-    <mergeCell ref="P260:P262"/>
-    <mergeCell ref="Q260:Q262"/>
-    <mergeCell ref="R260:R262"/>
-    <mergeCell ref="S260:S262"/>
-    <mergeCell ref="T260:T262"/>
-    <mergeCell ref="U260:U262"/>
-    <mergeCell ref="J260:J262"/>
-    <mergeCell ref="K260:K262"/>
-    <mergeCell ref="L260:L262"/>
-    <mergeCell ref="M260:M262"/>
-    <mergeCell ref="T266:T268"/>
-    <mergeCell ref="U266:U268"/>
-    <mergeCell ref="V266:V268"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="D269:D271"/>
-    <mergeCell ref="E269:E271"/>
-    <mergeCell ref="F269:F271"/>
-    <mergeCell ref="G269:G271"/>
-    <mergeCell ref="H269:H271"/>
-    <mergeCell ref="N266:N268"/>
-    <mergeCell ref="O266:O268"/>
-    <mergeCell ref="P266:P268"/>
-    <mergeCell ref="Q266:Q268"/>
-    <mergeCell ref="R266:R268"/>
-    <mergeCell ref="S266:S268"/>
-    <mergeCell ref="H266:H268"/>
-    <mergeCell ref="I266:I268"/>
-    <mergeCell ref="J266:J268"/>
-    <mergeCell ref="K266:K268"/>
-    <mergeCell ref="L266:L268"/>
-    <mergeCell ref="M266:M268"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="D266:D268"/>
-    <mergeCell ref="E266:E268"/>
-    <mergeCell ref="F266:F268"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="N272:N274"/>
-    <mergeCell ref="O272:O274"/>
-    <mergeCell ref="U269:U271"/>
-    <mergeCell ref="V269:V271"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="D272:D274"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="F272:F274"/>
-    <mergeCell ref="G272:G274"/>
-    <mergeCell ref="H272:H274"/>
-    <mergeCell ref="I272:I274"/>
-    <mergeCell ref="O269:O271"/>
-    <mergeCell ref="P269:P271"/>
-    <mergeCell ref="Q269:Q271"/>
-    <mergeCell ref="R269:R271"/>
-    <mergeCell ref="S269:S271"/>
-    <mergeCell ref="T269:T271"/>
-    <mergeCell ref="I269:I271"/>
-    <mergeCell ref="J269:J271"/>
-    <mergeCell ref="K269:K271"/>
-    <mergeCell ref="L269:L271"/>
-    <mergeCell ref="M269:M271"/>
-    <mergeCell ref="N269:N271"/>
-    <mergeCell ref="Q275:Q277"/>
-    <mergeCell ref="R275:R277"/>
-    <mergeCell ref="S275:S277"/>
-    <mergeCell ref="T275:T277"/>
-    <mergeCell ref="U275:U277"/>
-    <mergeCell ref="V275:V277"/>
-    <mergeCell ref="K275:K277"/>
-    <mergeCell ref="L275:L277"/>
-    <mergeCell ref="M275:M277"/>
-    <mergeCell ref="N275:N277"/>
-    <mergeCell ref="O275:O277"/>
-    <mergeCell ref="P275:P277"/>
-    <mergeCell ref="V272:V274"/>
-    <mergeCell ref="B275:B277"/>
-    <mergeCell ref="C275:C277"/>
-    <mergeCell ref="D275:D277"/>
-    <mergeCell ref="E275:E277"/>
-    <mergeCell ref="F275:F277"/>
-    <mergeCell ref="G275:G277"/>
-    <mergeCell ref="H275:H277"/>
-    <mergeCell ref="I275:I277"/>
-    <mergeCell ref="J275:J277"/>
-    <mergeCell ref="P272:P274"/>
-    <mergeCell ref="Q272:Q274"/>
-    <mergeCell ref="R272:R274"/>
-    <mergeCell ref="S272:S274"/>
-    <mergeCell ref="T272:T274"/>
-    <mergeCell ref="U272:U274"/>
-    <mergeCell ref="J272:J274"/>
-    <mergeCell ref="K272:K274"/>
-    <mergeCell ref="L272:L274"/>
-    <mergeCell ref="M272:M274"/>
-    <mergeCell ref="T278:T280"/>
-    <mergeCell ref="U278:U280"/>
-    <mergeCell ref="V278:V280"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="D281:D283"/>
-    <mergeCell ref="E281:E283"/>
-    <mergeCell ref="F281:F283"/>
-    <mergeCell ref="G281:G283"/>
-    <mergeCell ref="H281:H283"/>
-    <mergeCell ref="N278:N280"/>
-    <mergeCell ref="O278:O280"/>
-    <mergeCell ref="P278:P280"/>
-    <mergeCell ref="Q278:Q280"/>
-    <mergeCell ref="R278:R280"/>
-    <mergeCell ref="S278:S280"/>
-    <mergeCell ref="H278:H280"/>
-    <mergeCell ref="I278:I280"/>
-    <mergeCell ref="J278:J280"/>
-    <mergeCell ref="K278:K280"/>
-    <mergeCell ref="L278:L280"/>
-    <mergeCell ref="M278:M280"/>
-    <mergeCell ref="B278:B280"/>
-    <mergeCell ref="C278:C280"/>
-    <mergeCell ref="D278:D280"/>
-    <mergeCell ref="E278:E280"/>
-    <mergeCell ref="F278:F280"/>
-    <mergeCell ref="G278:G280"/>
-    <mergeCell ref="N284:N286"/>
-    <mergeCell ref="O284:O286"/>
-    <mergeCell ref="U281:U283"/>
-    <mergeCell ref="V281:V283"/>
-    <mergeCell ref="B284:B286"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="D284:D286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="F284:F286"/>
-    <mergeCell ref="G284:G286"/>
-    <mergeCell ref="H284:H286"/>
-    <mergeCell ref="I284:I286"/>
-    <mergeCell ref="O281:O283"/>
-    <mergeCell ref="P281:P283"/>
-    <mergeCell ref="Q281:Q283"/>
-    <mergeCell ref="R281:R283"/>
-    <mergeCell ref="S281:S283"/>
-    <mergeCell ref="T281:T283"/>
-    <mergeCell ref="I281:I283"/>
-    <mergeCell ref="J281:J283"/>
-    <mergeCell ref="K281:K283"/>
-    <mergeCell ref="L281:L283"/>
-    <mergeCell ref="M281:M283"/>
-    <mergeCell ref="N281:N283"/>
-    <mergeCell ref="Q287:Q289"/>
-    <mergeCell ref="R287:R289"/>
-    <mergeCell ref="S287:S289"/>
-    <mergeCell ref="T287:T289"/>
-    <mergeCell ref="U287:U289"/>
-    <mergeCell ref="V287:V289"/>
-    <mergeCell ref="K287:K289"/>
-    <mergeCell ref="L287:L289"/>
-    <mergeCell ref="M287:M289"/>
-    <mergeCell ref="N287:N289"/>
-    <mergeCell ref="O287:O289"/>
-    <mergeCell ref="P287:P289"/>
-    <mergeCell ref="V284:V286"/>
-    <mergeCell ref="B287:B289"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="E287:E289"/>
-    <mergeCell ref="F287:F289"/>
-    <mergeCell ref="G287:G289"/>
-    <mergeCell ref="H287:H289"/>
-    <mergeCell ref="I287:I289"/>
-    <mergeCell ref="J287:J289"/>
-    <mergeCell ref="P284:P286"/>
-    <mergeCell ref="Q284:Q286"/>
-    <mergeCell ref="R284:R286"/>
-    <mergeCell ref="S284:S286"/>
-    <mergeCell ref="T284:T286"/>
-    <mergeCell ref="U284:U286"/>
-    <mergeCell ref="J284:J286"/>
-    <mergeCell ref="K284:K286"/>
-    <mergeCell ref="L284:L286"/>
-    <mergeCell ref="M284:M286"/>
-    <mergeCell ref="T290:T292"/>
-    <mergeCell ref="U290:U292"/>
-    <mergeCell ref="V290:V292"/>
-    <mergeCell ref="B293:B295"/>
-    <mergeCell ref="C293:C295"/>
-    <mergeCell ref="D293:D295"/>
-    <mergeCell ref="E293:E295"/>
-    <mergeCell ref="F293:F295"/>
-    <mergeCell ref="G293:G295"/>
-    <mergeCell ref="H293:H295"/>
-    <mergeCell ref="N290:N292"/>
-    <mergeCell ref="O290:O292"/>
-    <mergeCell ref="P290:P292"/>
-    <mergeCell ref="Q290:Q292"/>
-    <mergeCell ref="R290:R292"/>
-    <mergeCell ref="S290:S292"/>
-    <mergeCell ref="H290:H292"/>
-    <mergeCell ref="I290:I292"/>
-    <mergeCell ref="J290:J292"/>
-    <mergeCell ref="K290:K292"/>
-    <mergeCell ref="L290:L292"/>
-    <mergeCell ref="M290:M292"/>
-    <mergeCell ref="B290:B292"/>
-    <mergeCell ref="C290:C292"/>
-    <mergeCell ref="D290:D292"/>
-    <mergeCell ref="E290:E292"/>
-    <mergeCell ref="F290:F292"/>
-    <mergeCell ref="G290:G292"/>
-    <mergeCell ref="N296:N298"/>
-    <mergeCell ref="O296:O298"/>
-    <mergeCell ref="U293:U295"/>
-    <mergeCell ref="V293:V295"/>
-    <mergeCell ref="B296:B298"/>
-    <mergeCell ref="C296:C298"/>
-    <mergeCell ref="D296:D298"/>
-    <mergeCell ref="E296:E298"/>
-    <mergeCell ref="F296:F298"/>
-    <mergeCell ref="G296:G298"/>
-    <mergeCell ref="H296:H298"/>
-    <mergeCell ref="I296:I298"/>
-    <mergeCell ref="O293:O295"/>
-    <mergeCell ref="P293:P295"/>
-    <mergeCell ref="Q293:Q295"/>
-    <mergeCell ref="R293:R295"/>
-    <mergeCell ref="S293:S295"/>
-    <mergeCell ref="T293:T295"/>
-    <mergeCell ref="I293:I295"/>
-    <mergeCell ref="J293:J295"/>
-    <mergeCell ref="K293:K295"/>
-    <mergeCell ref="L293:L295"/>
-    <mergeCell ref="M293:M295"/>
-    <mergeCell ref="N293:N295"/>
-    <mergeCell ref="Q299:Q301"/>
-    <mergeCell ref="R299:R301"/>
-    <mergeCell ref="S299:S301"/>
-    <mergeCell ref="T299:T301"/>
-    <mergeCell ref="U299:U301"/>
-    <mergeCell ref="V299:V301"/>
-    <mergeCell ref="K299:K301"/>
-    <mergeCell ref="L299:L301"/>
-    <mergeCell ref="M299:M301"/>
-    <mergeCell ref="N299:N301"/>
-    <mergeCell ref="O299:O301"/>
-    <mergeCell ref="P299:P301"/>
-    <mergeCell ref="V296:V298"/>
-    <mergeCell ref="B299:B301"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="D299:D301"/>
-    <mergeCell ref="E299:E301"/>
-    <mergeCell ref="F299:F301"/>
-    <mergeCell ref="G299:G301"/>
-    <mergeCell ref="H299:H301"/>
-    <mergeCell ref="I299:I301"/>
-    <mergeCell ref="J299:J301"/>
-    <mergeCell ref="P296:P298"/>
-    <mergeCell ref="Q296:Q298"/>
-    <mergeCell ref="R296:R298"/>
-    <mergeCell ref="S296:S298"/>
-    <mergeCell ref="T296:T298"/>
-    <mergeCell ref="U296:U298"/>
-    <mergeCell ref="J296:J298"/>
-    <mergeCell ref="K296:K298"/>
-    <mergeCell ref="L296:L298"/>
-    <mergeCell ref="M296:M298"/>
-    <mergeCell ref="T302:T304"/>
-    <mergeCell ref="U302:U304"/>
-    <mergeCell ref="V302:V304"/>
-    <mergeCell ref="B305:B307"/>
-    <mergeCell ref="C305:C307"/>
-    <mergeCell ref="D305:D307"/>
-    <mergeCell ref="E305:E307"/>
-    <mergeCell ref="F305:F307"/>
-    <mergeCell ref="G305:G307"/>
-    <mergeCell ref="H305:H307"/>
-    <mergeCell ref="N302:N304"/>
-    <mergeCell ref="O302:O304"/>
-    <mergeCell ref="P302:P304"/>
-    <mergeCell ref="Q302:Q304"/>
-    <mergeCell ref="R302:R304"/>
-    <mergeCell ref="S302:S304"/>
-    <mergeCell ref="H302:H304"/>
-    <mergeCell ref="I302:I304"/>
-    <mergeCell ref="J302:J304"/>
-    <mergeCell ref="K302:K304"/>
-    <mergeCell ref="L302:L304"/>
-    <mergeCell ref="M302:M304"/>
-    <mergeCell ref="B302:B304"/>
-    <mergeCell ref="C302:C304"/>
-    <mergeCell ref="D302:D304"/>
-    <mergeCell ref="E302:E304"/>
-    <mergeCell ref="F302:F304"/>
-    <mergeCell ref="G302:G304"/>
-    <mergeCell ref="N308:N310"/>
-    <mergeCell ref="O308:O310"/>
-    <mergeCell ref="U305:U307"/>
-    <mergeCell ref="V305:V307"/>
-    <mergeCell ref="B308:B310"/>
-    <mergeCell ref="C308:C310"/>
-    <mergeCell ref="D308:D310"/>
-    <mergeCell ref="E308:E310"/>
-    <mergeCell ref="F308:F310"/>
-    <mergeCell ref="G308:G310"/>
-    <mergeCell ref="H308:H310"/>
-    <mergeCell ref="I308:I310"/>
-    <mergeCell ref="O305:O307"/>
-    <mergeCell ref="P305:P307"/>
-    <mergeCell ref="Q305:Q307"/>
-    <mergeCell ref="R305:R307"/>
-    <mergeCell ref="S305:S307"/>
-    <mergeCell ref="T305:T307"/>
-    <mergeCell ref="I305:I307"/>
-    <mergeCell ref="J305:J307"/>
-    <mergeCell ref="K305:K307"/>
-    <mergeCell ref="L305:L307"/>
-    <mergeCell ref="M305:M307"/>
-    <mergeCell ref="N305:N307"/>
-    <mergeCell ref="Q311:Q313"/>
-    <mergeCell ref="R311:R313"/>
-    <mergeCell ref="S311:S313"/>
-    <mergeCell ref="T311:T313"/>
-    <mergeCell ref="U311:U313"/>
-    <mergeCell ref="V311:V313"/>
-    <mergeCell ref="K311:K313"/>
-    <mergeCell ref="L311:L313"/>
-    <mergeCell ref="M311:M313"/>
-    <mergeCell ref="N311:N313"/>
-    <mergeCell ref="O311:O313"/>
-    <mergeCell ref="P311:P313"/>
-    <mergeCell ref="V308:V310"/>
-    <mergeCell ref="B311:B313"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="D311:D313"/>
-    <mergeCell ref="E311:E313"/>
-    <mergeCell ref="F311:F313"/>
-    <mergeCell ref="G311:G313"/>
-    <mergeCell ref="H311:H313"/>
-    <mergeCell ref="I311:I313"/>
-    <mergeCell ref="J311:J313"/>
-    <mergeCell ref="P308:P310"/>
-    <mergeCell ref="Q308:Q310"/>
-    <mergeCell ref="R308:R310"/>
-    <mergeCell ref="S308:S310"/>
-    <mergeCell ref="T308:T310"/>
-    <mergeCell ref="U308:U310"/>
-    <mergeCell ref="J308:J310"/>
-    <mergeCell ref="K308:K310"/>
-    <mergeCell ref="L308:L310"/>
-    <mergeCell ref="M308:M310"/>
-    <mergeCell ref="T314:T316"/>
-    <mergeCell ref="U314:U316"/>
-    <mergeCell ref="V314:V316"/>
-    <mergeCell ref="B317:B319"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="D317:D319"/>
-    <mergeCell ref="E317:E319"/>
-    <mergeCell ref="F317:F319"/>
-    <mergeCell ref="G317:G319"/>
-    <mergeCell ref="H317:H319"/>
-    <mergeCell ref="N314:N316"/>
-    <mergeCell ref="O314:O316"/>
-    <mergeCell ref="P314:P316"/>
-    <mergeCell ref="Q314:Q316"/>
-    <mergeCell ref="R314:R316"/>
-    <mergeCell ref="S314:S316"/>
-    <mergeCell ref="H314:H316"/>
-    <mergeCell ref="I314:I316"/>
-    <mergeCell ref="J314:J316"/>
-    <mergeCell ref="K314:K316"/>
-    <mergeCell ref="L314:L316"/>
-    <mergeCell ref="M314:M316"/>
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="D314:D316"/>
-    <mergeCell ref="E314:E316"/>
-    <mergeCell ref="F314:F316"/>
-    <mergeCell ref="G314:G316"/>
-    <mergeCell ref="N320:N322"/>
-    <mergeCell ref="O320:O322"/>
-    <mergeCell ref="U317:U319"/>
-    <mergeCell ref="V317:V319"/>
-    <mergeCell ref="B320:B322"/>
-    <mergeCell ref="C320:C322"/>
-    <mergeCell ref="D320:D322"/>
-    <mergeCell ref="E320:E322"/>
-    <mergeCell ref="F320:F322"/>
-    <mergeCell ref="G320:G322"/>
-    <mergeCell ref="H320:H322"/>
-    <mergeCell ref="I320:I322"/>
-    <mergeCell ref="O317:O319"/>
-    <mergeCell ref="P317:P319"/>
-    <mergeCell ref="Q317:Q319"/>
-    <mergeCell ref="R317:R319"/>
-    <mergeCell ref="S317:S319"/>
-    <mergeCell ref="T317:T319"/>
-    <mergeCell ref="I317:I319"/>
-    <mergeCell ref="J317:J319"/>
-    <mergeCell ref="K317:K319"/>
-    <mergeCell ref="L317:L319"/>
-    <mergeCell ref="M317:M319"/>
-    <mergeCell ref="N317:N319"/>
-    <mergeCell ref="Q323:Q325"/>
-    <mergeCell ref="R323:R325"/>
-    <mergeCell ref="S323:S325"/>
-    <mergeCell ref="T323:T325"/>
-    <mergeCell ref="U323:U325"/>
-    <mergeCell ref="V323:V325"/>
-    <mergeCell ref="K323:K325"/>
-    <mergeCell ref="L323:L325"/>
-    <mergeCell ref="M323:M325"/>
-    <mergeCell ref="N323:N325"/>
-    <mergeCell ref="O323:O325"/>
-    <mergeCell ref="P323:P325"/>
-    <mergeCell ref="V320:V322"/>
-    <mergeCell ref="B323:B325"/>
-    <mergeCell ref="C323:C325"/>
-    <mergeCell ref="D323:D325"/>
-    <mergeCell ref="E323:E325"/>
-    <mergeCell ref="F323:F325"/>
-    <mergeCell ref="G323:G325"/>
-    <mergeCell ref="H323:H325"/>
-    <mergeCell ref="I323:I325"/>
-    <mergeCell ref="J323:J325"/>
-    <mergeCell ref="P320:P322"/>
-    <mergeCell ref="Q320:Q322"/>
-    <mergeCell ref="R320:R322"/>
-    <mergeCell ref="S320:S322"/>
-    <mergeCell ref="T320:T322"/>
-    <mergeCell ref="U320:U322"/>
-    <mergeCell ref="J320:J322"/>
-    <mergeCell ref="K320:K322"/>
-    <mergeCell ref="L320:L322"/>
-    <mergeCell ref="M320:M322"/>
-    <mergeCell ref="T326:T328"/>
-    <mergeCell ref="U326:U328"/>
-    <mergeCell ref="V326:V328"/>
-    <mergeCell ref="B329:B331"/>
-    <mergeCell ref="C329:C331"/>
-    <mergeCell ref="D329:D331"/>
-    <mergeCell ref="E329:E331"/>
-    <mergeCell ref="F329:F331"/>
-    <mergeCell ref="G329:G331"/>
-    <mergeCell ref="H329:H331"/>
-    <mergeCell ref="N326:N328"/>
-    <mergeCell ref="O326:O328"/>
-    <mergeCell ref="P326:P328"/>
-    <mergeCell ref="Q326:Q328"/>
-    <mergeCell ref="R326:R328"/>
-    <mergeCell ref="S326:S328"/>
-    <mergeCell ref="H326:H328"/>
-    <mergeCell ref="I326:I328"/>
-    <mergeCell ref="J326:J328"/>
-    <mergeCell ref="K326:K328"/>
-    <mergeCell ref="L326:L328"/>
-    <mergeCell ref="M326:M328"/>
-    <mergeCell ref="B326:B328"/>
-    <mergeCell ref="C326:C328"/>
-    <mergeCell ref="D326:D328"/>
-    <mergeCell ref="E326:E328"/>
-    <mergeCell ref="F326:F328"/>
-    <mergeCell ref="G326:G328"/>
-    <mergeCell ref="N332:N334"/>
-    <mergeCell ref="O332:O334"/>
-    <mergeCell ref="U329:U331"/>
-    <mergeCell ref="V329:V331"/>
-    <mergeCell ref="B332:B334"/>
-    <mergeCell ref="C332:C334"/>
-    <mergeCell ref="D332:D334"/>
-    <mergeCell ref="E332:E334"/>
-    <mergeCell ref="F332:F334"/>
-    <mergeCell ref="G332:G334"/>
-    <mergeCell ref="H332:H334"/>
-    <mergeCell ref="I332:I334"/>
-    <mergeCell ref="O329:O331"/>
-    <mergeCell ref="P329:P331"/>
-    <mergeCell ref="Q329:Q331"/>
-    <mergeCell ref="R329:R331"/>
-    <mergeCell ref="S329:S331"/>
-    <mergeCell ref="T329:T331"/>
-    <mergeCell ref="I329:I331"/>
-    <mergeCell ref="J329:J331"/>
-    <mergeCell ref="K329:K331"/>
-    <mergeCell ref="L329:L331"/>
-    <mergeCell ref="M329:M331"/>
-    <mergeCell ref="N329:N331"/>
-    <mergeCell ref="Q335:Q337"/>
-    <mergeCell ref="R335:R337"/>
-    <mergeCell ref="S335:S337"/>
-    <mergeCell ref="T335:T337"/>
-    <mergeCell ref="U335:U337"/>
-    <mergeCell ref="V335:V337"/>
-    <mergeCell ref="K335:K337"/>
-    <mergeCell ref="L335:L337"/>
-    <mergeCell ref="M335:M337"/>
-    <mergeCell ref="N335:N337"/>
-    <mergeCell ref="O335:O337"/>
-    <mergeCell ref="P335:P337"/>
-    <mergeCell ref="V332:V334"/>
-    <mergeCell ref="B335:B337"/>
-    <mergeCell ref="C335:C337"/>
-    <mergeCell ref="D335:D337"/>
-    <mergeCell ref="E335:E337"/>
-    <mergeCell ref="F335:F337"/>
-    <mergeCell ref="G335:G337"/>
-    <mergeCell ref="H335:H337"/>
-    <mergeCell ref="I335:I337"/>
-    <mergeCell ref="J335:J337"/>
-    <mergeCell ref="P332:P334"/>
-    <mergeCell ref="Q332:Q334"/>
-    <mergeCell ref="R332:R334"/>
-    <mergeCell ref="S332:S334"/>
-    <mergeCell ref="T332:T334"/>
-    <mergeCell ref="U332:U334"/>
-    <mergeCell ref="J332:J334"/>
-    <mergeCell ref="K332:K334"/>
-    <mergeCell ref="L332:L334"/>
-    <mergeCell ref="M332:M334"/>
-    <mergeCell ref="T338:T340"/>
-    <mergeCell ref="U338:U340"/>
-    <mergeCell ref="V338:V340"/>
-    <mergeCell ref="B341:B343"/>
-    <mergeCell ref="C341:C343"/>
-    <mergeCell ref="D341:D343"/>
-    <mergeCell ref="E341:E343"/>
-    <mergeCell ref="F341:F343"/>
-    <mergeCell ref="G341:G343"/>
-    <mergeCell ref="H341:H343"/>
-    <mergeCell ref="N338:N340"/>
-    <mergeCell ref="O338:O340"/>
-    <mergeCell ref="P338:P340"/>
-    <mergeCell ref="Q338:Q340"/>
-    <mergeCell ref="R338:R340"/>
-    <mergeCell ref="S338:S340"/>
-    <mergeCell ref="H338:H340"/>
-    <mergeCell ref="I338:I340"/>
-    <mergeCell ref="J338:J340"/>
-    <mergeCell ref="K338:K340"/>
-    <mergeCell ref="L338:L340"/>
-    <mergeCell ref="M338:M340"/>
-    <mergeCell ref="B338:B340"/>
-    <mergeCell ref="C338:C340"/>
-    <mergeCell ref="D338:D340"/>
-    <mergeCell ref="E338:E340"/>
-    <mergeCell ref="F338:F340"/>
-    <mergeCell ref="G338:G340"/>
-    <mergeCell ref="N344:N346"/>
-    <mergeCell ref="O344:O346"/>
-    <mergeCell ref="U341:U343"/>
-    <mergeCell ref="V341:V343"/>
-    <mergeCell ref="B344:B346"/>
-    <mergeCell ref="C344:C346"/>
-    <mergeCell ref="D344:D346"/>
-    <mergeCell ref="E344:E346"/>
-    <mergeCell ref="F344:F346"/>
-    <mergeCell ref="G344:G346"/>
-    <mergeCell ref="H344:H346"/>
-    <mergeCell ref="I344:I346"/>
-    <mergeCell ref="O341:O343"/>
-    <mergeCell ref="P341:P343"/>
-    <mergeCell ref="Q341:Q343"/>
-    <mergeCell ref="R341:R343"/>
-    <mergeCell ref="S341:S343"/>
-    <mergeCell ref="T341:T343"/>
-    <mergeCell ref="I341:I343"/>
-    <mergeCell ref="J341:J343"/>
-    <mergeCell ref="K341:K343"/>
-    <mergeCell ref="L341:L343"/>
-    <mergeCell ref="M341:M343"/>
-    <mergeCell ref="N341:N343"/>
-    <mergeCell ref="Q347:Q349"/>
-    <mergeCell ref="R347:R349"/>
-    <mergeCell ref="S347:S349"/>
-    <mergeCell ref="T347:T349"/>
-    <mergeCell ref="U347:U349"/>
-    <mergeCell ref="V347:V349"/>
-    <mergeCell ref="K347:K349"/>
-    <mergeCell ref="L347:L349"/>
-    <mergeCell ref="M347:M349"/>
-    <mergeCell ref="N347:N349"/>
-    <mergeCell ref="O347:O349"/>
-    <mergeCell ref="P347:P349"/>
-    <mergeCell ref="V344:V346"/>
-    <mergeCell ref="B347:B349"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="D347:D349"/>
-    <mergeCell ref="E347:E349"/>
-    <mergeCell ref="F347:F349"/>
-    <mergeCell ref="G347:G349"/>
-    <mergeCell ref="H347:H349"/>
-    <mergeCell ref="I347:I349"/>
-    <mergeCell ref="J347:J349"/>
-    <mergeCell ref="P344:P346"/>
-    <mergeCell ref="Q344:Q346"/>
-    <mergeCell ref="R344:R346"/>
-    <mergeCell ref="S344:S346"/>
-    <mergeCell ref="T344:T346"/>
-    <mergeCell ref="U344:U346"/>
-    <mergeCell ref="J344:J346"/>
-    <mergeCell ref="K344:K346"/>
-    <mergeCell ref="L344:L346"/>
-    <mergeCell ref="M344:M346"/>
-    <mergeCell ref="T350:T352"/>
-    <mergeCell ref="U350:U352"/>
-    <mergeCell ref="V350:V352"/>
-    <mergeCell ref="N350:N352"/>
-    <mergeCell ref="O350:O352"/>
-    <mergeCell ref="P350:P352"/>
-    <mergeCell ref="Q350:Q352"/>
-    <mergeCell ref="R350:R352"/>
-    <mergeCell ref="S350:S352"/>
-    <mergeCell ref="H350:H352"/>
-    <mergeCell ref="I350:I352"/>
-    <mergeCell ref="J350:J352"/>
-    <mergeCell ref="K350:K352"/>
-    <mergeCell ref="L350:L352"/>
-    <mergeCell ref="M350:M352"/>
-    <mergeCell ref="B350:B352"/>
-    <mergeCell ref="C350:C352"/>
-    <mergeCell ref="D350:D352"/>
-    <mergeCell ref="E350:E352"/>
-    <mergeCell ref="F350:F352"/>
-    <mergeCell ref="G350:G352"/>
+    <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="P5:P7"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="S2:S4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/study.cgi?study_id=phs000101.v5.p1" xr:uid="{2237B25A-BF93-FE48-BFC7-BA36E7619432}"/>
@@ -19693,7 +19711,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A97" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -44696,11 +44714,11 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AE673"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U28" sqref="U28"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -44710,7 +44728,7 @@
     <col min="3" max="3" width="0.1640625" style="8" customWidth="1"/>
     <col min="4" max="16" width="3.33203125" style="8" customWidth="1"/>
     <col min="17" max="17" width="16.5" style="8" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="8" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" style="8" customWidth="1"/>
     <col min="19" max="19" width="6.1640625" style="8" customWidth="1"/>
     <col min="20" max="16384" width="10.83203125" style="8"/>
   </cols>
@@ -44803,7 +44821,7 @@
         <f>LOG10(MIN(D3,F3:P3))</f>
         <v>2.667452952889954</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="31">
         <f>(MIN(D3,F3:O3))</f>
         <v>465</v>
       </c>
@@ -44848,7 +44866,7 @@
         <f t="shared" ref="Q4:Q6" si="0">LOG10(MIN(D4,F4:P4))</f>
         <v>3.6020599913279625</v>
       </c>
-      <c r="R4" s="23">
+      <c r="R4" s="31">
         <f t="shared" ref="R4:R6" si="1">(MIN(D4,F4:O4))</f>
         <v>4000</v>
       </c>
@@ -44893,7 +44911,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="31">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -44934,7 +44952,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="31">
         <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
@@ -44966,7 +44984,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="23"/>
+      <c r="R7" s="31"/>
       <c r="S7" s="23"/>
       <c r="T7" s="14" t="s">
         <v>436</v>
@@ -45008,7 +45026,7 @@
         <f>LOG10(MIN(D8,F8:P8))</f>
         <v>3.1489109931093564</v>
       </c>
-      <c r="R8" s="23">
+      <c r="R8" s="31">
         <f t="shared" ref="R8:R29" si="3">(MIN(D8,F8:O8))</f>
         <v>1409</v>
       </c>
@@ -45049,7 +45067,7 @@
         <f t="shared" ref="Q9:Q35" si="4">LOG10(MIN(D9,F9:P9))</f>
         <v>3.4470028984661623</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="31">
         <f t="shared" si="3"/>
         <v>2799</v>
       </c>
@@ -45090,7 +45108,7 @@
         <f t="shared" si="4"/>
         <v>3.8750612633917001</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="31">
         <f t="shared" si="3"/>
         <v>7500</v>
       </c>
@@ -45133,7 +45151,7 @@
         <f t="shared" si="4"/>
         <v>3.0413926851582249</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="31">
         <f t="shared" si="3"/>
         <v>1100</v>
       </c>
@@ -45174,7 +45192,7 @@
         <f t="shared" si="4"/>
         <v>4.0573998172660621</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="31">
         <f t="shared" si="3"/>
         <v>11413</v>
       </c>
@@ -45215,7 +45233,7 @@
         <f t="shared" si="4"/>
         <v>3.5589484459780394</v>
       </c>
-      <c r="R13" s="23">
+      <c r="R13" s="31">
         <f t="shared" si="3"/>
         <v>3622</v>
       </c>
@@ -45256,7 +45274,7 @@
         <f t="shared" si="4"/>
         <v>3.5563025007672873</v>
       </c>
-      <c r="R14" s="23">
+      <c r="R14" s="31">
         <f t="shared" si="3"/>
         <v>3600</v>
       </c>
@@ -45297,7 +45315,7 @@
         <f t="shared" si="4"/>
         <v>3.6116171105543362</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="31">
         <f t="shared" si="3"/>
         <v>4089</v>
       </c>
@@ -45338,7 +45356,7 @@
         <f t="shared" si="4"/>
         <v>3.1461280356782382</v>
       </c>
-      <c r="R16" s="23">
+      <c r="R16" s="31">
         <f t="shared" si="3"/>
         <v>1400</v>
       </c>
@@ -45379,7 +45397,7 @@
         <f t="shared" si="4"/>
         <v>3.2695129442179165</v>
       </c>
-      <c r="R17" s="23">
+      <c r="R17" s="31">
         <f t="shared" si="3"/>
         <v>1860</v>
       </c>
@@ -45420,7 +45438,7 @@
         <f t="shared" si="4"/>
         <v>2.9854264740830017</v>
       </c>
-      <c r="R18" s="23">
+      <c r="R18" s="31">
         <f t="shared" si="3"/>
         <v>967</v>
       </c>
@@ -45461,7 +45479,7 @@
         <f t="shared" si="4"/>
         <v>3.3560258571931225</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="31">
         <f t="shared" si="3"/>
         <v>2270</v>
       </c>
@@ -45502,7 +45520,7 @@
         <f t="shared" si="4"/>
         <v>3.4998244958395799</v>
       </c>
-      <c r="R20" s="23">
+      <c r="R20" s="31">
         <f t="shared" si="3"/>
         <v>3161</v>
       </c>
@@ -45543,7 +45561,7 @@
         <f t="shared" si="4"/>
         <v>3.5440680443502757</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="31">
         <f t="shared" si="3"/>
         <v>3500</v>
       </c>
@@ -45590,7 +45608,7 @@
         <f t="shared" si="4"/>
         <v>2.9777236052888476</v>
       </c>
-      <c r="R22" s="23">
+      <c r="R22" s="31">
         <f t="shared" si="3"/>
         <v>950</v>
       </c>
@@ -45633,7 +45651,7 @@
         <f t="shared" si="4"/>
         <v>2.4885507165004443</v>
       </c>
-      <c r="R23" s="23">
+      <c r="R23" s="31">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
@@ -45674,7 +45692,7 @@
         <f t="shared" si="4"/>
         <v>3.9009676239191244</v>
       </c>
-      <c r="R24" s="23">
+      <c r="R24" s="31">
         <f t="shared" si="3"/>
         <v>7961</v>
       </c>
@@ -45715,7 +45733,7 @@
         <f t="shared" si="4"/>
         <v>3.1126050015345745</v>
       </c>
-      <c r="R25" s="23">
+      <c r="R25" s="31">
         <f t="shared" si="3"/>
         <v>1296</v>
       </c>
@@ -45758,7 +45776,7 @@
         <f t="shared" si="4"/>
         <v>2.6532125137753435</v>
       </c>
-      <c r="R26" s="23">
+      <c r="R26" s="31">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
@@ -45799,7 +45817,7 @@
         <f t="shared" si="4"/>
         <v>3.4124605474299612</v>
       </c>
-      <c r="R27" s="23">
+      <c r="R27" s="31">
         <f t="shared" si="3"/>
         <v>2585</v>
       </c>
@@ -45842,7 +45860,7 @@
         <f t="shared" si="4"/>
         <v>3.03261876085072</v>
       </c>
-      <c r="R28" s="23">
+      <c r="R28" s="31">
         <f t="shared" si="3"/>
         <v>1078</v>
       </c>
@@ -45883,7 +45901,7 @@
         <f t="shared" si="4"/>
         <v>3.7781512503836434</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="31">
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
@@ -45927,7 +45945,7 @@
         <f>LOG10(MIN(D30,F30:P30))</f>
         <v>3.1461280356782382</v>
       </c>
-      <c r="R30" s="14">
+      <c r="R30" s="32">
         <f>(MIN(D30,F30:O30))</f>
         <v>1400</v>
       </c>
@@ -45963,7 +45981,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="23"/>
+      <c r="R31" s="31"/>
       <c r="S31" s="23"/>
       <c r="T31" s="22" t="s">
         <v>535</v>
@@ -46005,7 +46023,7 @@
         <f t="shared" si="4"/>
         <v>4.0211892990699383</v>
       </c>
-      <c r="R32" s="23">
+      <c r="R32" s="31">
         <f>(MIN(D32,F32:O32))</f>
         <v>10500</v>
       </c>
@@ -46046,7 +46064,7 @@
         <f t="shared" si="4"/>
         <v>4.4065401804339555</v>
       </c>
-      <c r="R33" s="23">
+      <c r="R33" s="31">
         <f>(MIN(D33,F33:O33))</f>
         <v>25500</v>
       </c>
@@ -46091,7 +46109,7 @@
         <f t="shared" si="4"/>
         <v>3.8750612633917001</v>
       </c>
-      <c r="R34" s="23">
+      <c r="R34" s="31">
         <f>(MIN(D34,F34:O34))</f>
         <v>7500</v>
       </c>
@@ -46134,7 +46152,7 @@
         <f t="shared" si="4"/>
         <v>3.7881683711411678</v>
       </c>
-      <c r="R35" s="23">
+      <c r="R35" s="31">
         <f>(MIN(D35,F35:O35))</f>
         <v>6140</v>
       </c>
@@ -46153,6 +46171,7 @@
       </c>
     </row>
     <row r="36" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R36" s="33"/>
       <c r="AE36" s="8">
         <f>LOG10(1)</f>
         <v>0</v>
@@ -46183,7 +46202,7 @@
         <f>LOG(MIN(D37,F37:O37),10)</f>
         <v>5.9999999999999991</v>
       </c>
-      <c r="R37" s="23">
+      <c r="R37" s="31">
         <f>(MIN(D37,F37:O37))</f>
         <v>1000000</v>
       </c>
@@ -51674,13 +51693,13 @@
       <c r="B4" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <v>1123</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>376</v>
       </c>
       <c r="F4" s="29" t="s">
@@ -51697,9 +51716,9 @@
       <c r="B5" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="29"/>
       <c r="G5" s="30"/>
     </row>
@@ -51707,16 +51726,16 @@
       <c r="A6" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="28">
         <v>637</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>381</v>
       </c>
       <c r="F6" s="29" t="s">
@@ -51730,10 +51749,10 @@
       <c r="A7" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
     </row>
@@ -51744,13 +51763,13 @@
       <c r="B8" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="28">
         <v>80</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>385</v>
       </c>
       <c r="F8" s="29" t="s">
@@ -51767,9 +51786,9 @@
       <c r="B9" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
     </row>
@@ -51777,16 +51796,16 @@
       <c r="A10" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="28">
         <v>118</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F10" s="29" t="s">
@@ -51800,10 +51819,10 @@
       <c r="A11" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="29"/>
       <c r="G11" s="30"/>
     </row>
@@ -51811,16 +51830,16 @@
       <c r="A12" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="28">
         <v>2106</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F12" s="29" t="s">
@@ -51834,10 +51853,10 @@
       <c r="A13" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
     </row>
@@ -51845,16 +51864,16 @@
       <c r="A14" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="28">
         <v>173</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F14" s="29" t="s">
@@ -51868,10 +51887,10 @@
       <c r="A15" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
     </row>
@@ -51882,13 +51901,13 @@
       <c r="B16" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="28">
         <v>128</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F16" s="29" t="s">
@@ -51905,9 +51924,9 @@
       <c r="B17" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
     </row>
@@ -51918,13 +51937,13 @@
       <c r="B18" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="28">
         <v>3596</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="28" t="s">
         <v>398</v>
       </c>
       <c r="F18" s="29" t="s">
@@ -51941,9 +51960,9 @@
       <c r="B19" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
     </row>
@@ -51951,16 +51970,16 @@
       <c r="A20" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="28">
         <v>994</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="28" t="s">
         <v>401</v>
       </c>
       <c r="F20" s="29" t="s">
@@ -51974,10 +51993,10 @@
       <c r="A21" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
     </row>
@@ -51985,16 +52004,16 @@
       <c r="A22" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="28">
         <v>999</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F22" s="29" t="s">
@@ -52008,10 +52027,10 @@
       <c r="A23" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
     </row>
@@ -52019,16 +52038,16 @@
       <c r="A24" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="28">
         <v>1332</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="28" t="s">
         <v>406</v>
       </c>
       <c r="F24" s="29" t="s">
@@ -52042,10 +52061,10 @@
       <c r="A25" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
     </row>
@@ -52053,16 +52072,16 @@
       <c r="A26" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="28">
         <v>4154</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="28" t="s">
         <v>409</v>
       </c>
       <c r="F26" s="29" t="s">
@@ -52076,10 +52095,10 @@
       <c r="A27" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
       <c r="F27" s="29"/>
       <c r="G27" s="30"/>
     </row>
@@ -52087,16 +52106,16 @@
       <c r="A28" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="28">
         <v>1534</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F28" s="29" t="s">
@@ -52110,10 +52129,10 @@
       <c r="A29" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="29"/>
       <c r="G29" s="30"/>
     </row>
@@ -52121,16 +52140,16 @@
       <c r="A30" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="28" t="s">
         <v>388</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="28">
         <v>1134</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F30" s="29" t="s">
@@ -52144,10 +52163,10 @@
       <c r="A31" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
       <c r="F31" s="29"/>
       <c r="G31" s="30"/>
     </row>
@@ -52155,16 +52174,16 @@
       <c r="A32" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="28">
         <v>1533</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="28" t="s">
         <v>416</v>
       </c>
       <c r="F32" s="29" t="s">
@@ -52178,10 +52197,10 @@
       <c r="A33" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="29"/>
       <c r="G33" s="30"/>
     </row>
@@ -52189,16 +52208,16 @@
       <c r="A34" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="28">
         <v>362</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F34" s="29" t="s">
@@ -52212,10 +52231,10 @@
       <c r="A35" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="29"/>
       <c r="G35" s="30"/>
     </row>
@@ -52223,16 +52242,16 @@
       <c r="A36" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D36" s="27">
+      <c r="D36" s="28">
         <v>10229</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="28" t="s">
         <v>323</v>
       </c>
       <c r="F36" s="29" t="s">
@@ -52246,10 +52265,10 @@
       <c r="A37" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="29"/>
       <c r="G37" s="30"/>
     </row>
@@ -52257,16 +52276,16 @@
       <c r="A38" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="28">
         <v>1527</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="28" t="s">
         <v>376</v>
       </c>
       <c r="F38" s="29" t="s">
@@ -52280,10 +52299,10 @@
       <c r="A39" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
     </row>
@@ -52291,16 +52310,16 @@
       <c r="A40" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="28">
         <v>999</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F40" s="29" t="s">
@@ -52314,10 +52333,10 @@
       <c r="A41" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
     </row>
@@ -52325,16 +52344,16 @@
       <c r="A42" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="28">
         <v>4230</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="28" t="s">
         <v>323</v>
       </c>
       <c r="F42" s="29" t="s">
@@ -52348,10 +52367,10 @@
       <c r="A43" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
     </row>
@@ -52359,16 +52378,16 @@
       <c r="A44" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D44" s="27">
+      <c r="D44" s="28">
         <v>3622</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="28" t="s">
         <v>401</v>
       </c>
       <c r="F44" s="29" t="s">
@@ -52382,10 +52401,10 @@
       <c r="A45" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="29"/>
       <c r="G45" s="30"/>
     </row>
@@ -52393,16 +52412,16 @@
       <c r="A46" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D46" s="27">
+      <c r="D46" s="28">
         <v>709</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="28" t="s">
         <v>389</v>
       </c>
       <c r="F46" s="29" t="s">
@@ -52416,25 +52435,121 @@
       <c r="A47" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="29"/>
       <c r="G47" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="128">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
@@ -52447,112 +52562,16 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/study.cgi?study_id=phs000956.v3.p1" xr:uid="{0E107319-6237-7C4C-9ADE-F9C4AB002077}"/>

--- a/data/dbgap-gru-datasets.xlsx
+++ b/data/dbgap-gru-datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7024B231-8448-124A-B655-9E841EF2C69B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D7369F-F2A3-D44B-BB31-6CDD64D972AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36420" yWindow="460" windowWidth="43580" windowHeight="28340" activeTab="5" xr2:uid="{508F2554-2B11-6746-B749-6950C00316BA}"/>
   </bookViews>
@@ -1274,9 +1274,6 @@
     <t>RNA-binding (CLIP-seq, RIP-seq)</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>http://www.internationalgenome.org/</t>
   </si>
   <si>
@@ -1859,6 +1856,9 @@
   </si>
   <si>
     <t>https://www.uk10k.org/</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
   <si>
     <t>WHI</t>
@@ -19779,7 +19779,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -44763,13 +44763,13 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="33" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="0.1640625" style="8" customWidth="1"/>
     <col min="4" max="16" width="3.33203125" style="8" customWidth="1"/>
     <col min="17" max="17" width="16.5" style="8" customWidth="1"/>
@@ -44780,7 +44780,7 @@
   <sheetData>
     <row r="2" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B2" s="28"/>
       <c r="D2" s="9" t="s">
@@ -44796,13 +44796,13 @@
         <v>348</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>349</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>351</v>
@@ -44811,13 +44811,13 @@
         <v>352</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>345</v>
@@ -44830,11 +44830,11 @@
       <c r="T2" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>353</v>
+      <c r="U2" s="8" t="s">
+        <v>547</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W2" s="8" t="s">
         <v>551</v>
@@ -44845,7 +44845,7 @@
     </row>
     <row r="3" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -44876,14 +44876,14 @@
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Z3" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -44892,7 +44892,7 @@
     </row>
     <row r="4" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -44923,14 +44923,14 @@
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Z4" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -44939,7 +44939,7 @@
     </row>
     <row r="5" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -44970,19 +44970,19 @@
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V5" s="14"/>
       <c r="W5" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -45013,19 +45013,19 @@
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V6" s="14"/>
       <c r="W6" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -45046,10 +45046,10 @@
       <c r="R7" s="24"/>
       <c r="S7" s="22"/>
       <c r="T7" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V7" s="14"/>
       <c r="W7" s="14" t="s">
@@ -45063,10 +45063,10 @@
     <row r="8" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>434</v>
       </c>
       <c r="D8" s="20">
         <v>1409</v>
@@ -45096,7 +45096,7 @@
       <c r="U8" s="16"/>
       <c r="V8" s="14"/>
       <c r="W8" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Z8" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45106,10 +45106,10 @@
     <row r="9" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>435</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>436</v>
       </c>
       <c r="D9" s="20">
         <v>2799</v>
@@ -45139,7 +45139,7 @@
       <c r="U9" s="16"/>
       <c r="V9" s="14"/>
       <c r="W9" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z9" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45149,10 +45149,10 @@
     <row r="10" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>437</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>438</v>
       </c>
       <c r="D10" s="20">
         <v>7500</v>
@@ -45182,7 +45182,7 @@
       <c r="U10" s="16"/>
       <c r="V10" s="14"/>
       <c r="W10" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z10" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45192,10 +45192,10 @@
     <row r="11" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>440</v>
       </c>
       <c r="D11" s="20">
         <v>1100</v>
@@ -45204,7 +45204,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="10"/>
@@ -45227,7 +45227,7 @@
       <c r="U11" s="16"/>
       <c r="V11" s="14"/>
       <c r="W11" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Z11" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45237,10 +45237,10 @@
     <row r="12" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>441</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>442</v>
       </c>
       <c r="D12" s="20">
         <v>11413</v>
@@ -45270,7 +45270,7 @@
       <c r="U12" s="16"/>
       <c r="V12" s="14"/>
       <c r="W12" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z12" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45280,10 +45280,10 @@
     <row r="13" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>443</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>444</v>
       </c>
       <c r="D13" s="20">
         <v>3622</v>
@@ -45313,7 +45313,7 @@
       <c r="U13" s="16"/>
       <c r="V13" s="14"/>
       <c r="W13" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Z13" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45323,10 +45323,10 @@
     <row r="14" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>446</v>
       </c>
       <c r="D14" s="20">
         <v>3600</v>
@@ -45356,7 +45356,7 @@
       <c r="U14" s="16"/>
       <c r="V14" s="14"/>
       <c r="W14" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Z14" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45366,10 +45366,10 @@
     <row r="15" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>447</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>448</v>
       </c>
       <c r="D15" s="20">
         <v>4089</v>
@@ -45399,7 +45399,7 @@
       <c r="U15" s="16"/>
       <c r="V15" s="14"/>
       <c r="W15" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z15" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45409,10 +45409,10 @@
     <row r="16" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>449</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>450</v>
       </c>
       <c r="D16" s="20">
         <v>1400</v>
@@ -45442,7 +45442,7 @@
       <c r="U16" s="16"/>
       <c r="V16" s="14"/>
       <c r="W16" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Z16" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45452,10 +45452,10 @@
     <row r="17" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>451</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>452</v>
       </c>
       <c r="D17" s="20">
         <v>1860</v>
@@ -45485,7 +45485,7 @@
       <c r="U17" s="16"/>
       <c r="V17" s="14"/>
       <c r="W17" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Z17" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45495,10 +45495,10 @@
     <row r="18" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>453</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>454</v>
       </c>
       <c r="D18" s="20">
         <v>967</v>
@@ -45528,7 +45528,7 @@
       <c r="U18" s="16"/>
       <c r="V18" s="14"/>
       <c r="W18" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="Z18" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45538,10 +45538,10 @@
     <row r="19" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>455</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>456</v>
       </c>
       <c r="D19" s="20">
         <v>2270</v>
@@ -45571,7 +45571,7 @@
       <c r="U19" s="16"/>
       <c r="V19" s="14"/>
       <c r="W19" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="Z19" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45581,10 +45581,10 @@
     <row r="20" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>458</v>
       </c>
       <c r="D20" s="20">
         <v>3161</v>
@@ -45614,7 +45614,7 @@
       <c r="U20" s="16"/>
       <c r="V20" s="14"/>
       <c r="W20" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="Z20" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45624,10 +45624,10 @@
     <row r="21" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>459</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>460</v>
       </c>
       <c r="D21" s="20">
         <v>3500</v>
@@ -45657,7 +45657,7 @@
       <c r="U21" s="16"/>
       <c r="V21" s="14"/>
       <c r="W21" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Z21" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45667,10 +45667,10 @@
     <row r="22" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>430</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>431</v>
       </c>
       <c r="D22" s="20">
         <v>4595</v>
@@ -45706,7 +45706,7 @@
       <c r="U22" s="16"/>
       <c r="V22" s="14"/>
       <c r="W22" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z22" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45716,10 +45716,10 @@
     <row r="23" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>461</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>462</v>
       </c>
       <c r="D23" s="20">
         <v>3230</v>
@@ -45751,7 +45751,7 @@
       <c r="U23" s="16"/>
       <c r="V23" s="14"/>
       <c r="W23" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Z23" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45761,10 +45761,10 @@
     <row r="24" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>464</v>
       </c>
       <c r="D24" s="20">
         <v>7961</v>
@@ -45794,7 +45794,7 @@
       <c r="U24" s="16"/>
       <c r="V24" s="14"/>
       <c r="W24" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z24" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45804,10 +45804,10 @@
     <row r="25" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>465</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>466</v>
       </c>
       <c r="D25" s="20">
         <v>1296</v>
@@ -45837,7 +45837,7 @@
       <c r="U25" s="16"/>
       <c r="V25" s="14"/>
       <c r="W25" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Z25" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45847,10 +45847,10 @@
     <row r="26" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C26" s="17" t="s">
         <v>467</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>468</v>
       </c>
       <c r="D26" s="20">
         <v>1500</v>
@@ -45882,7 +45882,7 @@
       <c r="U26" s="16"/>
       <c r="V26" s="14"/>
       <c r="W26" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="Z26" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45892,10 +45892,10 @@
     <row r="27" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>469</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>470</v>
       </c>
       <c r="D27" s="20">
         <v>2585</v>
@@ -45925,7 +45925,7 @@
       <c r="U27" s="16"/>
       <c r="V27" s="14"/>
       <c r="W27" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="Z27" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45935,10 +45935,10 @@
     <row r="28" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>471</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>472</v>
       </c>
       <c r="D28" s="20">
         <v>1078</v>
@@ -45970,7 +45970,7 @@
       <c r="U28" s="16"/>
       <c r="V28" s="14"/>
       <c r="W28" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Z28" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -45980,10 +45980,10 @@
     <row r="29" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>473</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>474</v>
       </c>
       <c r="D29" s="20">
         <v>6000</v>
@@ -46013,7 +46013,7 @@
       <c r="U29" s="16"/>
       <c r="V29" s="14"/>
       <c r="W29" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Z29" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -46067,7 +46067,7 @@
     </row>
     <row r="31" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -46088,10 +46088,10 @@
       <c r="R31" s="24"/>
       <c r="S31" s="22"/>
       <c r="T31" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U31" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
@@ -46103,7 +46103,7 @@
     <row r="32" spans="1:26" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="10">
@@ -46133,7 +46133,7 @@
       </c>
       <c r="S32" s="22"/>
       <c r="T32" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U32" s="16"/>
       <c r="V32" s="14"/>
@@ -46142,10 +46142,10 @@
     <row r="33" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D33" s="10">
         <v>25500</v>
@@ -46174,12 +46174,12 @@
       </c>
       <c r="S33" s="22"/>
       <c r="T33" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U33" s="16"/>
       <c r="V33" s="14"/>
       <c r="W33" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z33" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -46189,10 +46189,10 @@
     <row r="34" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>482</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>483</v>
       </c>
       <c r="D34" s="10">
         <v>7500</v>
@@ -46221,7 +46221,7 @@
       </c>
       <c r="S34" s="22"/>
       <c r="T34" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U34" s="16"/>
       <c r="V34" s="14"/>
@@ -46236,10 +46236,10 @@
     <row r="35" spans="1:31" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>484</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>485</v>
       </c>
       <c r="D35" s="10">
         <v>6140</v>
@@ -46289,7 +46289,7 @@
     </row>
     <row r="37" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -46318,10 +46318,10 @@
       </c>
       <c r="S37" s="10"/>
       <c r="T37" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U37" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
@@ -46343,7 +46343,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A39" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
@@ -46365,7 +46365,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="15"/>
       <c r="U39" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="V39" s="14"/>
       <c r="W39" s="14"/>
@@ -46381,7 +46381,7 @@
     <row r="40" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -46392,7 +46392,7 @@
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
@@ -46405,11 +46405,11 @@
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
       <c r="V40" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W40" s="14"/>
       <c r="X40" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Z40" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -46423,7 +46423,7 @@
     <row r="41" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -46443,15 +46443,15 @@
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
       <c r="T41" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U41" s="14"/>
       <c r="V41" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W41" s="14"/>
       <c r="X41" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Z41" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -46465,7 +46465,7 @@
     <row r="42" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -46485,15 +46485,15 @@
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
       <c r="T42" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="U42" s="14"/>
       <c r="V42" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W42" s="14"/>
       <c r="X42" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Z42" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -46545,15 +46545,15 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A48" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>356</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>357</v>
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
@@ -46570,13 +46570,13 @@
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U48" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V48" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z48" s="8">
         <f ca="1">OFFSET(Matrix,TRUNC((ROW()-ROW($Z$3))/COLUMNS(Matrix)),MOD(ROW()-ROW($Z$3),COLUMNS(Matrix)),1,1)</f>
@@ -51293,43 +51293,43 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>508</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>509</v>
       </c>
       <c r="O1" s="13"/>
       <c r="P1" s="13"/>
@@ -51344,12 +51344,12 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B3" s="13">
         <v>28</v>
@@ -51389,7 +51389,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B4" s="13">
         <v>10</v>
@@ -51425,7 +51425,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B5" s="13">
         <v>8</v>
@@ -51459,7 +51459,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B6" s="13">
         <v>16</v>
@@ -51487,7 +51487,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B7" s="13">
         <v>16</v>
@@ -51513,7 +51513,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B8" s="13">
         <v>13</v>
@@ -51539,7 +51539,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B9" s="13">
         <v>13</v>
@@ -51563,7 +51563,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B10" s="13">
         <v>7</v>
@@ -51589,7 +51589,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B11" s="13">
         <v>5</v>
@@ -51615,7 +51615,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B12" s="13">
         <v>7</v>
@@ -51639,7 +51639,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -51661,7 +51661,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -51782,53 +51782,53 @@
         <v>238</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>367</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4" s="29">
         <v>1123</v>
       </c>
       <c r="E4" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>374</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="29"/>
@@ -51838,30 +51838,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" s="29">
         <v>637</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
@@ -51872,33 +51872,33 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D8" s="29">
         <v>80</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>382</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="29"/>
@@ -51908,30 +51908,30 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D10" s="29">
         <v>118</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
@@ -51942,30 +51942,30 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D12" s="29">
         <v>2106</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
@@ -51976,30 +51976,30 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D14" s="29">
         <v>173</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
@@ -52010,33 +52010,33 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D16" s="29">
         <v>128</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="29"/>
@@ -52046,33 +52046,33 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D18" s="29">
         <v>3596</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="29"/>
@@ -52082,30 +52082,30 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D20" s="29">
         <v>994</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="30"/>
@@ -52116,30 +52116,30 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D22" s="29">
         <v>999</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
@@ -52150,30 +52150,30 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D24" s="29">
         <v>1332</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="30"/>
@@ -52184,30 +52184,30 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D26" s="29">
         <v>4154</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -52218,30 +52218,30 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D28" s="29">
         <v>1534</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="30"/>
@@ -52252,30 +52252,30 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D30" s="29">
         <v>1134</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F30" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="30"/>
@@ -52286,30 +52286,30 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D32" s="29">
         <v>1533</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F32" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
@@ -52320,30 +52320,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D34" s="29">
         <v>362</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
@@ -52354,13 +52354,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D36" s="29">
         <v>10229</v>
@@ -52369,15 +52369,15 @@
         <v>323</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="30"/>
@@ -52388,30 +52388,30 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D38" s="29">
         <v>1527</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
@@ -52422,30 +52422,30 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D40" s="29">
         <v>999</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="30"/>
@@ -52456,13 +52456,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D42" s="29">
         <v>4230</v>
@@ -52471,15 +52471,15 @@
         <v>323</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
@@ -52490,30 +52490,30 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D44" s="29">
         <v>3622</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="30"/>
@@ -52524,30 +52524,30 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D46" s="29">
         <v>709</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F46" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="30"/>

--- a/data/dbgap-gru-datasets.xlsx
+++ b/data/dbgap-gru-datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trang/PhD/Manuscripts/cardioinformatics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D7369F-F2A3-D44B-BB31-6CDD64D972AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BFCE49-0A8E-8A4C-9E5B-764687155DF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36420" yWindow="460" windowWidth="43580" windowHeight="28340" activeTab="5" xr2:uid="{508F2554-2B11-6746-B749-6950C00316BA}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{508F2554-2B11-6746-B749-6950C00316BA}"/>
   </bookViews>
   <sheets>
     <sheet name="dbGaP-GRU-raw" sheetId="1" r:id="rId1"/>
@@ -44763,7 +44763,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
